--- a/BackTest/2020-01-11 BackTest ADA.xlsx
+++ b/BackTest/2020-01-11 BackTest ADA.xlsx
@@ -4651,17 +4651,13 @@
         <v>40.179</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="K122" t="n">
-        <v>39.7</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
@@ -4690,22 +4686,14 @@
         <v>40.16883333333335</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>39.78</v>
-      </c>
-      <c r="K123" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4733,22 +4721,14 @@
         <v>40.16016666666668</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>39.78</v>
-      </c>
-      <c r="K124" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4776,194 +4756,166 @@
         <v>40.15150000000001</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>39.93</v>
-      </c>
-      <c r="K125" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="C126" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="D126" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="E126" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="F126" t="n">
+        <v>37548.9194</v>
+      </c>
+      <c r="G126" t="n">
+        <v>40.14233333333334</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="C127" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="D127" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="E127" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="F127" t="n">
+        <v>7668.376</v>
+      </c>
+      <c r="G127" t="n">
+        <v>40.13316666666667</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>39.81</v>
+      </c>
+      <c r="C128" t="n">
+        <v>39.81</v>
+      </c>
+      <c r="D128" t="n">
+        <v>39.81</v>
+      </c>
+      <c r="E128" t="n">
+        <v>39.81</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1255.4315</v>
+      </c>
+      <c r="G128" t="n">
+        <v>40.12633333333334</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K128" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>39.74</v>
+      </c>
+      <c r="C129" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="D129" t="n">
+        <v>39.74</v>
+      </c>
+      <c r="E129" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2903.9847</v>
+      </c>
+      <c r="G129" t="n">
+        <v>40.11783333333334</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>39.81</v>
+      </c>
+      <c r="K129" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="C126" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="D126" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="E126" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="F126" t="n">
-        <v>37548.9194</v>
-      </c>
-      <c r="G126" t="n">
-        <v>40.14233333333334</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K126" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="C127" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="D127" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="E127" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="F127" t="n">
-        <v>7668.376</v>
-      </c>
-      <c r="G127" t="n">
-        <v>40.13316666666667</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K127" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>39.81</v>
-      </c>
-      <c r="C128" t="n">
-        <v>39.81</v>
-      </c>
-      <c r="D128" t="n">
-        <v>39.81</v>
-      </c>
-      <c r="E128" t="n">
-        <v>39.81</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1255.4315</v>
-      </c>
-      <c r="G128" t="n">
-        <v>40.12633333333334</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>39.81</v>
-      </c>
-      <c r="K128" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>39.74</v>
-      </c>
-      <c r="C129" t="n">
-        <v>39.71</v>
-      </c>
-      <c r="D129" t="n">
-        <v>39.74</v>
-      </c>
-      <c r="E129" t="n">
-        <v>39.64</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2903.9847</v>
-      </c>
-      <c r="G129" t="n">
-        <v>40.11783333333334</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>39.74</v>
-      </c>
-      <c r="K129" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5000,7 +4952,7 @@
         <v>39.71</v>
       </c>
       <c r="K130" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5040,10 +4992,10 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>39.8</v>
+        <v>39.71</v>
       </c>
       <c r="K131" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5086,7 +5038,7 @@
         <v>39.71</v>
       </c>
       <c r="K132" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5129,7 +5081,7 @@
         <v>39.71</v>
       </c>
       <c r="K133" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5169,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>39.81</v>
+        <v>39.71</v>
       </c>
       <c r="K134" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5215,7 +5167,7 @@
         <v>39.81</v>
       </c>
       <c r="K135" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5249,16 +5201,14 @@
         <v>40.06116666666669</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>39.81</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5292,16 +5242,14 @@
         <v>40.05466666666669</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>39.98</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5335,16 +5283,14 @@
         <v>40.0481666666667</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>39.98</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5378,16 +5324,14 @@
         <v>40.0431666666667</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>39.98</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5421,16 +5365,14 @@
         <v>40.04033333333336</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>40.1</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5464,16 +5406,14 @@
         <v>40.03283333333336</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>39.9</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5507,16 +5447,14 @@
         <v>40.02700000000004</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>40</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5550,16 +5488,14 @@
         <v>40.01583333333337</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>39.8</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5593,16 +5529,14 @@
         <v>40.01000000000003</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>39.8</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5636,16 +5570,14 @@
         <v>40.00433333333337</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>39.95</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5679,16 +5611,14 @@
         <v>39.99683333333337</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>39.84</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5722,16 +5652,14 @@
         <v>39.98550000000004</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>39.72</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5765,16 +5693,14 @@
         <v>39.97766666666671</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>39.78</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5808,16 +5734,14 @@
         <v>39.96966666666671</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>39.82</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5851,16 +5775,14 @@
         <v>39.96433333333337</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>39.82</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5894,16 +5816,14 @@
         <v>39.95500000000004</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>39.8</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -5937,16 +5857,14 @@
         <v>39.94750000000004</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>39.9</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -5980,16 +5898,14 @@
         <v>39.94350000000005</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>40.11</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6023,16 +5939,14 @@
         <v>39.93600000000005</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>39.9</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6066,16 +5980,14 @@
         <v>39.92800000000005</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>39.9</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6109,16 +6021,14 @@
         <v>39.91500000000005</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>39.71</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6152,16 +6062,14 @@
         <v>39.90816666666671</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>39.63</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6195,16 +6103,14 @@
         <v>39.90400000000004</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>40.01</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6238,16 +6144,14 @@
         <v>39.89950000000004</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>40.11</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6281,16 +6185,14 @@
         <v>39.89866666666671</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>40.15</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6324,16 +6226,14 @@
         <v>39.89400000000005</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>40.11</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6374,7 +6274,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6415,7 +6315,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6456,7 +6356,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6497,7 +6397,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6538,7 +6438,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6579,7 +6479,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6620,7 +6520,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6661,7 +6561,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6702,7 +6602,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6743,7 +6643,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6784,7 +6684,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6825,7 +6725,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6866,7 +6766,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6907,7 +6807,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6948,7 +6848,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6989,7 +6889,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -7030,7 +6930,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7071,7 +6971,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7108,19 +7008,19 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>39.7</v>
+        <v>39.73</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>1</v>
+        <v>1.019414799899321</v>
       </c>
     </row>
     <row r="181">
@@ -7152,14 +7052,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7193,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7234,14 +7122,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7275,14 +7157,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7316,14 +7192,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7357,14 +7227,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7398,14 +7262,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7439,14 +7297,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7480,14 +7332,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7521,14 +7367,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7562,14 +7402,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7603,14 +7437,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7644,14 +7472,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7685,14 +7507,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7726,14 +7542,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7767,14 +7577,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7808,14 +7612,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7849,14 +7647,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7890,14 +7682,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7931,14 +7717,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7972,14 +7752,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8013,14 +7787,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8054,14 +7822,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8095,14 +7857,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8136,14 +7892,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8177,14 +7927,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8218,14 +7962,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8259,14 +7997,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8300,14 +8032,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8341,14 +8067,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8382,14 +8102,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8423,14 +8137,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8464,14 +8172,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8505,14 +8207,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8546,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8587,14 +8277,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8625,19 +8309,13 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
-        <v>1.035302267002519</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -8666,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest ADA.xlsx
+++ b/BackTest/2020-01-11 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M219"/>
+  <dimension ref="A1:M220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>41.26</v>
+        <v>41.3</v>
       </c>
       <c r="C2" t="n">
-        <v>41.39</v>
+        <v>41.3</v>
       </c>
       <c r="D2" t="n">
-        <v>41.39</v>
+        <v>41.3</v>
       </c>
       <c r="E2" t="n">
-        <v>41.26</v>
+        <v>41.3</v>
       </c>
       <c r="F2" t="n">
-        <v>5642.3612</v>
+        <v>36.3466</v>
       </c>
       <c r="G2" t="n">
-        <v>41.25300000000006</v>
+        <v>41.24900000000006</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>41.2</v>
+        <v>41.26</v>
       </c>
       <c r="C3" t="n">
-        <v>41.2</v>
+        <v>41.39</v>
       </c>
       <c r="D3" t="n">
-        <v>41.2</v>
+        <v>41.39</v>
       </c>
       <c r="E3" t="n">
-        <v>41.2</v>
+        <v>41.26</v>
       </c>
       <c r="F3" t="n">
-        <v>596.0134</v>
+        <v>5642.3612</v>
       </c>
       <c r="G3" t="n">
-        <v>41.25200000000005</v>
+        <v>41.25300000000006</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>41.2</v>
       </c>
       <c r="F4" t="n">
-        <v>105.9598</v>
+        <v>596.0134</v>
       </c>
       <c r="G4" t="n">
-        <v>41.25100000000005</v>
+        <v>41.25200000000005</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="C5" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="D5" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="E5" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="F5" t="n">
-        <v>24.0941</v>
+        <v>105.9598</v>
       </c>
       <c r="G5" t="n">
-        <v>41.25266666666671</v>
+        <v>41.25100000000005</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="C6" t="n">
-        <v>41.15</v>
+        <v>41.4</v>
       </c>
       <c r="D6" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="E6" t="n">
-        <v>41.15</v>
+        <v>41.4</v>
       </c>
       <c r="F6" t="n">
-        <v>3580.1678</v>
+        <v>24.0941</v>
       </c>
       <c r="G6" t="n">
-        <v>41.25433333333338</v>
+        <v>41.25266666666671</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C7" t="n">
         <v>41.15</v>
       </c>
-      <c r="C7" t="n">
-        <v>41.03</v>
-      </c>
       <c r="D7" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E7" t="n">
         <v>41.15</v>
       </c>
-      <c r="E7" t="n">
-        <v>41.03</v>
-      </c>
       <c r="F7" t="n">
-        <v>7756.7001</v>
+        <v>3580.1678</v>
       </c>
       <c r="G7" t="n">
-        <v>41.25850000000004</v>
+        <v>41.25433333333338</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41.03</v>
+        <v>41.15</v>
       </c>
       <c r="C8" t="n">
         <v>41.03</v>
       </c>
       <c r="D8" t="n">
-        <v>41.03</v>
+        <v>41.15</v>
       </c>
       <c r="E8" t="n">
         <v>41.03</v>
       </c>
       <c r="F8" t="n">
-        <v>27107.6646</v>
+        <v>7756.7001</v>
       </c>
       <c r="G8" t="n">
-        <v>41.25833333333338</v>
+        <v>41.25850000000004</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>41.22</v>
+        <v>41.03</v>
       </c>
       <c r="C9" t="n">
-        <v>41.22</v>
+        <v>41.03</v>
       </c>
       <c r="D9" t="n">
-        <v>41.22</v>
+        <v>41.03</v>
       </c>
       <c r="E9" t="n">
-        <v>41.22</v>
+        <v>41.03</v>
       </c>
       <c r="F9" t="n">
-        <v>64.72586123000001</v>
+        <v>27107.6646</v>
       </c>
       <c r="G9" t="n">
-        <v>41.26533333333337</v>
+        <v>41.25833333333338</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41.02</v>
+        <v>41.22</v>
       </c>
       <c r="C10" t="n">
-        <v>41.02</v>
+        <v>41.22</v>
       </c>
       <c r="D10" t="n">
-        <v>41.02</v>
+        <v>41.22</v>
       </c>
       <c r="E10" t="n">
-        <v>41.02</v>
+        <v>41.22</v>
       </c>
       <c r="F10" t="n">
-        <v>1115.9806</v>
+        <v>64.72586123000001</v>
       </c>
       <c r="G10" t="n">
-        <v>41.2656666666667</v>
+        <v>41.26533333333337</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>41.21</v>
+        <v>41.02</v>
       </c>
       <c r="C11" t="n">
-        <v>41.21</v>
+        <v>41.02</v>
       </c>
       <c r="D11" t="n">
-        <v>41.21</v>
+        <v>41.02</v>
       </c>
       <c r="E11" t="n">
-        <v>41.21</v>
+        <v>41.02</v>
       </c>
       <c r="F11" t="n">
-        <v>10000</v>
+        <v>1115.9806</v>
       </c>
       <c r="G11" t="n">
-        <v>41.26633333333337</v>
+        <v>41.2656666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>41.05</v>
+        <v>41.21</v>
       </c>
       <c r="C12" t="n">
-        <v>41.05</v>
+        <v>41.21</v>
       </c>
       <c r="D12" t="n">
-        <v>41.05</v>
+        <v>41.21</v>
       </c>
       <c r="E12" t="n">
-        <v>41.02</v>
+        <v>41.21</v>
       </c>
       <c r="F12" t="n">
-        <v>7777</v>
+        <v>10000</v>
       </c>
       <c r="G12" t="n">
-        <v>41.26383333333338</v>
+        <v>41.26633333333337</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>41.05</v>
       </c>
       <c r="E13" t="n">
-        <v>41.05</v>
+        <v>41.02</v>
       </c>
       <c r="F13" t="n">
-        <v>1432.6948</v>
+        <v>7777</v>
       </c>
       <c r="G13" t="n">
-        <v>41.26300000000005</v>
+        <v>41.26383333333338</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>41.02</v>
+        <v>41.05</v>
       </c>
       <c r="C14" t="n">
-        <v>41.02</v>
+        <v>41.05</v>
       </c>
       <c r="D14" t="n">
-        <v>41.02</v>
+        <v>41.05</v>
       </c>
       <c r="E14" t="n">
-        <v>41.02</v>
+        <v>41.05</v>
       </c>
       <c r="F14" t="n">
-        <v>319.0194</v>
+        <v>1432.6948</v>
       </c>
       <c r="G14" t="n">
-        <v>41.26033333333339</v>
+        <v>41.26300000000005</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>41.07</v>
+        <v>41.02</v>
       </c>
       <c r="C15" t="n">
-        <v>41.07</v>
+        <v>41.02</v>
       </c>
       <c r="D15" t="n">
-        <v>41.07</v>
+        <v>41.02</v>
       </c>
       <c r="E15" t="n">
-        <v>41.07</v>
+        <v>41.02</v>
       </c>
       <c r="F15" t="n">
-        <v>2122.868</v>
+        <v>319.0194</v>
       </c>
       <c r="G15" t="n">
-        <v>41.25833333333339</v>
+        <v>41.26033333333339</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,19 +923,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>41</v>
+        <v>41.07</v>
       </c>
       <c r="C16" t="n">
-        <v>41</v>
+        <v>41.07</v>
       </c>
       <c r="D16" t="n">
-        <v>41</v>
+        <v>41.07</v>
       </c>
       <c r="E16" t="n">
-        <v>41</v>
+        <v>41.07</v>
       </c>
       <c r="F16" t="n">
-        <v>2900.5615</v>
+        <v>2122.868</v>
       </c>
       <c r="G16" t="n">
         <v>41.25833333333339</v>
@@ -970,10 +970,10 @@
         <v>41</v>
       </c>
       <c r="F17" t="n">
-        <v>1297.257</v>
+        <v>2900.5615</v>
       </c>
       <c r="G17" t="n">
-        <v>41.25550000000005</v>
+        <v>41.25833333333339</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>40.85</v>
+        <v>41</v>
       </c>
       <c r="C18" t="n">
         <v>41</v>
@@ -1002,13 +1002,13 @@
         <v>41</v>
       </c>
       <c r="E18" t="n">
-        <v>40.85</v>
+        <v>41</v>
       </c>
       <c r="F18" t="n">
-        <v>20396.2349</v>
+        <v>1297.257</v>
       </c>
       <c r="G18" t="n">
-        <v>41.25266666666672</v>
+        <v>41.25550000000005</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>40.93</v>
+        <v>40.85</v>
       </c>
       <c r="C19" t="n">
-        <v>40.93</v>
+        <v>41</v>
       </c>
       <c r="D19" t="n">
-        <v>40.93</v>
+        <v>41</v>
       </c>
       <c r="E19" t="n">
-        <v>40.93</v>
+        <v>40.85</v>
       </c>
       <c r="F19" t="n">
-        <v>94.23990000000001</v>
+        <v>20396.2349</v>
       </c>
       <c r="G19" t="n">
-        <v>41.24983333333338</v>
+        <v>41.25266666666672</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>40.93</v>
       </c>
       <c r="C20" t="n">
-        <v>41</v>
+        <v>40.93</v>
       </c>
       <c r="D20" t="n">
-        <v>41</v>
+        <v>40.93</v>
       </c>
       <c r="E20" t="n">
-        <v>40.83</v>
+        <v>40.93</v>
       </c>
       <c r="F20" t="n">
-        <v>11355.9141</v>
+        <v>94.23990000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>41.24816666666672</v>
+        <v>41.24983333333338</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>40.84</v>
+        <v>40.93</v>
       </c>
       <c r="C21" t="n">
-        <v>40.83</v>
+        <v>41</v>
       </c>
       <c r="D21" t="n">
-        <v>40.84</v>
+        <v>41</v>
       </c>
       <c r="E21" t="n">
         <v>40.83</v>
       </c>
       <c r="F21" t="n">
-        <v>100000</v>
+        <v>11355.9141</v>
       </c>
       <c r="G21" t="n">
-        <v>41.24233333333338</v>
+        <v>41.24816666666672</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>40.85</v>
+        <v>40.84</v>
       </c>
       <c r="C22" t="n">
-        <v>40.87</v>
+        <v>40.83</v>
       </c>
       <c r="D22" t="n">
-        <v>40.99</v>
+        <v>40.84</v>
       </c>
       <c r="E22" t="n">
-        <v>40.85</v>
+        <v>40.83</v>
       </c>
       <c r="F22" t="n">
-        <v>150030.6</v>
+        <v>100000</v>
       </c>
       <c r="G22" t="n">
-        <v>41.23850000000005</v>
+        <v>41.24233333333338</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>40.87</v>
+        <v>40.85</v>
       </c>
       <c r="C23" t="n">
         <v>40.87</v>
       </c>
       <c r="D23" t="n">
-        <v>40.87</v>
+        <v>40.99</v>
       </c>
       <c r="E23" t="n">
-        <v>40.87</v>
+        <v>40.85</v>
       </c>
       <c r="F23" t="n">
-        <v>43554.9118</v>
+        <v>150030.6</v>
       </c>
       <c r="G23" t="n">
-        <v>41.23333333333338</v>
+        <v>41.23850000000005</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>40.87</v>
       </c>
       <c r="C24" t="n">
-        <v>40.99</v>
+        <v>40.87</v>
       </c>
       <c r="D24" t="n">
-        <v>40.99</v>
+        <v>40.87</v>
       </c>
       <c r="E24" t="n">
         <v>40.87</v>
       </c>
       <c r="F24" t="n">
-        <v>17150</v>
+        <v>43554.9118</v>
       </c>
       <c r="G24" t="n">
-        <v>41.23150000000005</v>
+        <v>41.23333333333338</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>40.8</v>
+        <v>40.87</v>
       </c>
       <c r="C25" t="n">
-        <v>40.78</v>
+        <v>40.99</v>
       </c>
       <c r="D25" t="n">
-        <v>40.8</v>
+        <v>40.99</v>
       </c>
       <c r="E25" t="n">
-        <v>40.78</v>
+        <v>40.87</v>
       </c>
       <c r="F25" t="n">
-        <v>8000</v>
+        <v>17150</v>
       </c>
       <c r="G25" t="n">
-        <v>41.22616666666672</v>
+        <v>41.23150000000005</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="C26" t="n">
         <v>40.78</v>
       </c>
-      <c r="C26" t="n">
-        <v>40.45</v>
-      </c>
       <c r="D26" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="E26" t="n">
         <v>40.78</v>
       </c>
-      <c r="E26" t="n">
-        <v>40.45</v>
-      </c>
       <c r="F26" t="n">
-        <v>51899.6012</v>
+        <v>8000</v>
       </c>
       <c r="G26" t="n">
-        <v>41.21533333333339</v>
+        <v>41.22616666666672</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40.53</v>
+        <v>40.78</v>
       </c>
       <c r="C27" t="n">
-        <v>40.54</v>
+        <v>40.45</v>
       </c>
       <c r="D27" t="n">
-        <v>40.54</v>
+        <v>40.78</v>
       </c>
       <c r="E27" t="n">
-        <v>40.53</v>
+        <v>40.45</v>
       </c>
       <c r="F27" t="n">
-        <v>20000</v>
+        <v>51899.6012</v>
       </c>
       <c r="G27" t="n">
-        <v>41.20300000000005</v>
+        <v>41.21533333333339</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40.33</v>
+        <v>40.53</v>
       </c>
       <c r="C28" t="n">
-        <v>40.33</v>
+        <v>40.54</v>
       </c>
       <c r="D28" t="n">
-        <v>40.33</v>
+        <v>40.54</v>
       </c>
       <c r="E28" t="n">
-        <v>40.33</v>
+        <v>40.53</v>
       </c>
       <c r="F28" t="n">
-        <v>5500.6887</v>
+        <v>20000</v>
       </c>
       <c r="G28" t="n">
-        <v>41.19016666666672</v>
+        <v>41.20300000000005</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40.44</v>
+        <v>40.33</v>
       </c>
       <c r="C29" t="n">
-        <v>40.44</v>
+        <v>40.33</v>
       </c>
       <c r="D29" t="n">
-        <v>40.44</v>
+        <v>40.33</v>
       </c>
       <c r="E29" t="n">
-        <v>40.44</v>
+        <v>40.33</v>
       </c>
       <c r="F29" t="n">
-        <v>635.8614</v>
+        <v>5500.6887</v>
       </c>
       <c r="G29" t="n">
-        <v>41.17783333333339</v>
+        <v>41.19016666666672</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>40.54</v>
+        <v>40.44</v>
       </c>
       <c r="C30" t="n">
-        <v>40.54</v>
+        <v>40.44</v>
       </c>
       <c r="D30" t="n">
-        <v>40.54</v>
+        <v>40.44</v>
       </c>
       <c r="E30" t="n">
-        <v>40.54</v>
+        <v>40.44</v>
       </c>
       <c r="F30" t="n">
-        <v>1250.1499</v>
+        <v>635.8614</v>
       </c>
       <c r="G30" t="n">
-        <v>41.16733333333339</v>
+        <v>41.17783333333339</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>40.54</v>
       </c>
       <c r="C31" t="n">
-        <v>40.59</v>
+        <v>40.54</v>
       </c>
       <c r="D31" t="n">
-        <v>40.59</v>
+        <v>40.54</v>
       </c>
       <c r="E31" t="n">
-        <v>40.52</v>
+        <v>40.54</v>
       </c>
       <c r="F31" t="n">
-        <v>57107.0236</v>
+        <v>1250.1499</v>
       </c>
       <c r="G31" t="n">
-        <v>41.15716666666673</v>
+        <v>41.16733333333339</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>40.74</v>
+        <v>40.54</v>
       </c>
       <c r="C32" t="n">
-        <v>40.74</v>
+        <v>40.59</v>
       </c>
       <c r="D32" t="n">
-        <v>40.74</v>
+        <v>40.59</v>
       </c>
       <c r="E32" t="n">
-        <v>40.74</v>
+        <v>40.52</v>
       </c>
       <c r="F32" t="n">
-        <v>140.3129</v>
+        <v>57107.0236</v>
       </c>
       <c r="G32" t="n">
-        <v>41.14850000000005</v>
+        <v>41.15716666666673</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>40.73</v>
+        <v>40.74</v>
       </c>
       <c r="C33" t="n">
-        <v>40.73</v>
+        <v>40.74</v>
       </c>
       <c r="D33" t="n">
-        <v>40.73</v>
+        <v>40.74</v>
       </c>
       <c r="E33" t="n">
-        <v>40.73</v>
+        <v>40.74</v>
       </c>
       <c r="F33" t="n">
-        <v>3964.7431</v>
+        <v>140.3129</v>
       </c>
       <c r="G33" t="n">
-        <v>41.14233333333338</v>
+        <v>41.14850000000005</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>40.74</v>
+        <v>40.73</v>
       </c>
       <c r="C34" t="n">
-        <v>40.74</v>
+        <v>40.73</v>
       </c>
       <c r="D34" t="n">
-        <v>40.74</v>
+        <v>40.73</v>
       </c>
       <c r="E34" t="n">
-        <v>40.74</v>
+        <v>40.73</v>
       </c>
       <c r="F34" t="n">
-        <v>45447.4528</v>
+        <v>3964.7431</v>
       </c>
       <c r="G34" t="n">
-        <v>41.13316666666672</v>
+        <v>41.14233333333338</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>40.74</v>
       </c>
       <c r="F35" t="n">
-        <v>1856.6006</v>
+        <v>45447.4528</v>
       </c>
       <c r="G35" t="n">
-        <v>41.12550000000005</v>
+        <v>41.13316666666672</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>40.7</v>
+        <v>40.74</v>
       </c>
       <c r="C36" t="n">
-        <v>40.7</v>
+        <v>40.74</v>
       </c>
       <c r="D36" t="n">
-        <v>40.7</v>
+        <v>40.74</v>
       </c>
       <c r="E36" t="n">
-        <v>40.7</v>
+        <v>40.74</v>
       </c>
       <c r="F36" t="n">
-        <v>1721.7932</v>
+        <v>1856.6006</v>
       </c>
       <c r="G36" t="n">
-        <v>41.12000000000004</v>
+        <v>41.12550000000005</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>40.67</v>
+        <v>40.7</v>
       </c>
       <c r="C37" t="n">
-        <v>40.57</v>
+        <v>40.7</v>
       </c>
       <c r="D37" t="n">
-        <v>40.67</v>
+        <v>40.7</v>
       </c>
       <c r="E37" t="n">
-        <v>40.57</v>
+        <v>40.7</v>
       </c>
       <c r="F37" t="n">
-        <v>4236.6433</v>
+        <v>1721.7932</v>
       </c>
       <c r="G37" t="n">
-        <v>41.11116666666671</v>
+        <v>41.12000000000004</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>40.56</v>
+        <v>40.67</v>
       </c>
       <c r="C38" t="n">
-        <v>40.55</v>
+        <v>40.57</v>
       </c>
       <c r="D38" t="n">
-        <v>40.56</v>
+        <v>40.67</v>
       </c>
       <c r="E38" t="n">
-        <v>40.55</v>
+        <v>40.57</v>
       </c>
       <c r="F38" t="n">
-        <v>746.5484</v>
+        <v>4236.6433</v>
       </c>
       <c r="G38" t="n">
-        <v>41.10183333333338</v>
+        <v>41.11116666666671</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>40.53</v>
+        <v>40.56</v>
       </c>
       <c r="C39" t="n">
-        <v>40.53</v>
+        <v>40.55</v>
       </c>
       <c r="D39" t="n">
-        <v>40.53</v>
+        <v>40.56</v>
       </c>
       <c r="E39" t="n">
-        <v>40.53</v>
+        <v>40.55</v>
       </c>
       <c r="F39" t="n">
-        <v>872.236</v>
+        <v>746.5484</v>
       </c>
       <c r="G39" t="n">
-        <v>41.08933333333338</v>
+        <v>41.10183333333338</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>40.53</v>
       </c>
       <c r="C40" t="n">
-        <v>40.42</v>
+        <v>40.53</v>
       </c>
       <c r="D40" t="n">
         <v>40.53</v>
       </c>
       <c r="E40" t="n">
-        <v>40.42</v>
+        <v>40.53</v>
       </c>
       <c r="F40" t="n">
-        <v>29113.823</v>
+        <v>872.236</v>
       </c>
       <c r="G40" t="n">
-        <v>41.07350000000005</v>
+        <v>41.08933333333338</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>40.43</v>
+        <v>40.53</v>
       </c>
       <c r="C41" t="n">
-        <v>40.43</v>
+        <v>40.42</v>
       </c>
       <c r="D41" t="n">
-        <v>40.43</v>
+        <v>40.53</v>
       </c>
       <c r="E41" t="n">
-        <v>40.43</v>
+        <v>40.42</v>
       </c>
       <c r="F41" t="n">
-        <v>1202.4079</v>
+        <v>29113.823</v>
       </c>
       <c r="G41" t="n">
-        <v>41.05583333333338</v>
+        <v>41.07350000000005</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>40.42</v>
+        <v>40.43</v>
       </c>
       <c r="C42" t="n">
-        <v>40.42</v>
+        <v>40.43</v>
       </c>
       <c r="D42" t="n">
-        <v>40.42</v>
+        <v>40.43</v>
       </c>
       <c r="E42" t="n">
-        <v>40.42</v>
+        <v>40.43</v>
       </c>
       <c r="F42" t="n">
-        <v>4433.1719</v>
+        <v>1202.4079</v>
       </c>
       <c r="G42" t="n">
-        <v>41.03650000000005</v>
+        <v>41.05583333333338</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>40.43</v>
+        <v>40.42</v>
       </c>
       <c r="C43" t="n">
-        <v>40.53</v>
+        <v>40.42</v>
       </c>
       <c r="D43" t="n">
-        <v>40.53</v>
+        <v>40.42</v>
       </c>
       <c r="E43" t="n">
-        <v>40.43</v>
+        <v>40.42</v>
       </c>
       <c r="F43" t="n">
-        <v>48250</v>
+        <v>4433.1719</v>
       </c>
       <c r="G43" t="n">
-        <v>41.01900000000006</v>
+        <v>41.03650000000005</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>40.42</v>
+        <v>40.43</v>
       </c>
       <c r="C44" t="n">
-        <v>40.37</v>
+        <v>40.53</v>
       </c>
       <c r="D44" t="n">
-        <v>40.42</v>
+        <v>40.53</v>
       </c>
       <c r="E44" t="n">
-        <v>40.37</v>
+        <v>40.43</v>
       </c>
       <c r="F44" t="n">
-        <v>12200</v>
+        <v>48250</v>
       </c>
       <c r="G44" t="n">
-        <v>41.00183333333339</v>
+        <v>41.01900000000006</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="C45" t="n">
         <v>40.37</v>
       </c>
-      <c r="C45" t="n">
-        <v>40.53</v>
-      </c>
       <c r="D45" t="n">
-        <v>40.53</v>
+        <v>40.42</v>
       </c>
       <c r="E45" t="n">
         <v>40.37</v>
       </c>
       <c r="F45" t="n">
-        <v>33175.7284</v>
+        <v>12200</v>
       </c>
       <c r="G45" t="n">
-        <v>40.98733333333339</v>
+        <v>41.00183333333339</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>40.5</v>
+        <v>40.37</v>
       </c>
       <c r="C46" t="n">
-        <v>40.46</v>
+        <v>40.53</v>
       </c>
       <c r="D46" t="n">
-        <v>40.5</v>
+        <v>40.53</v>
       </c>
       <c r="E46" t="n">
-        <v>40.46</v>
+        <v>40.37</v>
       </c>
       <c r="F46" t="n">
-        <v>6094.0341</v>
+        <v>33175.7284</v>
       </c>
       <c r="G46" t="n">
-        <v>40.97066666666672</v>
+        <v>40.98733333333339</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>40.46</v>
+        <v>40.5</v>
       </c>
       <c r="C47" t="n">
         <v>40.46</v>
       </c>
       <c r="D47" t="n">
-        <v>40.46</v>
+        <v>40.5</v>
       </c>
       <c r="E47" t="n">
         <v>40.46</v>
       </c>
       <c r="F47" t="n">
-        <v>667.3747</v>
+        <v>6094.0341</v>
       </c>
       <c r="G47" t="n">
-        <v>40.95500000000006</v>
+        <v>40.97066666666672</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>40.4</v>
+        <v>40.46</v>
       </c>
       <c r="C48" t="n">
-        <v>40.4</v>
+        <v>40.46</v>
       </c>
       <c r="D48" t="n">
-        <v>40.4</v>
+        <v>40.46</v>
       </c>
       <c r="E48" t="n">
-        <v>40.4</v>
+        <v>40.46</v>
       </c>
       <c r="F48" t="n">
-        <v>7777.6696</v>
+        <v>667.3747</v>
       </c>
       <c r="G48" t="n">
-        <v>40.93566666666673</v>
+        <v>40.95500000000006</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>40.4</v>
       </c>
       <c r="C49" t="n">
-        <v>40.53</v>
+        <v>40.4</v>
       </c>
       <c r="D49" t="n">
-        <v>40.53</v>
+        <v>40.4</v>
       </c>
       <c r="E49" t="n">
         <v>40.4</v>
       </c>
       <c r="F49" t="n">
-        <v>30523.0306</v>
+        <v>7777.6696</v>
       </c>
       <c r="G49" t="n">
-        <v>40.92116666666673</v>
+        <v>40.93566666666673</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>40.4</v>
       </c>
       <c r="C50" t="n">
-        <v>40.4</v>
+        <v>40.53</v>
       </c>
       <c r="D50" t="n">
-        <v>40.4</v>
+        <v>40.53</v>
       </c>
       <c r="E50" t="n">
         <v>40.4</v>
       </c>
       <c r="F50" t="n">
-        <v>11728.8303</v>
+        <v>30523.0306</v>
       </c>
       <c r="G50" t="n">
-        <v>40.90450000000006</v>
+        <v>40.92116666666673</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>40.4</v>
       </c>
       <c r="F51" t="n">
-        <v>13</v>
+        <v>11728.8303</v>
       </c>
       <c r="G51" t="n">
-        <v>40.8878333333334</v>
+        <v>40.90450000000006</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>40.4</v>
       </c>
       <c r="F52" t="n">
-        <v>9918.454100000001</v>
+        <v>13</v>
       </c>
       <c r="G52" t="n">
-        <v>40.87116666666672</v>
+        <v>40.8878333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>40.4</v>
       </c>
       <c r="F53" t="n">
-        <v>22186.988</v>
+        <v>9918.454100000001</v>
       </c>
       <c r="G53" t="n">
-        <v>40.8518333333334</v>
+        <v>40.87116666666672</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>40.41</v>
+        <v>40.4</v>
       </c>
       <c r="C54" t="n">
         <v>40.4</v>
       </c>
       <c r="D54" t="n">
-        <v>40.41</v>
+        <v>40.4</v>
       </c>
       <c r="E54" t="n">
         <v>40.4</v>
       </c>
       <c r="F54" t="n">
-        <v>17391.4421</v>
+        <v>22186.988</v>
       </c>
       <c r="G54" t="n">
-        <v>40.83266666666673</v>
+        <v>40.8518333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>40.38</v>
+        <v>40.41</v>
       </c>
       <c r="C55" t="n">
-        <v>40.38</v>
+        <v>40.4</v>
       </c>
       <c r="D55" t="n">
-        <v>40.38</v>
+        <v>40.41</v>
       </c>
       <c r="E55" t="n">
-        <v>40.38</v>
+        <v>40.4</v>
       </c>
       <c r="F55" t="n">
-        <v>5416.0402</v>
+        <v>17391.4421</v>
       </c>
       <c r="G55" t="n">
-        <v>40.81300000000007</v>
+        <v>40.83266666666673</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>40.4</v>
+        <v>40.38</v>
       </c>
       <c r="C56" t="n">
-        <v>40.4</v>
+        <v>40.38</v>
       </c>
       <c r="D56" t="n">
-        <v>40.4</v>
+        <v>40.38</v>
       </c>
       <c r="E56" t="n">
-        <v>40.4</v>
+        <v>40.38</v>
       </c>
       <c r="F56" t="n">
-        <v>3959.1399</v>
+        <v>5416.0402</v>
       </c>
       <c r="G56" t="n">
-        <v>40.79366666666673</v>
+        <v>40.81300000000007</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>40.37</v>
+        <v>40.4</v>
       </c>
       <c r="C57" t="n">
-        <v>40.37</v>
+        <v>40.4</v>
       </c>
       <c r="D57" t="n">
-        <v>40.37</v>
+        <v>40.4</v>
       </c>
       <c r="E57" t="n">
-        <v>40.37</v>
+        <v>40.4</v>
       </c>
       <c r="F57" t="n">
-        <v>8393.7178</v>
+        <v>3959.1399</v>
       </c>
       <c r="G57" t="n">
-        <v>40.7738333333334</v>
+        <v>40.79366666666673</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>40.37</v>
       </c>
       <c r="C58" t="n">
-        <v>40.33</v>
+        <v>40.37</v>
       </c>
       <c r="D58" t="n">
         <v>40.37</v>
       </c>
       <c r="E58" t="n">
-        <v>40.33</v>
+        <v>40.37</v>
       </c>
       <c r="F58" t="n">
-        <v>29309.7146</v>
+        <v>8393.7178</v>
       </c>
       <c r="G58" t="n">
-        <v>40.75866666666673</v>
+        <v>40.7738333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="C59" t="n">
         <v>40.33</v>
       </c>
-      <c r="C59" t="n">
-        <v>40.3</v>
-      </c>
       <c r="D59" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="E59" t="n">
         <v>40.33</v>
       </c>
-      <c r="E59" t="n">
-        <v>40.3</v>
-      </c>
       <c r="F59" t="n">
-        <v>13721.6684</v>
+        <v>29309.7146</v>
       </c>
       <c r="G59" t="n">
-        <v>40.74050000000008</v>
+        <v>40.75866666666673</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>40.39</v>
+        <v>40.33</v>
       </c>
       <c r="C60" t="n">
-        <v>40.39</v>
+        <v>40.3</v>
       </c>
       <c r="D60" t="n">
-        <v>40.39</v>
+        <v>40.33</v>
       </c>
       <c r="E60" t="n">
-        <v>40.39</v>
+        <v>40.3</v>
       </c>
       <c r="F60" t="n">
-        <v>4272.2031</v>
+        <v>13721.6684</v>
       </c>
       <c r="G60" t="n">
-        <v>40.7253333333334</v>
+        <v>40.74050000000008</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>40.39</v>
       </c>
       <c r="F61" t="n">
-        <v>349.9</v>
+        <v>4272.2031</v>
       </c>
       <c r="G61" t="n">
-        <v>40.71016666666673</v>
+        <v>40.7253333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>40.39</v>
       </c>
       <c r="F62" t="n">
-        <v>58.5075</v>
+        <v>349.9</v>
       </c>
       <c r="G62" t="n">
-        <v>40.69350000000006</v>
+        <v>40.71016666666673</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>40.39</v>
       </c>
       <c r="F63" t="n">
-        <v>11.7508</v>
+        <v>58.5075</v>
       </c>
       <c r="G63" t="n">
-        <v>40.68000000000006</v>
+        <v>40.69350000000006</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>40.3</v>
+        <v>40.39</v>
       </c>
       <c r="C64" t="n">
-        <v>40.3</v>
+        <v>40.39</v>
       </c>
       <c r="D64" t="n">
-        <v>40.3</v>
+        <v>40.39</v>
       </c>
       <c r="E64" t="n">
-        <v>40.3</v>
+        <v>40.39</v>
       </c>
       <c r="F64" t="n">
-        <v>16493.1</v>
+        <v>11.7508</v>
       </c>
       <c r="G64" t="n">
-        <v>40.66500000000007</v>
+        <v>40.68000000000006</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>40.3</v>
       </c>
       <c r="F65" t="n">
-        <v>1273.3134</v>
+        <v>16493.1</v>
       </c>
       <c r="G65" t="n">
-        <v>40.64666666666674</v>
+        <v>40.66500000000007</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,19 +2676,19 @@
         <v>40.3</v>
       </c>
       <c r="C66" t="n">
-        <v>40.28</v>
+        <v>40.3</v>
       </c>
       <c r="D66" t="n">
         <v>40.3</v>
       </c>
       <c r="E66" t="n">
-        <v>40.28</v>
+        <v>40.3</v>
       </c>
       <c r="F66" t="n">
-        <v>35607.5243</v>
+        <v>1273.3134</v>
       </c>
       <c r="G66" t="n">
-        <v>40.63216666666674</v>
+        <v>40.64666666666674</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>40.28</v>
+        <v>40.3</v>
       </c>
       <c r="C67" t="n">
         <v>40.28</v>
       </c>
       <c r="D67" t="n">
-        <v>40.28</v>
+        <v>40.3</v>
       </c>
       <c r="E67" t="n">
         <v>40.28</v>
       </c>
       <c r="F67" t="n">
-        <v>2659.6548</v>
+        <v>35607.5243</v>
       </c>
       <c r="G67" t="n">
-        <v>40.61966666666674</v>
+        <v>40.63216666666674</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>40.22</v>
+        <v>40.28</v>
       </c>
       <c r="C68" t="n">
-        <v>40.22</v>
+        <v>40.28</v>
       </c>
       <c r="D68" t="n">
-        <v>40.22</v>
+        <v>40.28</v>
       </c>
       <c r="E68" t="n">
-        <v>40.22</v>
+        <v>40.28</v>
       </c>
       <c r="F68" t="n">
-        <v>34082.5066</v>
+        <v>2659.6548</v>
       </c>
       <c r="G68" t="n">
-        <v>40.60616666666673</v>
+        <v>40.61966666666674</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>40.22</v>
       </c>
       <c r="F69" t="n">
-        <v>2008.8831</v>
+        <v>34082.5066</v>
       </c>
       <c r="G69" t="n">
-        <v>40.58950000000006</v>
+        <v>40.60616666666673</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>40.21</v>
+        <v>40.22</v>
       </c>
       <c r="C70" t="n">
-        <v>40.2</v>
+        <v>40.22</v>
       </c>
       <c r="D70" t="n">
-        <v>40.21</v>
+        <v>40.22</v>
       </c>
       <c r="E70" t="n">
-        <v>40.2</v>
+        <v>40.22</v>
       </c>
       <c r="F70" t="n">
-        <v>19370.9051</v>
+        <v>2008.8831</v>
       </c>
       <c r="G70" t="n">
-        <v>40.5758333333334</v>
+        <v>40.58950000000006</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>40.2</v>
+        <v>40.21</v>
       </c>
       <c r="C71" t="n">
         <v>40.2</v>
       </c>
       <c r="D71" t="n">
-        <v>40.2</v>
+        <v>40.21</v>
       </c>
       <c r="E71" t="n">
         <v>40.2</v>
       </c>
       <c r="F71" t="n">
-        <v>12702.7184</v>
+        <v>19370.9051</v>
       </c>
       <c r="G71" t="n">
-        <v>40.55900000000006</v>
+        <v>40.5758333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>40.2</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0001</v>
+        <v>12702.7184</v>
       </c>
       <c r="G72" t="n">
-        <v>40.54483333333339</v>
+        <v>40.55900000000006</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>40.2</v>
       </c>
       <c r="C73" t="n">
-        <v>39.93</v>
+        <v>40.2</v>
       </c>
       <c r="D73" t="n">
         <v>40.2</v>
       </c>
       <c r="E73" t="n">
-        <v>39.93</v>
+        <v>40.2</v>
       </c>
       <c r="F73" t="n">
-        <v>500000</v>
+        <v>0.0001</v>
       </c>
       <c r="G73" t="n">
-        <v>40.52616666666672</v>
+        <v>40.54483333333339</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>40.27</v>
+        <v>40.2</v>
       </c>
       <c r="C74" t="n">
-        <v>40.37</v>
+        <v>39.93</v>
       </c>
       <c r="D74" t="n">
-        <v>40.37</v>
+        <v>40.2</v>
       </c>
       <c r="E74" t="n">
-        <v>40.17</v>
+        <v>39.93</v>
       </c>
       <c r="F74" t="n">
-        <v>69918.8585</v>
+        <v>500000</v>
       </c>
       <c r="G74" t="n">
-        <v>40.51533333333338</v>
+        <v>40.52616666666672</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>40.27</v>
+      </c>
+      <c r="C75" t="n">
         <v>40.37</v>
       </c>
-      <c r="C75" t="n">
-        <v>40.4</v>
-      </c>
       <c r="D75" t="n">
-        <v>40.4</v>
+        <v>40.37</v>
       </c>
       <c r="E75" t="n">
-        <v>40.37</v>
+        <v>40.17</v>
       </c>
       <c r="F75" t="n">
-        <v>23131.0853</v>
+        <v>69918.8585</v>
       </c>
       <c r="G75" t="n">
-        <v>40.50416666666671</v>
+        <v>40.51533333333338</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>40.37</v>
       </c>
       <c r="C76" t="n">
-        <v>40.37</v>
+        <v>40.4</v>
       </c>
       <c r="D76" t="n">
-        <v>40.37</v>
+        <v>40.4</v>
       </c>
       <c r="E76" t="n">
         <v>40.37</v>
       </c>
       <c r="F76" t="n">
-        <v>265.879</v>
+        <v>23131.0853</v>
       </c>
       <c r="G76" t="n">
-        <v>40.49366666666671</v>
+        <v>40.50416666666671</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>40.37</v>
       </c>
       <c r="F77" t="n">
-        <v>1143.5586</v>
+        <v>265.879</v>
       </c>
       <c r="G77" t="n">
-        <v>40.48316666666671</v>
+        <v>40.49366666666671</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>40.37</v>
       </c>
       <c r="F78" t="n">
-        <v>1300</v>
+        <v>1143.5586</v>
       </c>
       <c r="G78" t="n">
-        <v>40.4726666666667</v>
+        <v>40.48316666666671</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>40.37</v>
       </c>
       <c r="F79" t="n">
-        <v>16373.4772</v>
+        <v>1300</v>
       </c>
       <c r="G79" t="n">
-        <v>40.46333333333337</v>
+        <v>40.4726666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>40.27</v>
+        <v>40.37</v>
       </c>
       <c r="C80" t="n">
-        <v>40.27</v>
+        <v>40.37</v>
       </c>
       <c r="D80" t="n">
-        <v>40.27</v>
+        <v>40.37</v>
       </c>
       <c r="E80" t="n">
-        <v>40.27</v>
+        <v>40.37</v>
       </c>
       <c r="F80" t="n">
-        <v>50000</v>
+        <v>16373.4772</v>
       </c>
       <c r="G80" t="n">
-        <v>40.45116666666671</v>
+        <v>40.46333333333337</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>40.35</v>
+        <v>40.27</v>
       </c>
       <c r="C81" t="n">
-        <v>40.35</v>
+        <v>40.27</v>
       </c>
       <c r="D81" t="n">
-        <v>40.35</v>
+        <v>40.27</v>
       </c>
       <c r="E81" t="n">
-        <v>40.35</v>
+        <v>40.27</v>
       </c>
       <c r="F81" t="n">
-        <v>22379.6526</v>
+        <v>50000</v>
       </c>
       <c r="G81" t="n">
-        <v>40.44316666666671</v>
+        <v>40.45116666666671</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>40.35</v>
       </c>
       <c r="F82" t="n">
-        <v>4267.5326</v>
+        <v>22379.6526</v>
       </c>
       <c r="G82" t="n">
-        <v>40.43450000000004</v>
+        <v>40.44316666666671</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>40.27</v>
+        <v>40.35</v>
       </c>
       <c r="C83" t="n">
-        <v>40.27</v>
+        <v>40.35</v>
       </c>
       <c r="D83" t="n">
-        <v>40.27</v>
+        <v>40.35</v>
       </c>
       <c r="E83" t="n">
-        <v>40.27</v>
+        <v>40.35</v>
       </c>
       <c r="F83" t="n">
-        <v>4099.2403</v>
+        <v>4267.5326</v>
       </c>
       <c r="G83" t="n">
-        <v>40.42450000000004</v>
+        <v>40.43450000000004</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>40.29</v>
+        <v>40.27</v>
       </c>
       <c r="C84" t="n">
-        <v>40.29</v>
+        <v>40.27</v>
       </c>
       <c r="D84" t="n">
-        <v>40.29</v>
+        <v>40.27</v>
       </c>
       <c r="E84" t="n">
-        <v>40.29</v>
+        <v>40.27</v>
       </c>
       <c r="F84" t="n">
-        <v>6259.2086</v>
+        <v>4099.2403</v>
       </c>
       <c r="G84" t="n">
-        <v>40.41283333333338</v>
+        <v>40.42450000000004</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>40.29</v>
       </c>
       <c r="F85" t="n">
-        <v>1624.3682</v>
+        <v>6259.2086</v>
       </c>
       <c r="G85" t="n">
-        <v>40.40466666666671</v>
+        <v>40.41283333333338</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>40.29</v>
       </c>
       <c r="F86" t="n">
-        <v>531.91</v>
+        <v>1624.3682</v>
       </c>
       <c r="G86" t="n">
-        <v>40.40200000000004</v>
+        <v>40.40466666666671</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>40.29</v>
       </c>
       <c r="F87" t="n">
-        <v>6341.871</v>
+        <v>531.91</v>
       </c>
       <c r="G87" t="n">
-        <v>40.39783333333337</v>
+        <v>40.40200000000004</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>40.29</v>
       </c>
       <c r="F88" t="n">
-        <v>5618.9763</v>
+        <v>6341.871</v>
       </c>
       <c r="G88" t="n">
-        <v>40.39716666666671</v>
+        <v>40.39783333333337</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>40.29</v>
       </c>
       <c r="F89" t="n">
-        <v>255.9035</v>
+        <v>5618.9763</v>
       </c>
       <c r="G89" t="n">
-        <v>40.39466666666671</v>
+        <v>40.39716666666671</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>40.29</v>
       </c>
       <c r="F90" t="n">
-        <v>805.2415</v>
+        <v>255.9035</v>
       </c>
       <c r="G90" t="n">
-        <v>40.39050000000005</v>
+        <v>40.39466666666671</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>40.29</v>
       </c>
       <c r="F91" t="n">
-        <v>28016.7057</v>
+        <v>805.2415</v>
       </c>
       <c r="G91" t="n">
-        <v>40.38550000000004</v>
+        <v>40.39050000000005</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3586,19 +3586,19 @@
         <v>40.29</v>
       </c>
       <c r="C92" t="n">
-        <v>40.35</v>
+        <v>40.29</v>
       </c>
       <c r="D92" t="n">
-        <v>40.35</v>
+        <v>40.29</v>
       </c>
       <c r="E92" t="n">
         <v>40.29</v>
       </c>
       <c r="F92" t="n">
-        <v>18682.2013</v>
+        <v>28016.7057</v>
       </c>
       <c r="G92" t="n">
-        <v>40.37900000000004</v>
+        <v>40.38550000000004</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>40.35</v>
+        <v>40.29</v>
       </c>
       <c r="C93" t="n">
         <v>40.35</v>
@@ -3627,13 +3627,13 @@
         <v>40.35</v>
       </c>
       <c r="E93" t="n">
-        <v>40.35</v>
+        <v>40.29</v>
       </c>
       <c r="F93" t="n">
-        <v>5387.4441</v>
+        <v>18682.2013</v>
       </c>
       <c r="G93" t="n">
-        <v>40.37266666666671</v>
+        <v>40.37900000000004</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>40.35</v>
       </c>
       <c r="F94" t="n">
-        <v>3232.5011</v>
+        <v>5387.4441</v>
       </c>
       <c r="G94" t="n">
-        <v>40.36616666666671</v>
+        <v>40.37266666666671</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>40.38</v>
+        <v>40.35</v>
       </c>
       <c r="C95" t="n">
-        <v>40.38</v>
+        <v>40.35</v>
       </c>
       <c r="D95" t="n">
-        <v>40.38</v>
+        <v>40.35</v>
       </c>
       <c r="E95" t="n">
-        <v>40.38</v>
+        <v>40.35</v>
       </c>
       <c r="F95" t="n">
-        <v>17626.775</v>
+        <v>3232.5011</v>
       </c>
       <c r="G95" t="n">
-        <v>40.36016666666671</v>
+        <v>40.36616666666671</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>40.38</v>
       </c>
       <c r="F96" t="n">
-        <v>20006.0018</v>
+        <v>17626.775</v>
       </c>
       <c r="G96" t="n">
-        <v>40.35483333333339</v>
+        <v>40.36016666666671</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>40.38</v>
       </c>
       <c r="F97" t="n">
-        <v>1200</v>
+        <v>20006.0018</v>
       </c>
       <c r="G97" t="n">
-        <v>40.35166666666672</v>
+        <v>40.35483333333339</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>40.26</v>
+        <v>40.38</v>
       </c>
       <c r="C98" t="n">
-        <v>40.26</v>
+        <v>40.38</v>
       </c>
       <c r="D98" t="n">
-        <v>40.26</v>
+        <v>40.38</v>
       </c>
       <c r="E98" t="n">
-        <v>40.26</v>
+        <v>40.38</v>
       </c>
       <c r="F98" t="n">
-        <v>7149.2421</v>
+        <v>1200</v>
       </c>
       <c r="G98" t="n">
-        <v>40.34683333333339</v>
+        <v>40.35166666666672</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>40.38</v>
+        <v>40.26</v>
       </c>
       <c r="C99" t="n">
-        <v>40.38</v>
+        <v>40.26</v>
       </c>
       <c r="D99" t="n">
-        <v>40.38</v>
+        <v>40.26</v>
       </c>
       <c r="E99" t="n">
-        <v>40.38</v>
+        <v>40.26</v>
       </c>
       <c r="F99" t="n">
-        <v>50.8135</v>
+        <v>7149.2421</v>
       </c>
       <c r="G99" t="n">
-        <v>40.34433333333338</v>
+        <v>40.34683333333339</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>40.2</v>
+        <v>40.38</v>
       </c>
       <c r="C100" t="n">
-        <v>40.2</v>
+        <v>40.38</v>
       </c>
       <c r="D100" t="n">
-        <v>40.2</v>
+        <v>40.38</v>
       </c>
       <c r="E100" t="n">
-        <v>40.2</v>
+        <v>40.38</v>
       </c>
       <c r="F100" t="n">
-        <v>3591</v>
+        <v>50.8135</v>
       </c>
       <c r="G100" t="n">
-        <v>40.34066666666671</v>
+        <v>40.34433333333338</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>40.39</v>
+        <v>40.2</v>
       </c>
       <c r="C101" t="n">
-        <v>40.39</v>
+        <v>40.2</v>
       </c>
       <c r="D101" t="n">
-        <v>40.39</v>
+        <v>40.2</v>
       </c>
       <c r="E101" t="n">
-        <v>40.39</v>
+        <v>40.2</v>
       </c>
       <c r="F101" t="n">
-        <v>37.5069</v>
+        <v>3591</v>
       </c>
       <c r="G101" t="n">
-        <v>40.34000000000005</v>
+        <v>40.34066666666671</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>40.39</v>
       </c>
       <c r="F102" t="n">
-        <v>55400</v>
+        <v>37.5069</v>
       </c>
       <c r="G102" t="n">
-        <v>40.33950000000004</v>
+        <v>40.34000000000005</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>40.39</v>
       </c>
       <c r="F103" t="n">
-        <v>1035.1868</v>
+        <v>55400</v>
       </c>
       <c r="G103" t="n">
-        <v>40.3371666666667</v>
+        <v>40.33950000000004</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>40.2</v>
+        <v>40.39</v>
       </c>
       <c r="C104" t="n">
-        <v>40.16</v>
+        <v>40.39</v>
       </c>
       <c r="D104" t="n">
-        <v>40.2</v>
+        <v>40.39</v>
       </c>
       <c r="E104" t="n">
-        <v>40.16</v>
+        <v>40.39</v>
       </c>
       <c r="F104" t="n">
-        <v>42550</v>
+        <v>1035.1868</v>
       </c>
       <c r="G104" t="n">
-        <v>40.3336666666667</v>
+        <v>40.3371666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>40.12</v>
+        <v>40.2</v>
       </c>
       <c r="C105" t="n">
-        <v>40.12</v>
+        <v>40.16</v>
       </c>
       <c r="D105" t="n">
-        <v>40.12</v>
+        <v>40.2</v>
       </c>
       <c r="E105" t="n">
-        <v>40.12</v>
+        <v>40.16</v>
       </c>
       <c r="F105" t="n">
-        <v>175.4835</v>
+        <v>42550</v>
       </c>
       <c r="G105" t="n">
-        <v>40.32683333333337</v>
+        <v>40.3336666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>39.99</v>
+        <v>40.12</v>
       </c>
       <c r="C106" t="n">
-        <v>39.99</v>
+        <v>40.12</v>
       </c>
       <c r="D106" t="n">
-        <v>39.99</v>
+        <v>40.12</v>
       </c>
       <c r="E106" t="n">
-        <v>39.99</v>
+        <v>40.12</v>
       </c>
       <c r="F106" t="n">
-        <v>782.696</v>
+        <v>175.4835</v>
       </c>
       <c r="G106" t="n">
-        <v>40.31900000000003</v>
+        <v>40.32683333333337</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>40.01</v>
+        <v>39.99</v>
       </c>
       <c r="C107" t="n">
-        <v>40.01</v>
+        <v>39.99</v>
       </c>
       <c r="D107" t="n">
-        <v>40.01</v>
+        <v>39.99</v>
       </c>
       <c r="E107" t="n">
-        <v>40.01</v>
+        <v>39.99</v>
       </c>
       <c r="F107" t="n">
-        <v>893.7627</v>
+        <v>782.696</v>
       </c>
       <c r="G107" t="n">
-        <v>40.31150000000003</v>
+        <v>40.31900000000003</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>39.98</v>
+        <v>40.01</v>
       </c>
       <c r="C108" t="n">
-        <v>39.87</v>
+        <v>40.01</v>
       </c>
       <c r="D108" t="n">
-        <v>39.98</v>
+        <v>40.01</v>
       </c>
       <c r="E108" t="n">
-        <v>39.87</v>
+        <v>40.01</v>
       </c>
       <c r="F108" t="n">
-        <v>27726.4276</v>
+        <v>893.7627</v>
       </c>
       <c r="G108" t="n">
-        <v>40.3026666666667</v>
+        <v>40.31150000000003</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>39.94</v>
+        <v>39.98</v>
       </c>
       <c r="C109" t="n">
-        <v>39.94</v>
+        <v>39.87</v>
       </c>
       <c r="D109" t="n">
-        <v>39.94</v>
+        <v>39.98</v>
       </c>
       <c r="E109" t="n">
-        <v>39.94</v>
+        <v>39.87</v>
       </c>
       <c r="F109" t="n">
-        <v>2190.5805</v>
+        <v>27726.4276</v>
       </c>
       <c r="G109" t="n">
-        <v>40.29283333333336</v>
+        <v>40.3026666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>40.01</v>
+        <v>39.94</v>
       </c>
       <c r="C110" t="n">
-        <v>40.01</v>
+        <v>39.94</v>
       </c>
       <c r="D110" t="n">
-        <v>40.01</v>
+        <v>39.94</v>
       </c>
       <c r="E110" t="n">
-        <v>40.01</v>
+        <v>39.94</v>
       </c>
       <c r="F110" t="n">
-        <v>730</v>
+        <v>2190.5805</v>
       </c>
       <c r="G110" t="n">
-        <v>40.28633333333336</v>
+        <v>40.29283333333336</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>39.93</v>
+        <v>40.01</v>
       </c>
       <c r="C111" t="n">
-        <v>39.93</v>
+        <v>40.01</v>
       </c>
       <c r="D111" t="n">
-        <v>39.93</v>
+        <v>40.01</v>
       </c>
       <c r="E111" t="n">
-        <v>39.93</v>
+        <v>40.01</v>
       </c>
       <c r="F111" t="n">
-        <v>15024.6912</v>
+        <v>730</v>
       </c>
       <c r="G111" t="n">
-        <v>40.27850000000002</v>
+        <v>40.28633333333336</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>39.93</v>
       </c>
       <c r="F112" t="n">
-        <v>5203.3087</v>
+        <v>15024.6912</v>
       </c>
       <c r="G112" t="n">
-        <v>40.27066666666668</v>
+        <v>40.27850000000002</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>39.82</v>
+        <v>39.93</v>
       </c>
       <c r="C113" t="n">
-        <v>39.82</v>
+        <v>39.93</v>
       </c>
       <c r="D113" t="n">
-        <v>39.82</v>
+        <v>39.93</v>
       </c>
       <c r="E113" t="n">
-        <v>39.82</v>
+        <v>39.93</v>
       </c>
       <c r="F113" t="n">
-        <v>964.5865</v>
+        <v>5203.3087</v>
       </c>
       <c r="G113" t="n">
-        <v>40.26100000000002</v>
+        <v>40.27066666666668</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>39.83</v>
+        <v>39.82</v>
       </c>
       <c r="C114" t="n">
-        <v>39.83</v>
+        <v>39.82</v>
       </c>
       <c r="D114" t="n">
-        <v>39.83</v>
+        <v>39.82</v>
       </c>
       <c r="E114" t="n">
-        <v>39.83</v>
+        <v>39.82</v>
       </c>
       <c r="F114" t="n">
-        <v>15626.775</v>
+        <v>964.5865</v>
       </c>
       <c r="G114" t="n">
-        <v>40.25150000000001</v>
+        <v>40.26100000000002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>39.97</v>
+        <v>39.83</v>
       </c>
       <c r="C115" t="n">
-        <v>39.97</v>
+        <v>39.83</v>
       </c>
       <c r="D115" t="n">
-        <v>39.97</v>
+        <v>39.83</v>
       </c>
       <c r="E115" t="n">
-        <v>39.97</v>
+        <v>39.83</v>
       </c>
       <c r="F115" t="n">
-        <v>76791.92080000001</v>
+        <v>15626.775</v>
       </c>
       <c r="G115" t="n">
-        <v>40.24466666666668</v>
+        <v>40.25150000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>39.97</v>
       </c>
       <c r="F116" t="n">
-        <v>1501.6343</v>
+        <v>76791.92080000001</v>
       </c>
       <c r="G116" t="n">
-        <v>40.2375</v>
+        <v>40.24466666666668</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>39.95</v>
+        <v>39.97</v>
       </c>
       <c r="C117" t="n">
-        <v>39.95</v>
+        <v>39.97</v>
       </c>
       <c r="D117" t="n">
-        <v>39.95</v>
+        <v>39.97</v>
       </c>
       <c r="E117" t="n">
-        <v>39.95</v>
+        <v>39.97</v>
       </c>
       <c r="F117" t="n">
-        <v>14592.6081</v>
+        <v>1501.6343</v>
       </c>
       <c r="G117" t="n">
-        <v>40.23050000000001</v>
+        <v>40.2375</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>39.83</v>
+        <v>39.95</v>
       </c>
       <c r="C118" t="n">
-        <v>39.83</v>
+        <v>39.95</v>
       </c>
       <c r="D118" t="n">
-        <v>39.83</v>
+        <v>39.95</v>
       </c>
       <c r="E118" t="n">
-        <v>39.83</v>
+        <v>39.95</v>
       </c>
       <c r="F118" t="n">
-        <v>1115.1195</v>
+        <v>14592.6081</v>
       </c>
       <c r="G118" t="n">
-        <v>40.22216666666667</v>
+        <v>40.23050000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4531,19 +4531,19 @@
         <v>39.83</v>
       </c>
       <c r="C119" t="n">
-        <v>39.77</v>
+        <v>39.83</v>
       </c>
       <c r="D119" t="n">
         <v>39.83</v>
       </c>
       <c r="E119" t="n">
-        <v>39.77</v>
+        <v>39.83</v>
       </c>
       <c r="F119" t="n">
-        <v>23988.0523</v>
+        <v>1115.1195</v>
       </c>
       <c r="G119" t="n">
-        <v>40.21333333333334</v>
+        <v>40.22216666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>39.71</v>
+        <v>39.83</v>
       </c>
       <c r="C120" t="n">
-        <v>39.71</v>
+        <v>39.77</v>
       </c>
       <c r="D120" t="n">
-        <v>39.71</v>
+        <v>39.83</v>
       </c>
       <c r="E120" t="n">
-        <v>39.71</v>
+        <v>39.77</v>
       </c>
       <c r="F120" t="n">
-        <v>5538.4</v>
+        <v>23988.0523</v>
       </c>
       <c r="G120" t="n">
-        <v>40.20200000000001</v>
+        <v>40.21333333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4601,19 +4601,19 @@
         <v>39.71</v>
       </c>
       <c r="C121" t="n">
-        <v>39.7</v>
+        <v>39.71</v>
       </c>
       <c r="D121" t="n">
         <v>39.71</v>
       </c>
       <c r="E121" t="n">
-        <v>39.7</v>
+        <v>39.71</v>
       </c>
       <c r="F121" t="n">
-        <v>3415.3</v>
+        <v>5538.4</v>
       </c>
       <c r="G121" t="n">
-        <v>40.19050000000001</v>
+        <v>40.20200000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>39.7</v>
+        <v>39.71</v>
       </c>
       <c r="C122" t="n">
         <v>39.7</v>
       </c>
       <c r="D122" t="n">
-        <v>39.7</v>
+        <v>39.71</v>
       </c>
       <c r="E122" t="n">
         <v>39.7</v>
       </c>
       <c r="F122" t="n">
-        <v>296.5422</v>
+        <v>3415.3</v>
       </c>
       <c r="G122" t="n">
-        <v>40.179</v>
+        <v>40.19050000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>39.78</v>
+        <v>39.7</v>
       </c>
       <c r="C123" t="n">
-        <v>39.78</v>
+        <v>39.7</v>
       </c>
       <c r="D123" t="n">
-        <v>39.78</v>
+        <v>39.7</v>
       </c>
       <c r="E123" t="n">
-        <v>39.78</v>
+        <v>39.7</v>
       </c>
       <c r="F123" t="n">
-        <v>50000</v>
+        <v>296.5422</v>
       </c>
       <c r="G123" t="n">
-        <v>40.16883333333335</v>
+        <v>40.179</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4715,19 +4715,23 @@
         <v>39.78</v>
       </c>
       <c r="F124" t="n">
-        <v>10233</v>
+        <v>50000</v>
       </c>
       <c r="G124" t="n">
-        <v>40.16016666666668</v>
+        <v>40.16883333333335</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="K124" t="n">
+        <v>39.7</v>
+      </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
@@ -4738,32 +4742,40 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>39.93</v>
+        <v>39.78</v>
       </c>
       <c r="C125" t="n">
         <v>39.78</v>
       </c>
       <c r="D125" t="n">
-        <v>39.93</v>
+        <v>39.78</v>
       </c>
       <c r="E125" t="n">
         <v>39.78</v>
       </c>
       <c r="F125" t="n">
-        <v>11552.4235</v>
+        <v>10233</v>
       </c>
       <c r="G125" t="n">
-        <v>40.15150000000001</v>
+        <v>40.16016666666668</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>39.78</v>
+      </c>
+      <c r="K125" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4773,32 +4785,40 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>39.73</v>
+        <v>39.93</v>
       </c>
       <c r="C126" t="n">
-        <v>39.73</v>
+        <v>39.78</v>
       </c>
       <c r="D126" t="n">
-        <v>39.73</v>
+        <v>39.93</v>
       </c>
       <c r="E126" t="n">
-        <v>39.73</v>
+        <v>39.78</v>
       </c>
       <c r="F126" t="n">
-        <v>37548.9194</v>
+        <v>11552.4235</v>
       </c>
       <c r="G126" t="n">
-        <v>40.14233333333334</v>
+        <v>40.15150000000001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>39.78</v>
+      </c>
+      <c r="K126" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4820,19 +4840,23 @@
         <v>39.73</v>
       </c>
       <c r="F127" t="n">
-        <v>7668.376</v>
+        <v>37548.9194</v>
       </c>
       <c r="G127" t="n">
-        <v>40.13316666666667</v>
+        <v>40.14233333333334</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>39.78</v>
+      </c>
+      <c r="K127" t="n">
+        <v>39.78</v>
+      </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
@@ -4843,36 +4867,38 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>39.81</v>
+        <v>39.73</v>
       </c>
       <c r="C128" t="n">
-        <v>39.81</v>
+        <v>39.73</v>
       </c>
       <c r="D128" t="n">
-        <v>39.81</v>
+        <v>39.73</v>
       </c>
       <c r="E128" t="n">
-        <v>39.81</v>
+        <v>39.73</v>
       </c>
       <c r="F128" t="n">
-        <v>1255.4315</v>
+        <v>7668.376</v>
       </c>
       <c r="G128" t="n">
-        <v>40.12633333333334</v>
+        <v>40.13316666666667</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>39.73</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L128" t="inlineStr"/>
+        <v>39.78</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4882,38 +4908,36 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>39.74</v>
+        <v>39.81</v>
       </c>
       <c r="C129" t="n">
-        <v>39.71</v>
+        <v>39.81</v>
       </c>
       <c r="D129" t="n">
-        <v>39.74</v>
+        <v>39.81</v>
       </c>
       <c r="E129" t="n">
-        <v>39.64</v>
+        <v>39.81</v>
       </c>
       <c r="F129" t="n">
-        <v>2903.9847</v>
+        <v>1255.4315</v>
       </c>
       <c r="G129" t="n">
-        <v>40.11783333333334</v>
+        <v>40.12633333333334</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>39.81</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>39.73</v>
+        <v>39.78</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M129" t="n">
@@ -4925,40 +4949,32 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>39.71</v>
+        <v>39.74</v>
       </c>
       <c r="C130" t="n">
         <v>39.71</v>
       </c>
       <c r="D130" t="n">
-        <v>39.71</v>
+        <v>39.74</v>
       </c>
       <c r="E130" t="n">
-        <v>39.71</v>
+        <v>39.64</v>
       </c>
       <c r="F130" t="n">
-        <v>26.0153</v>
+        <v>2903.9847</v>
       </c>
       <c r="G130" t="n">
-        <v>40.10966666666668</v>
+        <v>40.11783333333334</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>39.71</v>
-      </c>
-      <c r="K130" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4968,40 +4984,32 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>39.8</v>
+        <v>39.71</v>
       </c>
       <c r="C131" t="n">
         <v>39.71</v>
       </c>
       <c r="D131" t="n">
-        <v>39.8</v>
+        <v>39.71</v>
       </c>
       <c r="E131" t="n">
         <v>39.71</v>
       </c>
       <c r="F131" t="n">
-        <v>2492.4141</v>
+        <v>26.0153</v>
       </c>
       <c r="G131" t="n">
-        <v>40.10150000000002</v>
+        <v>40.10966666666668</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>39.71</v>
-      </c>
-      <c r="K131" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5011,40 +5019,32 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>39.71</v>
+        <v>39.8</v>
       </c>
       <c r="C132" t="n">
         <v>39.71</v>
       </c>
       <c r="D132" t="n">
-        <v>39.71</v>
+        <v>39.8</v>
       </c>
       <c r="E132" t="n">
         <v>39.71</v>
       </c>
       <c r="F132" t="n">
-        <v>7420.6164</v>
+        <v>2492.4141</v>
       </c>
       <c r="G132" t="n">
-        <v>40.09333333333336</v>
+        <v>40.10150000000002</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>39.71</v>
-      </c>
-      <c r="K132" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5066,28 +5066,20 @@
         <v>39.71</v>
       </c>
       <c r="F133" t="n">
-        <v>73.0654</v>
+        <v>7420.6164</v>
       </c>
       <c r="G133" t="n">
-        <v>40.08966666666669</v>
+        <v>40.09333333333336</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>39.71</v>
-      </c>
-      <c r="K133" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5097,40 +5089,32 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>39.81</v>
+        <v>39.71</v>
       </c>
       <c r="C134" t="n">
-        <v>39.81</v>
+        <v>39.71</v>
       </c>
       <c r="D134" t="n">
-        <v>39.81</v>
+        <v>39.71</v>
       </c>
       <c r="E134" t="n">
-        <v>39.81</v>
+        <v>39.71</v>
       </c>
       <c r="F134" t="n">
-        <v>1545.2707</v>
+        <v>73.0654</v>
       </c>
       <c r="G134" t="n">
-        <v>40.08033333333336</v>
+        <v>40.08966666666669</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>39.71</v>
-      </c>
-      <c r="K134" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5152,28 +5136,20 @@
         <v>39.81</v>
       </c>
       <c r="F135" t="n">
-        <v>6045.5298</v>
+        <v>1545.2707</v>
       </c>
       <c r="G135" t="n">
-        <v>40.07050000000002</v>
+        <v>40.08033333333336</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>39.81</v>
-      </c>
-      <c r="K135" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5195,10 +5171,10 @@
         <v>39.81</v>
       </c>
       <c r="F136" t="n">
-        <v>65077.3085</v>
+        <v>6045.5298</v>
       </c>
       <c r="G136" t="n">
-        <v>40.06116666666669</v>
+        <v>40.07050000000002</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5207,14 +5183,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5224,22 +5194,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>39.98</v>
+        <v>39.81</v>
       </c>
       <c r="C137" t="n">
-        <v>39.98</v>
+        <v>39.81</v>
       </c>
       <c r="D137" t="n">
-        <v>39.98</v>
+        <v>39.81</v>
       </c>
       <c r="E137" t="n">
-        <v>39.98</v>
+        <v>39.81</v>
       </c>
       <c r="F137" t="n">
-        <v>7419.18</v>
+        <v>65077.3085</v>
       </c>
       <c r="G137" t="n">
-        <v>40.05466666666669</v>
+        <v>40.06116666666669</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5248,14 +5218,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5277,10 +5241,10 @@
         <v>39.98</v>
       </c>
       <c r="F138" t="n">
-        <v>39728.7279</v>
+        <v>7419.18</v>
       </c>
       <c r="G138" t="n">
-        <v>40.0481666666667</v>
+        <v>40.05466666666669</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5289,14 +5253,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5309,19 +5267,19 @@
         <v>39.98</v>
       </c>
       <c r="C139" t="n">
-        <v>40.07</v>
+        <v>39.98</v>
       </c>
       <c r="D139" t="n">
-        <v>40.07</v>
+        <v>39.98</v>
       </c>
       <c r="E139" t="n">
         <v>39.98</v>
       </c>
       <c r="F139" t="n">
-        <v>5008.08379256</v>
+        <v>39728.7279</v>
       </c>
       <c r="G139" t="n">
-        <v>40.0431666666667</v>
+        <v>40.0481666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5330,14 +5288,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5347,22 +5299,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>40.1</v>
+        <v>39.98</v>
       </c>
       <c r="C140" t="n">
-        <v>40.1</v>
+        <v>40.07</v>
       </c>
       <c r="D140" t="n">
-        <v>40.1</v>
+        <v>40.07</v>
       </c>
       <c r="E140" t="n">
-        <v>40.1</v>
+        <v>39.98</v>
       </c>
       <c r="F140" t="n">
-        <v>17.3583</v>
+        <v>5008.08379256</v>
       </c>
       <c r="G140" t="n">
-        <v>40.04033333333336</v>
+        <v>40.0431666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5371,14 +5323,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5388,22 +5334,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="C141" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="D141" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="E141" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="F141" t="n">
-        <v>475.9878</v>
+        <v>17.3583</v>
       </c>
       <c r="G141" t="n">
-        <v>40.03283333333336</v>
+        <v>40.04033333333336</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5412,14 +5358,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5429,22 +5369,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="C142" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="D142" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="E142" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="F142" t="n">
-        <v>16465.7814</v>
+        <v>475.9878</v>
       </c>
       <c r="G142" t="n">
-        <v>40.02700000000004</v>
+        <v>40.03283333333336</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5453,14 +5393,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5470,22 +5404,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>39.8</v>
+        <v>40</v>
       </c>
       <c r="C143" t="n">
-        <v>39.6</v>
+        <v>40</v>
       </c>
       <c r="D143" t="n">
-        <v>39.8</v>
+        <v>40</v>
       </c>
       <c r="E143" t="n">
-        <v>39.6</v>
+        <v>40</v>
       </c>
       <c r="F143" t="n">
-        <v>11850.2681</v>
+        <v>16465.7814</v>
       </c>
       <c r="G143" t="n">
-        <v>40.01583333333337</v>
+        <v>40.02700000000004</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5494,14 +5428,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5514,19 +5442,19 @@
         <v>39.8</v>
       </c>
       <c r="C144" t="n">
-        <v>39.94</v>
+        <v>39.6</v>
       </c>
       <c r="D144" t="n">
-        <v>39.94</v>
+        <v>39.8</v>
       </c>
       <c r="E144" t="n">
-        <v>39.8</v>
+        <v>39.6</v>
       </c>
       <c r="F144" t="n">
-        <v>2807.0622</v>
+        <v>11850.2681</v>
       </c>
       <c r="G144" t="n">
-        <v>40.01000000000003</v>
+        <v>40.01583333333337</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5535,14 +5463,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5552,22 +5474,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>39.95</v>
+        <v>39.8</v>
       </c>
       <c r="C145" t="n">
-        <v>39.95</v>
+        <v>39.94</v>
       </c>
       <c r="D145" t="n">
-        <v>39.95</v>
+        <v>39.94</v>
       </c>
       <c r="E145" t="n">
-        <v>39.95</v>
+        <v>39.8</v>
       </c>
       <c r="F145" t="n">
-        <v>1000</v>
+        <v>2807.0622</v>
       </c>
       <c r="G145" t="n">
-        <v>40.00433333333337</v>
+        <v>40.01000000000003</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5576,14 +5498,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5593,22 +5509,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>39.84</v>
+        <v>39.95</v>
       </c>
       <c r="C146" t="n">
-        <v>39.84</v>
+        <v>39.95</v>
       </c>
       <c r="D146" t="n">
-        <v>39.84</v>
+        <v>39.95</v>
       </c>
       <c r="E146" t="n">
-        <v>39.84</v>
+        <v>39.95</v>
       </c>
       <c r="F146" t="n">
-        <v>4960</v>
+        <v>1000</v>
       </c>
       <c r="G146" t="n">
-        <v>39.99683333333337</v>
+        <v>40.00433333333337</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5617,14 +5533,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5634,22 +5544,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>39.72</v>
+        <v>39.84</v>
       </c>
       <c r="C147" t="n">
-        <v>39.61</v>
+        <v>39.84</v>
       </c>
       <c r="D147" t="n">
-        <v>39.72</v>
+        <v>39.84</v>
       </c>
       <c r="E147" t="n">
-        <v>39.61</v>
+        <v>39.84</v>
       </c>
       <c r="F147" t="n">
-        <v>25907.7097</v>
+        <v>4960</v>
       </c>
       <c r="G147" t="n">
-        <v>39.98550000000004</v>
+        <v>39.99683333333337</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5658,14 +5568,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5675,22 +5579,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>39.78</v>
+        <v>39.72</v>
       </c>
       <c r="C148" t="n">
-        <v>39.82</v>
+        <v>39.61</v>
       </c>
       <c r="D148" t="n">
-        <v>39.9</v>
+        <v>39.72</v>
       </c>
       <c r="E148" t="n">
-        <v>39.77</v>
+        <v>39.61</v>
       </c>
       <c r="F148" t="n">
-        <v>60415.2003</v>
+        <v>25907.7097</v>
       </c>
       <c r="G148" t="n">
-        <v>39.97766666666671</v>
+        <v>39.98550000000004</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5699,14 +5603,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5716,22 +5614,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>39.78</v>
+      </c>
+      <c r="C149" t="n">
         <v>39.82</v>
       </c>
-      <c r="C149" t="n">
-        <v>39.81</v>
-      </c>
       <c r="D149" t="n">
-        <v>39.83</v>
+        <v>39.9</v>
       </c>
       <c r="E149" t="n">
-        <v>39.81</v>
+        <v>39.77</v>
       </c>
       <c r="F149" t="n">
-        <v>97079.9908</v>
+        <v>60415.2003</v>
       </c>
       <c r="G149" t="n">
-        <v>39.96966666666671</v>
+        <v>39.97766666666671</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5740,14 +5638,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5760,19 +5652,19 @@
         <v>39.82</v>
       </c>
       <c r="C150" t="n">
-        <v>39.97</v>
+        <v>39.81</v>
       </c>
       <c r="D150" t="n">
-        <v>39.97</v>
+        <v>39.83</v>
       </c>
       <c r="E150" t="n">
-        <v>39.82</v>
+        <v>39.81</v>
       </c>
       <c r="F150" t="n">
-        <v>1748.79470165</v>
+        <v>97079.9908</v>
       </c>
       <c r="G150" t="n">
-        <v>39.96433333333337</v>
+        <v>39.96966666666671</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5781,14 +5673,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5798,22 +5684,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>39.8</v>
+        <v>39.82</v>
       </c>
       <c r="C151" t="n">
-        <v>39.73</v>
+        <v>39.97</v>
       </c>
       <c r="D151" t="n">
-        <v>40</v>
+        <v>39.97</v>
       </c>
       <c r="E151" t="n">
-        <v>39.73</v>
+        <v>39.82</v>
       </c>
       <c r="F151" t="n">
-        <v>14742.7559</v>
+        <v>1748.79470165</v>
       </c>
       <c r="G151" t="n">
-        <v>39.95500000000004</v>
+        <v>39.96433333333337</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5822,14 +5708,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5839,22 +5719,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="C152" t="n">
-        <v>39.9</v>
+        <v>39.73</v>
       </c>
       <c r="D152" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="E152" t="n">
-        <v>39.9</v>
+        <v>39.73</v>
       </c>
       <c r="F152" t="n">
-        <v>419.2458</v>
+        <v>14742.7559</v>
       </c>
       <c r="G152" t="n">
-        <v>39.94750000000004</v>
+        <v>39.95500000000004</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5863,14 +5743,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5880,22 +5754,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>40.11</v>
+        <v>39.9</v>
       </c>
       <c r="C153" t="n">
-        <v>40.11</v>
+        <v>39.9</v>
       </c>
       <c r="D153" t="n">
-        <v>40.11</v>
+        <v>39.9</v>
       </c>
       <c r="E153" t="n">
-        <v>40.11</v>
+        <v>39.9</v>
       </c>
       <c r="F153" t="n">
-        <v>43.3787</v>
+        <v>419.2458</v>
       </c>
       <c r="G153" t="n">
-        <v>39.94350000000005</v>
+        <v>39.94750000000004</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5904,14 +5778,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5921,22 +5789,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>39.9</v>
+        <v>40.11</v>
       </c>
       <c r="C154" t="n">
-        <v>39.9</v>
+        <v>40.11</v>
       </c>
       <c r="D154" t="n">
-        <v>39.9</v>
+        <v>40.11</v>
       </c>
       <c r="E154" t="n">
-        <v>39.9</v>
+        <v>40.11</v>
       </c>
       <c r="F154" t="n">
-        <v>4477.509</v>
+        <v>43.3787</v>
       </c>
       <c r="G154" t="n">
-        <v>39.93600000000005</v>
+        <v>39.94350000000005</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5945,14 +5813,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5974,10 +5836,10 @@
         <v>39.9</v>
       </c>
       <c r="F155" t="n">
-        <v>4272.5454</v>
+        <v>4477.509</v>
       </c>
       <c r="G155" t="n">
-        <v>39.92800000000005</v>
+        <v>39.93600000000005</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5986,14 +5848,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6003,22 +5859,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>39.71</v>
+        <v>39.9</v>
       </c>
       <c r="C156" t="n">
-        <v>39.6</v>
+        <v>39.9</v>
       </c>
       <c r="D156" t="n">
-        <v>39.71</v>
+        <v>39.9</v>
       </c>
       <c r="E156" t="n">
-        <v>39.6</v>
+        <v>39.9</v>
       </c>
       <c r="F156" t="n">
-        <v>19800</v>
+        <v>4272.5454</v>
       </c>
       <c r="G156" t="n">
-        <v>39.91500000000005</v>
+        <v>39.92800000000005</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6027,14 +5883,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6044,22 +5894,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>39.63</v>
+        <v>39.71</v>
       </c>
       <c r="C157" t="n">
-        <v>39.97</v>
+        <v>39.6</v>
       </c>
       <c r="D157" t="n">
-        <v>39.97</v>
+        <v>39.71</v>
       </c>
       <c r="E157" t="n">
-        <v>39.63</v>
+        <v>39.6</v>
       </c>
       <c r="F157" t="n">
-        <v>69808.8995</v>
+        <v>19800</v>
       </c>
       <c r="G157" t="n">
-        <v>39.90816666666671</v>
+        <v>39.91500000000005</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6068,14 +5918,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6085,22 +5929,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>40.01</v>
+        <v>39.63</v>
       </c>
       <c r="C158" t="n">
-        <v>40.01</v>
+        <v>39.97</v>
       </c>
       <c r="D158" t="n">
-        <v>40.01</v>
+        <v>39.97</v>
       </c>
       <c r="E158" t="n">
-        <v>40.01</v>
+        <v>39.63</v>
       </c>
       <c r="F158" t="n">
-        <v>13319.5162</v>
+        <v>69808.8995</v>
       </c>
       <c r="G158" t="n">
-        <v>39.90400000000004</v>
+        <v>39.90816666666671</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6109,14 +5953,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6126,22 +5964,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>40.11</v>
+        <v>40.01</v>
       </c>
       <c r="C159" t="n">
-        <v>40.11</v>
+        <v>40.01</v>
       </c>
       <c r="D159" t="n">
-        <v>40.11</v>
+        <v>40.01</v>
       </c>
       <c r="E159" t="n">
-        <v>40.11</v>
+        <v>40.01</v>
       </c>
       <c r="F159" t="n">
-        <v>12415.6213</v>
+        <v>13319.5162</v>
       </c>
       <c r="G159" t="n">
-        <v>39.89950000000004</v>
+        <v>39.90400000000004</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6150,14 +5988,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6167,22 +5999,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>40.15</v>
+        <v>40.11</v>
       </c>
       <c r="C160" t="n">
-        <v>40.15</v>
+        <v>40.11</v>
       </c>
       <c r="D160" t="n">
-        <v>40.15</v>
+        <v>40.11</v>
       </c>
       <c r="E160" t="n">
-        <v>40.15</v>
+        <v>40.11</v>
       </c>
       <c r="F160" t="n">
-        <v>899.9</v>
+        <v>12415.6213</v>
       </c>
       <c r="G160" t="n">
-        <v>39.89866666666671</v>
+        <v>39.89950000000004</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6191,14 +6023,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6208,22 +6034,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>40.11</v>
+        <v>40.15</v>
       </c>
       <c r="C161" t="n">
-        <v>40.11</v>
+        <v>40.15</v>
       </c>
       <c r="D161" t="n">
-        <v>40.11</v>
+        <v>40.15</v>
       </c>
       <c r="E161" t="n">
-        <v>40.11</v>
+        <v>40.15</v>
       </c>
       <c r="F161" t="n">
-        <v>24.9315</v>
+        <v>899.9</v>
       </c>
       <c r="G161" t="n">
-        <v>39.89400000000005</v>
+        <v>39.89866666666671</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6232,14 +6058,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6249,22 +6069,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>40.12</v>
+        <v>40.11</v>
       </c>
       <c r="C162" t="n">
-        <v>40.12</v>
+        <v>40.11</v>
       </c>
       <c r="D162" t="n">
-        <v>40.12</v>
+        <v>40.11</v>
       </c>
       <c r="E162" t="n">
-        <v>40.12</v>
+        <v>40.11</v>
       </c>
       <c r="F162" t="n">
-        <v>20043.749</v>
+        <v>24.9315</v>
       </c>
       <c r="G162" t="n">
-        <v>39.88950000000005</v>
+        <v>39.89400000000005</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6273,14 +6093,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6293,19 +6107,19 @@
         <v>40.12</v>
       </c>
       <c r="C163" t="n">
-        <v>40.11</v>
+        <v>40.12</v>
       </c>
       <c r="D163" t="n">
         <v>40.12</v>
       </c>
       <c r="E163" t="n">
-        <v>40.11</v>
+        <v>40.12</v>
       </c>
       <c r="F163" t="n">
-        <v>7066.4887</v>
+        <v>20043.749</v>
       </c>
       <c r="G163" t="n">
-        <v>39.88483333333339</v>
+        <v>39.88950000000005</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6314,14 +6128,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6331,22 +6139,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>40.09</v>
+        <v>40.12</v>
       </c>
       <c r="C164" t="n">
-        <v>40.09</v>
+        <v>40.11</v>
       </c>
       <c r="D164" t="n">
-        <v>40.09</v>
+        <v>40.12</v>
       </c>
       <c r="E164" t="n">
-        <v>40.09</v>
+        <v>40.11</v>
       </c>
       <c r="F164" t="n">
-        <v>1069.9294</v>
+        <v>7066.4887</v>
       </c>
       <c r="G164" t="n">
-        <v>39.88366666666673</v>
+        <v>39.88483333333339</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6355,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6375,19 +6177,19 @@
         <v>40.09</v>
       </c>
       <c r="C165" t="n">
-        <v>40.18</v>
+        <v>40.09</v>
       </c>
       <c r="D165" t="n">
-        <v>40.18</v>
+        <v>40.09</v>
       </c>
       <c r="E165" t="n">
         <v>40.09</v>
       </c>
       <c r="F165" t="n">
-        <v>56066.7276</v>
+        <v>1069.9294</v>
       </c>
       <c r="G165" t="n">
-        <v>39.88466666666672</v>
+        <v>39.88366666666673</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6396,14 +6198,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6413,22 +6209,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>40.19</v>
+        <v>40.09</v>
       </c>
       <c r="C166" t="n">
-        <v>40.19</v>
+        <v>40.18</v>
       </c>
       <c r="D166" t="n">
-        <v>40.19</v>
+        <v>40.18</v>
       </c>
       <c r="E166" t="n">
-        <v>40.19</v>
+        <v>40.09</v>
       </c>
       <c r="F166" t="n">
-        <v>119.788</v>
+        <v>56066.7276</v>
       </c>
       <c r="G166" t="n">
-        <v>39.88800000000006</v>
+        <v>39.88466666666672</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6437,14 +6233,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6454,22 +6244,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>40.2</v>
+        <v>40.19</v>
       </c>
       <c r="C167" t="n">
-        <v>40.2</v>
+        <v>40.19</v>
       </c>
       <c r="D167" t="n">
-        <v>40.2</v>
+        <v>40.19</v>
       </c>
       <c r="E167" t="n">
-        <v>40.2</v>
+        <v>40.19</v>
       </c>
       <c r="F167" t="n">
-        <v>14745.4759</v>
+        <v>119.788</v>
       </c>
       <c r="G167" t="n">
-        <v>39.89116666666673</v>
+        <v>39.88800000000006</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6478,14 +6268,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6507,10 +6291,10 @@
         <v>40.2</v>
       </c>
       <c r="F168" t="n">
-        <v>867.91044776</v>
+        <v>14745.4759</v>
       </c>
       <c r="G168" t="n">
-        <v>39.89666666666673</v>
+        <v>39.89116666666673</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6519,14 +6303,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6548,10 +6326,10 @@
         <v>40.2</v>
       </c>
       <c r="F169" t="n">
-        <v>48516.3764</v>
+        <v>867.91044776</v>
       </c>
       <c r="G169" t="n">
-        <v>39.90100000000005</v>
+        <v>39.89666666666673</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6560,14 +6338,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6589,10 +6361,10 @@
         <v>40.2</v>
       </c>
       <c r="F170" t="n">
-        <v>3388.0694</v>
+        <v>48516.3764</v>
       </c>
       <c r="G170" t="n">
-        <v>39.90416666666671</v>
+        <v>39.90100000000005</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6601,14 +6373,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6630,10 +6396,10 @@
         <v>40.2</v>
       </c>
       <c r="F171" t="n">
-        <v>30922.1395</v>
+        <v>3388.0694</v>
       </c>
       <c r="G171" t="n">
-        <v>39.90866666666671</v>
+        <v>39.90416666666671</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6642,14 +6408,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6671,10 +6431,10 @@
         <v>40.2</v>
       </c>
       <c r="F172" t="n">
-        <v>1560.02835224</v>
+        <v>30922.1395</v>
       </c>
       <c r="G172" t="n">
-        <v>39.91316666666671</v>
+        <v>39.90866666666671</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6683,14 +6443,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6712,10 +6466,10 @@
         <v>40.2</v>
       </c>
       <c r="F173" t="n">
-        <v>25</v>
+        <v>1560.02835224</v>
       </c>
       <c r="G173" t="n">
-        <v>39.91950000000004</v>
+        <v>39.91316666666671</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6724,14 +6478,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6741,22 +6489,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>40.53</v>
+        <v>40.2</v>
       </c>
       <c r="C174" t="n">
-        <v>40.53</v>
+        <v>40.2</v>
       </c>
       <c r="D174" t="n">
-        <v>40.53</v>
+        <v>40.2</v>
       </c>
       <c r="E174" t="n">
-        <v>40.53</v>
+        <v>40.2</v>
       </c>
       <c r="F174" t="n">
-        <v>22.4905</v>
+        <v>25</v>
       </c>
       <c r="G174" t="n">
-        <v>39.93116666666671</v>
+        <v>39.91950000000004</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6765,14 +6513,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6785,19 +6527,19 @@
         <v>40.53</v>
       </c>
       <c r="C175" t="n">
-        <v>40.56</v>
+        <v>40.53</v>
       </c>
       <c r="D175" t="n">
-        <v>40.56</v>
+        <v>40.53</v>
       </c>
       <c r="E175" t="n">
         <v>40.53</v>
       </c>
       <c r="F175" t="n">
-        <v>2388.1892</v>
+        <v>22.4905</v>
       </c>
       <c r="G175" t="n">
-        <v>39.94100000000005</v>
+        <v>39.93116666666671</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6806,14 +6548,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6823,22 +6559,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>40.74</v>
+        <v>40.53</v>
       </c>
       <c r="C176" t="n">
-        <v>40.71</v>
+        <v>40.56</v>
       </c>
       <c r="D176" t="n">
-        <v>40.75</v>
+        <v>40.56</v>
       </c>
       <c r="E176" t="n">
-        <v>40.71</v>
+        <v>40.53</v>
       </c>
       <c r="F176" t="n">
-        <v>31558.1731</v>
+        <v>2388.1892</v>
       </c>
       <c r="G176" t="n">
-        <v>39.95333333333338</v>
+        <v>39.94100000000005</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6847,14 +6583,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6864,22 +6594,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>40.88</v>
+        <v>40.74</v>
       </c>
       <c r="C177" t="n">
-        <v>40.8</v>
+        <v>40.71</v>
       </c>
       <c r="D177" t="n">
-        <v>40.88</v>
+        <v>40.75</v>
       </c>
       <c r="E177" t="n">
-        <v>40.8</v>
+        <v>40.71</v>
       </c>
       <c r="F177" t="n">
-        <v>20654.1074</v>
+        <v>31558.1731</v>
       </c>
       <c r="G177" t="n">
-        <v>39.96750000000006</v>
+        <v>39.95333333333338</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6888,14 +6618,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6905,38 +6629,32 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
+        <v>40.88</v>
+      </c>
+      <c r="C178" t="n">
         <v>40.8</v>
       </c>
-      <c r="C178" t="n">
-        <v>40.7</v>
-      </c>
       <c r="D178" t="n">
+        <v>40.88</v>
+      </c>
+      <c r="E178" t="n">
         <v>40.8</v>
       </c>
-      <c r="E178" t="n">
-        <v>40.7</v>
-      </c>
       <c r="F178" t="n">
-        <v>357615.6784</v>
+        <v>20654.1074</v>
       </c>
       <c r="G178" t="n">
-        <v>39.98200000000006</v>
+        <v>39.96750000000006</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6946,38 +6664,32 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="C179" t="n">
         <v>40.7</v>
       </c>
       <c r="D179" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="E179" t="n">
         <v>40.7</v>
       </c>
       <c r="F179" t="n">
-        <v>30887.7697</v>
+        <v>357615.6784</v>
       </c>
       <c r="G179" t="n">
-        <v>39.99750000000005</v>
+        <v>39.98200000000006</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6999,10 +6711,10 @@
         <v>40.7</v>
       </c>
       <c r="F180" t="n">
-        <v>28091.326</v>
+        <v>30887.7697</v>
       </c>
       <c r="G180" t="n">
-        <v>40.01400000000005</v>
+        <v>39.99750000000005</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7011,16 +6723,10 @@
         <v>1</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
-        <v>1.019414799899321</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -7031,25 +6737,25 @@
         <v>40.7</v>
       </c>
       <c r="C181" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="D181" t="n">
         <v>40.7</v>
       </c>
       <c r="E181" t="n">
-        <v>40.51</v>
+        <v>40.7</v>
       </c>
       <c r="F181" t="n">
-        <v>25624.6913</v>
+        <v>28091.326</v>
       </c>
       <c r="G181" t="n">
-        <v>40.02900000000005</v>
+        <v>40.01400000000005</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
@@ -7063,28 +6769,28 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>40.47</v>
+        <v>40.7</v>
       </c>
       <c r="C182" t="n">
-        <v>40.47</v>
+        <v>40.6</v>
       </c>
       <c r="D182" t="n">
-        <v>40.47</v>
+        <v>40.7</v>
       </c>
       <c r="E182" t="n">
-        <v>40.47</v>
+        <v>40.51</v>
       </c>
       <c r="F182" t="n">
-        <v>28.4162</v>
+        <v>25624.6913</v>
       </c>
       <c r="G182" t="n">
-        <v>40.04183333333338</v>
+        <v>40.02900000000005</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -7098,22 +6804,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>40.75</v>
+        <v>40.47</v>
       </c>
       <c r="C183" t="n">
-        <v>40.88</v>
+        <v>40.47</v>
       </c>
       <c r="D183" t="n">
-        <v>40.88</v>
+        <v>40.47</v>
       </c>
       <c r="E183" t="n">
-        <v>40.75</v>
+        <v>40.47</v>
       </c>
       <c r="F183" t="n">
-        <v>3702.1163</v>
+        <v>28.4162</v>
       </c>
       <c r="G183" t="n">
-        <v>40.06016666666672</v>
+        <v>40.04183333333338</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7133,22 +6839,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>40.85</v>
+        <v>40.75</v>
       </c>
       <c r="C184" t="n">
-        <v>40.85</v>
+        <v>40.88</v>
       </c>
       <c r="D184" t="n">
-        <v>40.85</v>
+        <v>40.88</v>
       </c>
       <c r="E184" t="n">
-        <v>40.85</v>
+        <v>40.75</v>
       </c>
       <c r="F184" t="n">
-        <v>29.3758</v>
+        <v>3702.1163</v>
       </c>
       <c r="G184" t="n">
-        <v>40.07800000000005</v>
+        <v>40.06016666666672</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7171,19 +6877,19 @@
         <v>40.85</v>
       </c>
       <c r="C185" t="n">
-        <v>40.87</v>
+        <v>40.85</v>
       </c>
       <c r="D185" t="n">
-        <v>40.87</v>
+        <v>40.85</v>
       </c>
       <c r="E185" t="n">
         <v>40.85</v>
       </c>
       <c r="F185" t="n">
-        <v>268.2846</v>
+        <v>29.3758</v>
       </c>
       <c r="G185" t="n">
-        <v>40.0961666666667</v>
+        <v>40.07800000000005</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7203,7 +6909,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>40.87</v>
+        <v>40.85</v>
       </c>
       <c r="C186" t="n">
         <v>40.87</v>
@@ -7212,13 +6918,13 @@
         <v>40.87</v>
       </c>
       <c r="E186" t="n">
-        <v>40.87</v>
+        <v>40.85</v>
       </c>
       <c r="F186" t="n">
-        <v>10269.4206</v>
+        <v>268.2846</v>
       </c>
       <c r="G186" t="n">
-        <v>40.1151666666667</v>
+        <v>40.0961666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7238,22 +6944,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>40.88</v>
+        <v>40.87</v>
       </c>
       <c r="C187" t="n">
-        <v>40.88</v>
+        <v>40.87</v>
       </c>
       <c r="D187" t="n">
-        <v>40.88</v>
+        <v>40.87</v>
       </c>
       <c r="E187" t="n">
-        <v>40.88</v>
+        <v>40.87</v>
       </c>
       <c r="F187" t="n">
-        <v>2400.248</v>
+        <v>10269.4206</v>
       </c>
       <c r="G187" t="n">
-        <v>40.13433333333337</v>
+        <v>40.1151666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7273,22 +6979,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>40.85</v>
+        <v>40.88</v>
       </c>
       <c r="C188" t="n">
-        <v>40.7</v>
+        <v>40.88</v>
       </c>
       <c r="D188" t="n">
-        <v>40.85</v>
+        <v>40.88</v>
       </c>
       <c r="E188" t="n">
-        <v>40.7</v>
+        <v>40.88</v>
       </c>
       <c r="F188" t="n">
-        <v>397.3986</v>
+        <v>2400.248</v>
       </c>
       <c r="G188" t="n">
-        <v>40.1491666666667</v>
+        <v>40.13433333333337</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7308,22 +7014,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>40.54</v>
+        <v>40.85</v>
       </c>
       <c r="C189" t="n">
-        <v>40.54</v>
+        <v>40.7</v>
       </c>
       <c r="D189" t="n">
-        <v>40.54</v>
+        <v>40.85</v>
       </c>
       <c r="E189" t="n">
-        <v>40.54</v>
+        <v>40.7</v>
       </c>
       <c r="F189" t="n">
-        <v>10269.4206</v>
+        <v>397.3986</v>
       </c>
       <c r="G189" t="n">
-        <v>40.16300000000003</v>
+        <v>40.1491666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7343,22 +7049,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>40.48</v>
+        <v>40.54</v>
       </c>
       <c r="C190" t="n">
-        <v>40.48</v>
+        <v>40.54</v>
       </c>
       <c r="D190" t="n">
-        <v>40.48</v>
+        <v>40.54</v>
       </c>
       <c r="E190" t="n">
-        <v>40.48</v>
+        <v>40.54</v>
       </c>
       <c r="F190" t="n">
-        <v>51469.1252</v>
+        <v>10269.4206</v>
       </c>
       <c r="G190" t="n">
-        <v>40.17583333333337</v>
+        <v>40.16300000000003</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7378,22 +7084,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>40.57</v>
+        <v>40.48</v>
       </c>
       <c r="C191" t="n">
-        <v>40.57</v>
+        <v>40.48</v>
       </c>
       <c r="D191" t="n">
-        <v>40.57</v>
+        <v>40.48</v>
       </c>
       <c r="E191" t="n">
-        <v>40.57</v>
+        <v>40.48</v>
       </c>
       <c r="F191" t="n">
-        <v>2391.7724</v>
+        <v>51469.1252</v>
       </c>
       <c r="G191" t="n">
-        <v>40.19016666666671</v>
+        <v>40.17583333333337</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7413,22 +7119,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>40.7</v>
+        <v>40.57</v>
       </c>
       <c r="C192" t="n">
-        <v>40.7</v>
+        <v>40.57</v>
       </c>
       <c r="D192" t="n">
-        <v>40.7</v>
+        <v>40.57</v>
       </c>
       <c r="E192" t="n">
-        <v>40.7</v>
+        <v>40.57</v>
       </c>
       <c r="F192" t="n">
-        <v>955.7816</v>
+        <v>2391.7724</v>
       </c>
       <c r="G192" t="n">
-        <v>40.2066666666667</v>
+        <v>40.19016666666671</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7460,10 +7166,10 @@
         <v>40.7</v>
       </c>
       <c r="F193" t="n">
-        <v>59495.9347</v>
+        <v>955.7816</v>
       </c>
       <c r="G193" t="n">
-        <v>40.22316666666669</v>
+        <v>40.2066666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7483,22 +7189,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="C194" t="n">
         <v>40.7</v>
       </c>
       <c r="D194" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="E194" t="n">
         <v>40.7</v>
       </c>
       <c r="F194" t="n">
-        <v>36325.7081</v>
+        <v>59495.9347</v>
       </c>
       <c r="G194" t="n">
-        <v>40.23800000000003</v>
+        <v>40.22316666666669</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7530,10 +7236,10 @@
         <v>40.7</v>
       </c>
       <c r="F195" t="n">
-        <v>4254.275</v>
+        <v>36325.7081</v>
       </c>
       <c r="G195" t="n">
-        <v>40.25283333333336</v>
+        <v>40.23800000000003</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7553,22 +7259,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>40.95</v>
+        <v>40.8</v>
       </c>
       <c r="C196" t="n">
-        <v>40.86</v>
+        <v>40.7</v>
       </c>
       <c r="D196" t="n">
-        <v>41.07</v>
+        <v>40.8</v>
       </c>
       <c r="E196" t="n">
-        <v>40.86</v>
+        <v>40.7</v>
       </c>
       <c r="F196" t="n">
-        <v>107747.27197467</v>
+        <v>4254.275</v>
       </c>
       <c r="G196" t="n">
-        <v>40.27033333333336</v>
+        <v>40.25283333333336</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7588,22 +7294,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>40.72</v>
+        <v>40.95</v>
       </c>
       <c r="C197" t="n">
-        <v>40.94</v>
+        <v>40.86</v>
       </c>
       <c r="D197" t="n">
-        <v>40.94</v>
+        <v>41.07</v>
       </c>
       <c r="E197" t="n">
-        <v>40.72</v>
+        <v>40.86</v>
       </c>
       <c r="F197" t="n">
-        <v>3603.6844542</v>
+        <v>107747.27197467</v>
       </c>
       <c r="G197" t="n">
-        <v>40.28633333333336</v>
+        <v>40.27033333333336</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7623,22 +7329,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>40.72</v>
+      </c>
+      <c r="C198" t="n">
         <v>40.94</v>
-      </c>
-      <c r="C198" t="n">
-        <v>40.76</v>
       </c>
       <c r="D198" t="n">
         <v>40.94</v>
       </c>
       <c r="E198" t="n">
-        <v>40.76</v>
+        <v>40.72</v>
       </c>
       <c r="F198" t="n">
-        <v>3181.5218</v>
+        <v>3603.6844542</v>
       </c>
       <c r="G198" t="n">
-        <v>40.29933333333337</v>
+        <v>40.28633333333336</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7658,22 +7364,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>40.76</v>
+        <v>40.94</v>
       </c>
       <c r="C199" t="n">
         <v>40.76</v>
       </c>
       <c r="D199" t="n">
-        <v>40.76</v>
+        <v>40.94</v>
       </c>
       <c r="E199" t="n">
         <v>40.76</v>
       </c>
       <c r="F199" t="n">
-        <v>367.1518</v>
+        <v>3181.5218</v>
       </c>
       <c r="G199" t="n">
-        <v>40.31083333333336</v>
+        <v>40.29933333333337</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7696,19 +7402,19 @@
         <v>40.76</v>
       </c>
       <c r="C200" t="n">
-        <v>41</v>
+        <v>40.76</v>
       </c>
       <c r="D200" t="n">
-        <v>41</v>
+        <v>40.76</v>
       </c>
       <c r="E200" t="n">
         <v>40.76</v>
       </c>
       <c r="F200" t="n">
-        <v>228.1112</v>
+        <v>367.1518</v>
       </c>
       <c r="G200" t="n">
-        <v>40.32583333333336</v>
+        <v>40.31083333333336</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7728,22 +7434,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>40.88</v>
+        <v>40.76</v>
       </c>
       <c r="C201" t="n">
-        <v>40.88</v>
+        <v>41</v>
       </c>
       <c r="D201" t="n">
-        <v>40.88</v>
+        <v>41</v>
       </c>
       <c r="E201" t="n">
-        <v>40.88</v>
+        <v>40.76</v>
       </c>
       <c r="F201" t="n">
-        <v>2205.0717</v>
+        <v>228.1112</v>
       </c>
       <c r="G201" t="n">
-        <v>40.3421666666667</v>
+        <v>40.32583333333336</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7775,10 +7481,10 @@
         <v>40.88</v>
       </c>
       <c r="F202" t="n">
-        <v>24400.8374</v>
+        <v>2205.0717</v>
       </c>
       <c r="G202" t="n">
-        <v>40.35683333333337</v>
+        <v>40.3421666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7810,10 +7516,10 @@
         <v>40.88</v>
       </c>
       <c r="F203" t="n">
-        <v>75390.03690000001</v>
+        <v>24400.8374</v>
       </c>
       <c r="G203" t="n">
-        <v>40.37816666666671</v>
+        <v>40.35683333333337</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7833,22 +7539,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>40.89</v>
+        <v>40.88</v>
       </c>
       <c r="C204" t="n">
         <v>40.88</v>
       </c>
       <c r="D204" t="n">
-        <v>40.89</v>
+        <v>40.88</v>
       </c>
       <c r="E204" t="n">
         <v>40.88</v>
       </c>
       <c r="F204" t="n">
-        <v>8087.0391</v>
+        <v>75390.03690000001</v>
       </c>
       <c r="G204" t="n">
-        <v>40.39383333333338</v>
+        <v>40.37816666666671</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7868,22 +7574,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>40.81</v>
+        <v>40.89</v>
       </c>
       <c r="C205" t="n">
-        <v>40.81</v>
+        <v>40.88</v>
       </c>
       <c r="D205" t="n">
-        <v>40.81</v>
+        <v>40.89</v>
       </c>
       <c r="E205" t="n">
-        <v>40.81</v>
+        <v>40.88</v>
       </c>
       <c r="F205" t="n">
-        <v>16000</v>
+        <v>8087.0391</v>
       </c>
       <c r="G205" t="n">
-        <v>40.40816666666671</v>
+        <v>40.39383333333338</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7915,10 +7621,10 @@
         <v>40.81</v>
       </c>
       <c r="F206" t="n">
-        <v>19991.1562</v>
+        <v>16000</v>
       </c>
       <c r="G206" t="n">
-        <v>40.42433333333337</v>
+        <v>40.40816666666671</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7950,10 +7656,10 @@
         <v>40.81</v>
       </c>
       <c r="F207" t="n">
-        <v>21150.44</v>
+        <v>19991.1562</v>
       </c>
       <c r="G207" t="n">
-        <v>40.44433333333337</v>
+        <v>40.42433333333337</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7976,19 +7682,19 @@
         <v>40.81</v>
       </c>
       <c r="C208" t="n">
-        <v>40.8</v>
+        <v>40.81</v>
       </c>
       <c r="D208" t="n">
         <v>40.81</v>
       </c>
       <c r="E208" t="n">
-        <v>40.8</v>
+        <v>40.81</v>
       </c>
       <c r="F208" t="n">
-        <v>7591.6038</v>
+        <v>21150.44</v>
       </c>
       <c r="G208" t="n">
-        <v>40.4606666666667</v>
+        <v>40.44433333333337</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8008,22 +7714,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>40.8</v>
+        <v>40.81</v>
       </c>
       <c r="C209" t="n">
         <v>40.8</v>
       </c>
       <c r="D209" t="n">
-        <v>40.8</v>
+        <v>40.81</v>
       </c>
       <c r="E209" t="n">
         <v>40.8</v>
       </c>
       <c r="F209" t="n">
-        <v>5403.968</v>
+        <v>7591.6038</v>
       </c>
       <c r="G209" t="n">
-        <v>40.4771666666667</v>
+        <v>40.4606666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8046,19 +7752,19 @@
         <v>40.8</v>
       </c>
       <c r="C210" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="D210" t="n">
         <v>40.8</v>
       </c>
       <c r="E210" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="F210" t="n">
-        <v>33549.5999</v>
+        <v>5403.968</v>
       </c>
       <c r="G210" t="n">
-        <v>40.48933333333337</v>
+        <v>40.4771666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8081,19 +7787,19 @@
         <v>40.8</v>
       </c>
       <c r="C211" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="D211" t="n">
         <v>40.8</v>
       </c>
       <c r="E211" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="F211" t="n">
-        <v>12315.32</v>
+        <v>33549.5999</v>
       </c>
       <c r="G211" t="n">
-        <v>40.50716666666671</v>
+        <v>40.48933333333337</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8125,10 +7831,10 @@
         <v>40.8</v>
       </c>
       <c r="F212" t="n">
-        <v>61.9711</v>
+        <v>12315.32</v>
       </c>
       <c r="G212" t="n">
-        <v>40.52216666666671</v>
+        <v>40.50716666666671</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8148,22 +7854,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="C213" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="D213" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="E213" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="F213" t="n">
-        <v>159.7788</v>
+        <v>61.9711</v>
       </c>
       <c r="G213" t="n">
-        <v>40.53700000000004</v>
+        <v>40.52216666666671</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8183,22 +7889,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>41.02</v>
+        <v>41</v>
       </c>
       <c r="C214" t="n">
-        <v>41.22</v>
+        <v>41</v>
       </c>
       <c r="D214" t="n">
-        <v>41.22</v>
+        <v>41</v>
       </c>
       <c r="E214" t="n">
         <v>41</v>
       </c>
       <c r="F214" t="n">
-        <v>5582.1573</v>
+        <v>159.7788</v>
       </c>
       <c r="G214" t="n">
-        <v>40.55900000000004</v>
+        <v>40.53700000000004</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8218,22 +7924,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>41.2</v>
+        <v>41.02</v>
       </c>
       <c r="C215" t="n">
-        <v>41.2</v>
+        <v>41.22</v>
       </c>
       <c r="D215" t="n">
-        <v>41.2</v>
+        <v>41.22</v>
       </c>
       <c r="E215" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="F215" t="n">
-        <v>2195.3897</v>
+        <v>5582.1573</v>
       </c>
       <c r="G215" t="n">
-        <v>40.5806666666667</v>
+        <v>40.55900000000004</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8253,22 +7959,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>41.24</v>
+        <v>41.2</v>
       </c>
       <c r="C216" t="n">
-        <v>41.25</v>
+        <v>41.2</v>
       </c>
       <c r="D216" t="n">
-        <v>41.25</v>
+        <v>41.2</v>
       </c>
       <c r="E216" t="n">
-        <v>41.24</v>
+        <v>41.2</v>
       </c>
       <c r="F216" t="n">
-        <v>9976.3156</v>
+        <v>2195.3897</v>
       </c>
       <c r="G216" t="n">
-        <v>40.6081666666667</v>
+        <v>40.5806666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8288,22 +7994,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
+        <v>41.24</v>
+      </c>
+      <c r="C217" t="n">
         <v>41.25</v>
       </c>
-      <c r="C217" t="n">
-        <v>41.3</v>
-      </c>
       <c r="D217" t="n">
-        <v>41.3</v>
+        <v>41.25</v>
       </c>
       <c r="E217" t="n">
-        <v>41.25</v>
+        <v>41.24</v>
       </c>
       <c r="F217" t="n">
-        <v>23841.2519</v>
+        <v>9976.3156</v>
       </c>
       <c r="G217" t="n">
-        <v>40.63033333333338</v>
+        <v>40.6081666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8323,7 +8029,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>41.3</v>
+        <v>41.25</v>
       </c>
       <c r="C218" t="n">
         <v>41.3</v>
@@ -8332,13 +8038,13 @@
         <v>41.3</v>
       </c>
       <c r="E218" t="n">
-        <v>41.3</v>
+        <v>41.25</v>
       </c>
       <c r="F218" t="n">
-        <v>96722.09329999999</v>
+        <v>23841.2519</v>
       </c>
       <c r="G218" t="n">
-        <v>40.65183333333337</v>
+        <v>40.63033333333338</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8361,25 +8067,25 @@
         <v>41.3</v>
       </c>
       <c r="C219" t="n">
-        <v>41.09</v>
+        <v>41.3</v>
       </c>
       <c r="D219" t="n">
         <v>41.3</v>
       </c>
       <c r="E219" t="n">
-        <v>41.09</v>
+        <v>41.3</v>
       </c>
       <c r="F219" t="n">
-        <v>10105.8785</v>
+        <v>96722.09329999999</v>
       </c>
       <c r="G219" t="n">
-        <v>40.66816666666671</v>
+        <v>40.65183333333337</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
@@ -8388,6 +8094,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C220" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="D220" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E220" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="F220" t="n">
+        <v>10105.8785</v>
+      </c>
+      <c r="G220" t="n">
+        <v>40.66816666666671</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-11 BackTest ADA.xlsx
+++ b/BackTest/2020-01-11 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M220"/>
+  <dimension ref="A1:N230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>36.3466</v>
       </c>
       <c r="G2" t="n">
+        <v>41.43866666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>41.24900000000006</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>5642.3612</v>
       </c>
       <c r="G3" t="n">
+        <v>41.43799999999999</v>
+      </c>
+      <c r="H3" t="n">
         <v>41.25300000000006</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>596.0134</v>
       </c>
       <c r="G4" t="n">
+        <v>41.41399999999999</v>
+      </c>
+      <c r="H4" t="n">
         <v>41.25200000000005</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>105.9598</v>
       </c>
       <c r="G5" t="n">
+        <v>41.40066666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>41.25100000000005</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>24.0941</v>
       </c>
       <c r="G6" t="n">
+        <v>41.40066666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>41.25266666666671</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>3580.1678</v>
       </c>
       <c r="G7" t="n">
+        <v>41.38399999999999</v>
+      </c>
+      <c r="H7" t="n">
         <v>41.25433333333338</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>7756.7001</v>
       </c>
       <c r="G8" t="n">
+        <v>41.35933333333332</v>
+      </c>
+      <c r="H8" t="n">
         <v>41.25850000000004</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>27107.6646</v>
       </c>
       <c r="G9" t="n">
+        <v>41.32399999999999</v>
+      </c>
+      <c r="H9" t="n">
         <v>41.25833333333338</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>64.72586123000001</v>
       </c>
       <c r="G10" t="n">
+        <v>41.302</v>
+      </c>
+      <c r="H10" t="n">
         <v>41.26533333333337</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1115.9806</v>
       </c>
       <c r="G11" t="n">
+        <v>41.266</v>
+      </c>
+      <c r="H11" t="n">
         <v>41.2656666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>10000</v>
       </c>
       <c r="G12" t="n">
+        <v>41.24266666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>41.26633333333337</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>7777</v>
       </c>
       <c r="G13" t="n">
+        <v>41.20866666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>41.26383333333338</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1432.6948</v>
       </c>
       <c r="G14" t="n">
+        <v>41.19600000000001</v>
+      </c>
+      <c r="H14" t="n">
         <v>41.26300000000005</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>319.0194</v>
       </c>
       <c r="G15" t="n">
+        <v>41.17133333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>41.26033333333339</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>2122.868</v>
       </c>
       <c r="G16" t="n">
+        <v>41.15600000000001</v>
+      </c>
+      <c r="H16" t="n">
         <v>41.25833333333339</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>2900.5615</v>
       </c>
       <c r="G17" t="n">
+        <v>41.13600000000001</v>
+      </c>
+      <c r="H17" t="n">
         <v>41.25833333333339</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1297.257</v>
       </c>
       <c r="G18" t="n">
+        <v>41.11000000000001</v>
+      </c>
+      <c r="H18" t="n">
         <v>41.25550000000005</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>20396.2349</v>
       </c>
       <c r="G19" t="n">
+        <v>41.09666666666668</v>
+      </c>
+      <c r="H19" t="n">
         <v>41.25266666666672</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>94.23990000000001</v>
       </c>
       <c r="G20" t="n">
+        <v>41.07866666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>41.24983333333338</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>11355.9141</v>
       </c>
       <c r="G21" t="n">
+        <v>41.05200000000001</v>
+      </c>
+      <c r="H21" t="n">
         <v>41.24816666666672</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>100000</v>
       </c>
       <c r="G22" t="n">
+        <v>41.03066666666668</v>
+      </c>
+      <c r="H22" t="n">
         <v>41.24233333333338</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>150030.6</v>
       </c>
       <c r="G23" t="n">
+        <v>41.02000000000001</v>
+      </c>
+      <c r="H23" t="n">
         <v>41.23850000000005</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>43554.9118</v>
       </c>
       <c r="G24" t="n">
+        <v>41.00933333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>41.23333333333338</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>17150</v>
       </c>
       <c r="G25" t="n">
+        <v>40.99400000000001</v>
+      </c>
+      <c r="H25" t="n">
         <v>41.23150000000005</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>8000</v>
       </c>
       <c r="G26" t="n">
+        <v>40.97800000000002</v>
+      </c>
+      <c r="H26" t="n">
         <v>41.22616666666672</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>51899.6012</v>
       </c>
       <c r="G27" t="n">
+        <v>40.92733333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>41.21533333333339</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>20000</v>
       </c>
       <c r="G28" t="n">
+        <v>40.89333333333335</v>
+      </c>
+      <c r="H28" t="n">
         <v>41.20300000000005</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>5500.6887</v>
       </c>
       <c r="G29" t="n">
+        <v>40.84533333333335</v>
+      </c>
+      <c r="H29" t="n">
         <v>41.19016666666672</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>635.8614</v>
       </c>
       <c r="G30" t="n">
+        <v>40.80666666666669</v>
+      </c>
+      <c r="H30" t="n">
         <v>41.17783333333339</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>1250.1499</v>
       </c>
       <c r="G31" t="n">
+        <v>40.77133333333335</v>
+      </c>
+      <c r="H31" t="n">
         <v>41.16733333333339</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>57107.0236</v>
       </c>
       <c r="G32" t="n">
+        <v>40.74400000000002</v>
+      </c>
+      <c r="H32" t="n">
         <v>41.15716666666673</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>140.3129</v>
       </c>
       <c r="G33" t="n">
+        <v>40.72666666666669</v>
+      </c>
+      <c r="H33" t="n">
         <v>41.14850000000005</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>3964.7431</v>
       </c>
       <c r="G34" t="n">
+        <v>40.70866666666669</v>
+      </c>
+      <c r="H34" t="n">
         <v>41.14233333333338</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>45447.4528</v>
       </c>
       <c r="G35" t="n">
+        <v>40.69600000000003</v>
+      </c>
+      <c r="H35" t="n">
         <v>41.13316666666672</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>1856.6006</v>
       </c>
       <c r="G36" t="n">
+        <v>40.67866666666669</v>
+      </c>
+      <c r="H36" t="n">
         <v>41.12550000000005</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1721.7932</v>
       </c>
       <c r="G37" t="n">
+        <v>40.67000000000003</v>
+      </c>
+      <c r="H37" t="n">
         <v>41.12000000000004</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>4236.6433</v>
       </c>
       <c r="G38" t="n">
+        <v>40.65000000000003</v>
+      </c>
+      <c r="H38" t="n">
         <v>41.11116666666671</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>746.5484</v>
       </c>
       <c r="G39" t="n">
+        <v>40.6286666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>41.10183333333338</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>872.236</v>
       </c>
       <c r="G40" t="n">
+        <v>40.59800000000003</v>
+      </c>
+      <c r="H40" t="n">
         <v>41.08933333333338</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>29113.823</v>
       </c>
       <c r="G41" t="n">
+        <v>40.57400000000003</v>
+      </c>
+      <c r="H41" t="n">
         <v>41.07350000000005</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>1202.4079</v>
       </c>
       <c r="G42" t="n">
+        <v>40.57266666666668</v>
+      </c>
+      <c r="H42" t="n">
         <v>41.05583333333338</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>4433.1719</v>
       </c>
       <c r="G43" t="n">
+        <v>40.56466666666668</v>
+      </c>
+      <c r="H43" t="n">
         <v>41.03650000000005</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>48250</v>
       </c>
       <c r="G44" t="n">
+        <v>40.57800000000001</v>
+      </c>
+      <c r="H44" t="n">
         <v>41.01900000000006</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>12200</v>
       </c>
       <c r="G45" t="n">
+        <v>40.57333333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>41.00183333333339</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>33175.7284</v>
       </c>
       <c r="G46" t="n">
+        <v>40.57266666666668</v>
+      </c>
+      <c r="H46" t="n">
         <v>40.98733333333339</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>6094.0341</v>
       </c>
       <c r="G47" t="n">
+        <v>40.56400000000001</v>
+      </c>
+      <c r="H47" t="n">
         <v>40.97066666666672</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>667.3747</v>
       </c>
       <c r="G48" t="n">
+        <v>40.54533333333335</v>
+      </c>
+      <c r="H48" t="n">
         <v>40.95500000000006</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>7777.6696</v>
       </c>
       <c r="G49" t="n">
+        <v>40.52333333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>40.93566666666673</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>30523.0306</v>
       </c>
       <c r="G50" t="n">
+        <v>40.50933333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>40.92116666666673</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>11728.8303</v>
       </c>
       <c r="G51" t="n">
+        <v>40.48666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>40.90450000000006</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>13</v>
       </c>
       <c r="G52" t="n">
+        <v>40.46666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>40.8878333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>9918.454100000001</v>
       </c>
       <c r="G53" t="n">
+        <v>40.45533333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>40.87116666666672</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>22186.988</v>
       </c>
       <c r="G54" t="n">
+        <v>40.44533333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>40.8518333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>17391.4421</v>
       </c>
       <c r="G55" t="n">
+        <v>40.43666666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>40.83266666666673</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>5416.0402</v>
       </c>
       <c r="G56" t="n">
+        <v>40.434</v>
+      </c>
+      <c r="H56" t="n">
         <v>40.81300000000007</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>3959.1399</v>
       </c>
       <c r="G57" t="n">
+        <v>40.432</v>
+      </c>
+      <c r="H57" t="n">
         <v>40.79366666666673</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>8393.7178</v>
       </c>
       <c r="G58" t="n">
+        <v>40.42866666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>40.7738333333334</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>29309.7146</v>
       </c>
       <c r="G59" t="n">
+        <v>40.41533333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>40.75866666666673</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>13721.6684</v>
       </c>
       <c r="G60" t="n">
+        <v>40.41066666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>40.74050000000008</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>4272.2031</v>
       </c>
       <c r="G61" t="n">
+        <v>40.40133333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>40.7253333333334</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>349.9</v>
       </c>
       <c r="G62" t="n">
+        <v>40.39666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>40.71016666666673</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>58.5075</v>
       </c>
       <c r="G63" t="n">
+        <v>40.392</v>
+      </c>
+      <c r="H63" t="n">
         <v>40.69350000000006</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>11.7508</v>
       </c>
       <c r="G64" t="n">
+        <v>40.39133333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>40.68000000000006</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>16493.1</v>
       </c>
       <c r="G65" t="n">
+        <v>40.376</v>
+      </c>
+      <c r="H65" t="n">
         <v>40.66500000000007</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>1273.3134</v>
       </c>
       <c r="G66" t="n">
+        <v>40.36933333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>40.64666666666674</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>35607.5243</v>
       </c>
       <c r="G67" t="n">
+        <v>40.36133333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>40.63216666666674</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>2659.6548</v>
       </c>
       <c r="G68" t="n">
+        <v>40.35333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>40.61966666666674</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>34082.5066</v>
       </c>
       <c r="G69" t="n">
+        <v>40.34133333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>40.60616666666673</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>2008.8831</v>
       </c>
       <c r="G70" t="n">
+        <v>40.32933333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>40.58950000000006</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>19370.9051</v>
       </c>
       <c r="G71" t="n">
+        <v>40.31733333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>40.5758333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>12702.7184</v>
       </c>
       <c r="G72" t="n">
+        <v>40.30400000000001</v>
+      </c>
+      <c r="H72" t="n">
         <v>40.55900000000006</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>0.0001</v>
       </c>
       <c r="G73" t="n">
+        <v>40.29266666666668</v>
+      </c>
+      <c r="H73" t="n">
         <v>40.54483333333339</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>500000</v>
       </c>
       <c r="G74" t="n">
+        <v>40.26600000000001</v>
+      </c>
+      <c r="H74" t="n">
         <v>40.52616666666672</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>69918.8585</v>
       </c>
       <c r="G75" t="n">
+        <v>40.27066666666668</v>
+      </c>
+      <c r="H75" t="n">
         <v>40.51533333333338</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>23131.0853</v>
       </c>
       <c r="G76" t="n">
+        <v>40.27133333333335</v>
+      </c>
+      <c r="H76" t="n">
         <v>40.50416666666671</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>265.879</v>
       </c>
       <c r="G77" t="n">
+        <v>40.27000000000001</v>
+      </c>
+      <c r="H77" t="n">
         <v>40.49366666666671</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>1143.5586</v>
       </c>
       <c r="G78" t="n">
+        <v>40.26866666666668</v>
+      </c>
+      <c r="H78" t="n">
         <v>40.48316666666671</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>1300</v>
       </c>
       <c r="G79" t="n">
+        <v>40.26733333333335</v>
+      </c>
+      <c r="H79" t="n">
         <v>40.4726666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>16373.4772</v>
       </c>
       <c r="G80" t="n">
+        <v>40.27200000000002</v>
+      </c>
+      <c r="H80" t="n">
         <v>40.46333333333337</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>50000</v>
       </c>
       <c r="G81" t="n">
+        <v>40.27000000000002</v>
+      </c>
+      <c r="H81" t="n">
         <v>40.45116666666671</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>22379.6526</v>
       </c>
       <c r="G82" t="n">
+        <v>40.27466666666669</v>
+      </c>
+      <c r="H82" t="n">
         <v>40.44316666666671</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>4267.5326</v>
       </c>
       <c r="G83" t="n">
+        <v>40.27933333333336</v>
+      </c>
+      <c r="H83" t="n">
         <v>40.43450000000004</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>4099.2403</v>
       </c>
       <c r="G84" t="n">
+        <v>40.28266666666669</v>
+      </c>
+      <c r="H84" t="n">
         <v>40.42450000000004</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>6259.2086</v>
       </c>
       <c r="G85" t="n">
+        <v>40.28733333333335</v>
+      </c>
+      <c r="H85" t="n">
         <v>40.41283333333338</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>1624.3682</v>
       </c>
       <c r="G86" t="n">
+        <v>40.29333333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>40.40466666666671</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>531.91</v>
       </c>
       <c r="G87" t="n">
+        <v>40.29933333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>40.40200000000004</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>6341.871</v>
       </c>
       <c r="G88" t="n">
+        <v>40.30533333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>40.39783333333337</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>5618.9763</v>
       </c>
       <c r="G89" t="n">
+        <v>40.32933333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>40.39716666666671</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>255.9035</v>
       </c>
       <c r="G90" t="n">
+        <v>40.324</v>
+      </c>
+      <c r="H90" t="n">
         <v>40.39466666666671</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>805.2415</v>
       </c>
       <c r="G91" t="n">
+        <v>40.31666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>40.39050000000005</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>28016.7057</v>
       </c>
       <c r="G92" t="n">
+        <v>40.31133333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>40.38550000000004</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>18682.2013</v>
       </c>
       <c r="G93" t="n">
+        <v>40.31</v>
+      </c>
+      <c r="H93" t="n">
         <v>40.37900000000004</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>5387.4441</v>
       </c>
       <c r="G94" t="n">
+        <v>40.30866666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>40.37266666666671</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>3232.5011</v>
       </c>
       <c r="G95" t="n">
+        <v>40.30733333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>40.36616666666671</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>17626.775</v>
       </c>
       <c r="G96" t="n">
+        <v>40.31466666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>40.36016666666671</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>20006.0018</v>
       </c>
       <c r="G97" t="n">
+        <v>40.31666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>40.35483333333339</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>1200</v>
       </c>
       <c r="G98" t="n">
+        <v>40.31866666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>40.35166666666672</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>7149.2421</v>
       </c>
       <c r="G99" t="n">
+        <v>40.318</v>
+      </c>
+      <c r="H99" t="n">
         <v>40.34683333333339</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>50.8135</v>
       </c>
       <c r="G100" t="n">
+        <v>40.324</v>
+      </c>
+      <c r="H100" t="n">
         <v>40.34433333333338</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>3591</v>
       </c>
       <c r="G101" t="n">
+        <v>40.318</v>
+      </c>
+      <c r="H101" t="n">
         <v>40.34066666666671</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>37.5069</v>
       </c>
       <c r="G102" t="n">
+        <v>40.32466666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>40.34000000000005</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>55400</v>
       </c>
       <c r="G103" t="n">
+        <v>40.33133333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>40.33950000000004</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>1035.1868</v>
       </c>
       <c r="G104" t="n">
+        <v>40.33800000000001</v>
+      </c>
+      <c r="H104" t="n">
         <v>40.3371666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>42550</v>
       </c>
       <c r="G105" t="n">
+        <v>40.32933333333335</v>
+      </c>
+      <c r="H105" t="n">
         <v>40.3336666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>175.4835</v>
       </c>
       <c r="G106" t="n">
+        <v>40.31800000000001</v>
+      </c>
+      <c r="H106" t="n">
         <v>40.32683333333337</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>782.696</v>
       </c>
       <c r="G107" t="n">
+        <v>40.29800000000002</v>
+      </c>
+      <c r="H107" t="n">
         <v>40.31900000000003</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>893.7627</v>
       </c>
       <c r="G108" t="n">
+        <v>40.27533333333335</v>
+      </c>
+      <c r="H108" t="n">
         <v>40.31150000000003</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>27726.4276</v>
       </c>
       <c r="G109" t="n">
+        <v>40.24333333333335</v>
+      </c>
+      <c r="H109" t="n">
         <v>40.3026666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>2190.5805</v>
       </c>
       <c r="G110" t="n">
+        <v>40.21600000000001</v>
+      </c>
+      <c r="H110" t="n">
         <v>40.29283333333336</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>730</v>
       </c>
       <c r="G111" t="n">
+        <v>40.19133333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>40.28633333333336</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>15024.6912</v>
       </c>
       <c r="G112" t="n">
+        <v>40.16133333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>40.27850000000002</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>5203.3087</v>
       </c>
       <c r="G113" t="n">
+        <v>40.13133333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>40.27066666666668</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>964.5865</v>
       </c>
       <c r="G114" t="n">
+        <v>40.102</v>
+      </c>
+      <c r="H114" t="n">
         <v>40.26100000000002</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>15626.775</v>
       </c>
       <c r="G115" t="n">
+        <v>40.06533333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>40.25150000000001</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>76791.92080000001</v>
       </c>
       <c r="G116" t="n">
+        <v>40.05</v>
+      </c>
+      <c r="H116" t="n">
         <v>40.24466666666668</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>1501.6343</v>
       </c>
       <c r="G117" t="n">
+        <v>40.02200000000001</v>
+      </c>
+      <c r="H117" t="n">
         <v>40.2375</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>14592.6081</v>
       </c>
       <c r="G118" t="n">
+        <v>39.99266666666668</v>
+      </c>
+      <c r="H118" t="n">
         <v>40.23050000000001</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>1115.1195</v>
       </c>
       <c r="G119" t="n">
+        <v>39.95533333333335</v>
+      </c>
+      <c r="H119" t="n">
         <v>40.22216666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>23988.0523</v>
       </c>
       <c r="G120" t="n">
+        <v>39.92933333333335</v>
+      </c>
+      <c r="H120" t="n">
         <v>40.21333333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>5538.4</v>
       </c>
       <c r="G121" t="n">
+        <v>39.90200000000002</v>
+      </c>
+      <c r="H121" t="n">
         <v>40.20200000000001</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>3415.3</v>
       </c>
       <c r="G122" t="n">
+        <v>39.88266666666669</v>
+      </c>
+      <c r="H122" t="n">
         <v>40.19050000000001</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>296.5422</v>
       </c>
       <c r="G123" t="n">
+        <v>39.86200000000003</v>
+      </c>
+      <c r="H123" t="n">
         <v>40.179</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,22 +5089,21 @@
         <v>50000</v>
       </c>
       <c r="G124" t="n">
+        <v>39.85600000000002</v>
+      </c>
+      <c r="H124" t="n">
         <v>40.16883333333335</v>
       </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="K124" t="n">
-        <v>39.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4757,26 +5127,21 @@
         <v>10233</v>
       </c>
       <c r="G125" t="n">
+        <v>39.84533333333335</v>
+      </c>
+      <c r="H125" t="n">
         <v>40.16016666666668</v>
       </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>39.78</v>
-      </c>
-      <c r="K125" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4800,26 +5165,21 @@
         <v>11552.4235</v>
       </c>
       <c r="G126" t="n">
+        <v>39.83000000000002</v>
+      </c>
+      <c r="H126" t="n">
         <v>40.15150000000001</v>
       </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>39.78</v>
-      </c>
-      <c r="K126" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4843,22 +5203,21 @@
         <v>37548.9194</v>
       </c>
       <c r="G127" t="n">
+        <v>39.81666666666669</v>
+      </c>
+      <c r="H127" t="n">
         <v>40.14233333333334</v>
       </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>39.78</v>
-      </c>
-      <c r="K127" t="n">
-        <v>39.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,24 +5241,21 @@
         <v>7668.376</v>
       </c>
       <c r="G128" t="n">
+        <v>39.80333333333336</v>
+      </c>
+      <c r="H128" t="n">
         <v>40.13316666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>39.78</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4923,24 +5279,21 @@
         <v>1255.4315</v>
       </c>
       <c r="G129" t="n">
+        <v>39.80266666666669</v>
+      </c>
+      <c r="H129" t="n">
         <v>40.12633333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>39.78</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4964,18 +5317,21 @@
         <v>2903.9847</v>
       </c>
       <c r="G130" t="n">
+        <v>39.79466666666669</v>
+      </c>
+      <c r="H130" t="n">
         <v>40.11783333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4999,18 +5355,25 @@
         <v>26.0153</v>
       </c>
       <c r="G131" t="n">
+        <v>39.77733333333335</v>
+      </c>
+      <c r="H131" t="n">
         <v>40.10966666666668</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="L131" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,18 +5397,29 @@
         <v>2492.4141</v>
       </c>
       <c r="G132" t="n">
+        <v>39.76000000000002</v>
+      </c>
+      <c r="H132" t="n">
         <v>40.10150000000002</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="L132" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5069,18 +5443,29 @@
         <v>7420.6164</v>
       </c>
       <c r="G133" t="n">
+        <v>39.74400000000002</v>
+      </c>
+      <c r="H133" t="n">
         <v>40.09333333333336</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="L133" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5104,18 +5489,29 @@
         <v>73.0654</v>
       </c>
       <c r="G134" t="n">
+        <v>39.73600000000002</v>
+      </c>
+      <c r="H134" t="n">
         <v>40.08966666666669</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="L134" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5139,18 +5535,29 @@
         <v>1545.2707</v>
       </c>
       <c r="G135" t="n">
+        <v>39.7386666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>40.08033333333336</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="L135" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5174,18 +5581,29 @@
         <v>6045.5298</v>
       </c>
       <c r="G136" t="n">
+        <v>39.74533333333336</v>
+      </c>
+      <c r="H136" t="n">
         <v>40.07050000000002</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>39.81</v>
+      </c>
+      <c r="L136" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5209,18 +5627,29 @@
         <v>65077.3085</v>
       </c>
       <c r="G137" t="n">
+        <v>39.75266666666668</v>
+      </c>
+      <c r="H137" t="n">
         <v>40.06116666666669</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>39.81</v>
+      </c>
+      <c r="L137" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,18 +5673,29 @@
         <v>7419.18</v>
       </c>
       <c r="G138" t="n">
+        <v>39.77133333333335</v>
+      </c>
+      <c r="H138" t="n">
         <v>40.05466666666669</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>39.81</v>
+      </c>
+      <c r="L138" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5279,18 +5719,29 @@
         <v>39728.7279</v>
       </c>
       <c r="G139" t="n">
+        <v>39.78466666666668</v>
+      </c>
+      <c r="H139" t="n">
         <v>40.0481666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="L139" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,18 +5765,29 @@
         <v>5008.08379256</v>
       </c>
       <c r="G140" t="n">
+        <v>39.80400000000002</v>
+      </c>
+      <c r="H140" t="n">
         <v>40.0431666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="L140" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5349,18 +5811,29 @@
         <v>17.3583</v>
       </c>
       <c r="G141" t="n">
+        <v>39.82533333333335</v>
+      </c>
+      <c r="H141" t="n">
         <v>40.04033333333336</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>40.07</v>
+      </c>
+      <c r="L141" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5384,18 +5857,29 @@
         <v>475.9878</v>
       </c>
       <c r="G142" t="n">
+        <v>39.83666666666669</v>
+      </c>
+      <c r="H142" t="n">
         <v>40.03283333333336</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5419,18 +5903,29 @@
         <v>16465.7814</v>
       </c>
       <c r="G143" t="n">
+        <v>39.85466666666669</v>
+      </c>
+      <c r="H143" t="n">
         <v>40.02700000000004</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="L143" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,18 +5949,29 @@
         <v>11850.2681</v>
       </c>
       <c r="G144" t="n">
+        <v>39.84066666666669</v>
+      </c>
+      <c r="H144" t="n">
         <v>40.01583333333337</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>40</v>
+      </c>
+      <c r="L144" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5489,18 +5995,29 @@
         <v>2807.0622</v>
       </c>
       <c r="G145" t="n">
+        <v>39.85600000000002</v>
+      </c>
+      <c r="H145" t="n">
         <v>40.01000000000003</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="L145" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5524,18 +6041,29 @@
         <v>1000</v>
       </c>
       <c r="G146" t="n">
+        <v>39.87200000000003</v>
+      </c>
+      <c r="H146" t="n">
         <v>40.00433333333337</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>39.94</v>
+      </c>
+      <c r="L146" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5559,18 +6087,29 @@
         <v>4960</v>
       </c>
       <c r="G147" t="n">
+        <v>39.88066666666669</v>
+      </c>
+      <c r="H147" t="n">
         <v>39.99683333333337</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="L147" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5594,18 +6133,29 @@
         <v>25907.7097</v>
       </c>
       <c r="G148" t="n">
+        <v>39.87400000000002</v>
+      </c>
+      <c r="H148" t="n">
         <v>39.98550000000004</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>39.84</v>
+      </c>
+      <c r="L148" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5629,18 +6179,29 @@
         <v>60415.2003</v>
       </c>
       <c r="G149" t="n">
+        <v>39.88133333333336</v>
+      </c>
+      <c r="H149" t="n">
         <v>39.97766666666671</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>39.61</v>
+      </c>
+      <c r="L149" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5664,18 +6225,29 @@
         <v>97079.9908</v>
       </c>
       <c r="G150" t="n">
+        <v>39.88133333333337</v>
+      </c>
+      <c r="H150" t="n">
         <v>39.96966666666671</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="L150" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5699,18 +6271,29 @@
         <v>1748.79470165</v>
       </c>
       <c r="G151" t="n">
+        <v>39.89200000000004</v>
+      </c>
+      <c r="H151" t="n">
         <v>39.96433333333337</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>39.81</v>
+      </c>
+      <c r="L151" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5734,18 +6317,29 @@
         <v>14742.7559</v>
       </c>
       <c r="G152" t="n">
+        <v>39.88666666666671</v>
+      </c>
+      <c r="H152" t="n">
         <v>39.95500000000004</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>39.97</v>
+      </c>
+      <c r="L152" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5769,18 +6363,29 @@
         <v>419.2458</v>
       </c>
       <c r="G153" t="n">
+        <v>39.88133333333337</v>
+      </c>
+      <c r="H153" t="n">
         <v>39.94750000000004</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="L153" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5804,18 +6409,29 @@
         <v>43.3787</v>
       </c>
       <c r="G154" t="n">
+        <v>39.89000000000004</v>
+      </c>
+      <c r="H154" t="n">
         <v>39.94350000000005</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="L154" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5839,18 +6455,29 @@
         <v>4477.509</v>
       </c>
       <c r="G155" t="n">
+        <v>39.8786666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>39.93600000000005</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>40.11</v>
+      </c>
+      <c r="L155" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5874,18 +6501,29 @@
         <v>4272.5454</v>
       </c>
       <c r="G156" t="n">
+        <v>39.86533333333337</v>
+      </c>
+      <c r="H156" t="n">
         <v>39.92800000000005</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="L156" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5909,18 +6547,29 @@
         <v>19800</v>
       </c>
       <c r="G157" t="n">
+        <v>39.84533333333336</v>
+      </c>
+      <c r="H157" t="n">
         <v>39.91500000000005</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="L157" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5944,18 +6593,29 @@
         <v>69808.8995</v>
       </c>
       <c r="G158" t="n">
+        <v>39.84333333333337</v>
+      </c>
+      <c r="H158" t="n">
         <v>39.90816666666671</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="L158" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5979,18 +6639,29 @@
         <v>13319.5162</v>
       </c>
       <c r="G159" t="n">
+        <v>39.8706666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>39.90400000000004</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>39.97</v>
+      </c>
+      <c r="L159" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6014,18 +6685,29 @@
         <v>12415.6213</v>
       </c>
       <c r="G160" t="n">
+        <v>39.88200000000003</v>
+      </c>
+      <c r="H160" t="n">
         <v>39.89950000000004</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>40.01</v>
+      </c>
+      <c r="L160" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6049,18 +6731,27 @@
         <v>899.9</v>
       </c>
       <c r="G161" t="n">
+        <v>39.89533333333336</v>
+      </c>
+      <c r="H161" t="n">
         <v>39.89866666666671</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6084,18 +6775,27 @@
         <v>24.9315</v>
       </c>
       <c r="G162" t="n">
+        <v>39.91333333333336</v>
+      </c>
+      <c r="H162" t="n">
         <v>39.89400000000005</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6119,18 +6819,29 @@
         <v>20043.749</v>
       </c>
       <c r="G163" t="n">
+        <v>39.94733333333336</v>
+      </c>
+      <c r="H163" t="n">
         <v>39.88950000000005</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>40.11</v>
+      </c>
+      <c r="L163" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6154,18 +6865,29 @@
         <v>7066.4887</v>
       </c>
       <c r="G164" t="n">
+        <v>39.96666666666669</v>
+      </c>
+      <c r="H164" t="n">
         <v>39.88483333333339</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>40.12</v>
+      </c>
+      <c r="L164" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6189,18 +6911,29 @@
         <v>1069.9294</v>
       </c>
       <c r="G165" t="n">
+        <v>39.98533333333337</v>
+      </c>
+      <c r="H165" t="n">
         <v>39.88366666666673</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>40.11</v>
+      </c>
+      <c r="L165" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6224,18 +6957,29 @@
         <v>56066.7276</v>
       </c>
       <c r="G166" t="n">
+        <v>39.99933333333335</v>
+      </c>
+      <c r="H166" t="n">
         <v>39.88466666666672</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>40.09</v>
+      </c>
+      <c r="L166" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6259,18 +7003,29 @@
         <v>119.788</v>
       </c>
       <c r="G167" t="n">
+        <v>40.03000000000002</v>
+      </c>
+      <c r="H167" t="n">
         <v>39.88800000000006</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>40.18</v>
+      </c>
+      <c r="L167" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6294,18 +7049,29 @@
         <v>14745.4759</v>
       </c>
       <c r="G168" t="n">
+        <v>40.05000000000003</v>
+      </c>
+      <c r="H168" t="n">
         <v>39.89116666666673</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>40.19</v>
+      </c>
+      <c r="L168" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6329,18 +7095,27 @@
         <v>867.91044776</v>
       </c>
       <c r="G169" t="n">
+        <v>40.05600000000003</v>
+      </c>
+      <c r="H169" t="n">
         <v>39.89666666666673</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,18 +7139,27 @@
         <v>48516.3764</v>
       </c>
       <c r="G170" t="n">
+        <v>40.07600000000003</v>
+      </c>
+      <c r="H170" t="n">
         <v>39.90100000000005</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6399,18 +7183,29 @@
         <v>3388.0694</v>
       </c>
       <c r="G171" t="n">
+        <v>40.09600000000003</v>
+      </c>
+      <c r="H171" t="n">
         <v>39.90416666666671</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="L171" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6434,18 +7229,29 @@
         <v>30922.1395</v>
       </c>
       <c r="G172" t="n">
+        <v>40.13600000000004</v>
+      </c>
+      <c r="H172" t="n">
         <v>39.90866666666671</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="L172" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6469,18 +7275,29 @@
         <v>1560.02835224</v>
       </c>
       <c r="G173" t="n">
+        <v>40.15133333333337</v>
+      </c>
+      <c r="H173" t="n">
         <v>39.91316666666671</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="L173" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6504,18 +7321,29 @@
         <v>25</v>
       </c>
       <c r="G174" t="n">
+        <v>40.16400000000004</v>
+      </c>
+      <c r="H174" t="n">
         <v>39.91950000000004</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="L174" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6539,18 +7367,29 @@
         <v>22.4905</v>
       </c>
       <c r="G175" t="n">
+        <v>40.19200000000004</v>
+      </c>
+      <c r="H175" t="n">
         <v>39.93116666666671</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="L175" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6574,18 +7413,27 @@
         <v>2388.1892</v>
       </c>
       <c r="G176" t="n">
+        <v>40.21933333333337</v>
+      </c>
+      <c r="H176" t="n">
         <v>39.94100000000005</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6609,18 +7457,27 @@
         <v>31558.1731</v>
       </c>
       <c r="G177" t="n">
+        <v>40.25933333333337</v>
+      </c>
+      <c r="H177" t="n">
         <v>39.95333333333338</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6644,18 +7501,27 @@
         <v>20654.1074</v>
       </c>
       <c r="G178" t="n">
+        <v>40.3046666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>39.96750000000006</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6679,18 +7545,27 @@
         <v>357615.6784</v>
       </c>
       <c r="G179" t="n">
+        <v>40.34400000000004</v>
+      </c>
+      <c r="H179" t="n">
         <v>39.98200000000006</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6714,18 +7589,27 @@
         <v>30887.7697</v>
       </c>
       <c r="G180" t="n">
+        <v>40.3846666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>39.99750000000005</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6749,18 +7633,27 @@
         <v>28091.326</v>
       </c>
       <c r="G181" t="n">
+        <v>40.41933333333338</v>
+      </c>
+      <c r="H181" t="n">
         <v>40.01400000000005</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6784,18 +7677,27 @@
         <v>25624.6913</v>
       </c>
       <c r="G182" t="n">
+        <v>40.44666666666672</v>
+      </c>
+      <c r="H182" t="n">
         <v>40.02900000000005</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6819,18 +7721,27 @@
         <v>28.4162</v>
       </c>
       <c r="G183" t="n">
+        <v>40.46466666666672</v>
+      </c>
+      <c r="H183" t="n">
         <v>40.04183333333338</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6854,18 +7765,27 @@
         <v>3702.1163</v>
       </c>
       <c r="G184" t="n">
+        <v>40.51000000000004</v>
+      </c>
+      <c r="H184" t="n">
         <v>40.06016666666672</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6889,18 +7809,27 @@
         <v>29.3758</v>
       </c>
       <c r="G185" t="n">
+        <v>40.55333333333338</v>
+      </c>
+      <c r="H185" t="n">
         <v>40.07800000000005</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6924,18 +7853,27 @@
         <v>268.2846</v>
       </c>
       <c r="G186" t="n">
+        <v>40.59800000000004</v>
+      </c>
+      <c r="H186" t="n">
         <v>40.0961666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6959,18 +7897,27 @@
         <v>10269.4206</v>
       </c>
       <c r="G187" t="n">
+        <v>40.64266666666671</v>
+      </c>
+      <c r="H187" t="n">
         <v>40.1151666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6994,18 +7941,27 @@
         <v>2400.248</v>
       </c>
       <c r="G188" t="n">
+        <v>40.68800000000003</v>
+      </c>
+      <c r="H188" t="n">
         <v>40.13433333333337</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7029,18 +7985,27 @@
         <v>397.3986</v>
       </c>
       <c r="G189" t="n">
+        <v>40.72133333333337</v>
+      </c>
+      <c r="H189" t="n">
         <v>40.1491666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7064,18 +8029,27 @@
         <v>10269.4206</v>
       </c>
       <c r="G190" t="n">
+        <v>40.72200000000003</v>
+      </c>
+      <c r="H190" t="n">
         <v>40.16300000000003</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7099,18 +8073,27 @@
         <v>51469.1252</v>
       </c>
       <c r="G191" t="n">
+        <v>40.7166666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>40.17583333333337</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7134,18 +8117,27 @@
         <v>2391.7724</v>
       </c>
       <c r="G192" t="n">
+        <v>40.70733333333337</v>
+      </c>
+      <c r="H192" t="n">
         <v>40.19016666666671</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7169,18 +8161,27 @@
         <v>955.7816</v>
       </c>
       <c r="G193" t="n">
+        <v>40.70066666666671</v>
+      </c>
+      <c r="H193" t="n">
         <v>40.2066666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7204,18 +8205,27 @@
         <v>59495.9347</v>
       </c>
       <c r="G194" t="n">
+        <v>40.70066666666671</v>
+      </c>
+      <c r="H194" t="n">
         <v>40.22316666666669</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7239,18 +8249,27 @@
         <v>36325.7081</v>
       </c>
       <c r="G195" t="n">
+        <v>40.70066666666671</v>
+      </c>
+      <c r="H195" t="n">
         <v>40.23800000000003</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7274,18 +8293,27 @@
         <v>4254.275</v>
       </c>
       <c r="G196" t="n">
+        <v>40.70066666666671</v>
+      </c>
+      <c r="H196" t="n">
         <v>40.25283333333336</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7309,18 +8337,27 @@
         <v>107747.27197467</v>
       </c>
       <c r="G197" t="n">
+        <v>40.71800000000004</v>
+      </c>
+      <c r="H197" t="n">
         <v>40.27033333333336</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7344,18 +8381,27 @@
         <v>3603.6844542</v>
       </c>
       <c r="G198" t="n">
+        <v>40.74933333333336</v>
+      </c>
+      <c r="H198" t="n">
         <v>40.28633333333336</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7379,18 +8425,27 @@
         <v>3181.5218</v>
       </c>
       <c r="G199" t="n">
+        <v>40.74133333333337</v>
+      </c>
+      <c r="H199" t="n">
         <v>40.29933333333337</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7414,18 +8469,27 @@
         <v>367.1518</v>
       </c>
       <c r="G200" t="n">
+        <v>40.73533333333337</v>
+      </c>
+      <c r="H200" t="n">
         <v>40.31083333333336</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7449,18 +8513,27 @@
         <v>228.1112</v>
       </c>
       <c r="G201" t="n">
+        <v>40.74400000000003</v>
+      </c>
+      <c r="H201" t="n">
         <v>40.32583333333336</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7484,18 +8557,27 @@
         <v>2205.0717</v>
       </c>
       <c r="G202" t="n">
+        <v>40.7446666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>40.3421666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7519,18 +8601,27 @@
         <v>24400.8374</v>
       </c>
       <c r="G203" t="n">
+        <v>40.7446666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>40.35683333333337</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7554,18 +8645,27 @@
         <v>75390.03690000001</v>
       </c>
       <c r="G204" t="n">
+        <v>40.75666666666669</v>
+      </c>
+      <c r="H204" t="n">
         <v>40.37816666666671</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7589,18 +8689,27 @@
         <v>8087.0391</v>
       </c>
       <c r="G205" t="n">
+        <v>40.77933333333336</v>
+      </c>
+      <c r="H205" t="n">
         <v>40.39383333333338</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7624,18 +8733,27 @@
         <v>16000</v>
       </c>
       <c r="G206" t="n">
+        <v>40.80133333333336</v>
+      </c>
+      <c r="H206" t="n">
         <v>40.40816666666671</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7659,18 +8777,27 @@
         <v>19991.1562</v>
       </c>
       <c r="G207" t="n">
+        <v>40.81733333333336</v>
+      </c>
+      <c r="H207" t="n">
         <v>40.42433333333337</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7694,18 +8821,27 @@
         <v>21150.44</v>
       </c>
       <c r="G208" t="n">
+        <v>40.82466666666669</v>
+      </c>
+      <c r="H208" t="n">
         <v>40.44433333333337</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7729,18 +8865,27 @@
         <v>7591.6038</v>
       </c>
       <c r="G209" t="n">
+        <v>40.83133333333335</v>
+      </c>
+      <c r="H209" t="n">
         <v>40.4606666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7764,18 +8909,27 @@
         <v>5403.968</v>
       </c>
       <c r="G210" t="n">
+        <v>40.83800000000001</v>
+      </c>
+      <c r="H210" t="n">
         <v>40.4771666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7799,18 +8953,27 @@
         <v>33549.5999</v>
       </c>
       <c r="G211" t="n">
+        <v>40.83800000000001</v>
+      </c>
+      <c r="H211" t="n">
         <v>40.48933333333337</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="L211" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7834,18 +8997,27 @@
         <v>12315.32</v>
       </c>
       <c r="G212" t="n">
+        <v>40.83400000000001</v>
+      </c>
+      <c r="H212" t="n">
         <v>40.50716666666671</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7869,18 +9041,27 @@
         <v>61.9711</v>
       </c>
       <c r="G213" t="n">
+        <v>40.82466666666667</v>
+      </c>
+      <c r="H213" t="n">
         <v>40.52216666666671</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="L213" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7904,18 +9085,27 @@
         <v>159.7788</v>
       </c>
       <c r="G214" t="n">
+        <v>40.84066666666668</v>
+      </c>
+      <c r="H214" t="n">
         <v>40.53700000000004</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="L214" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7939,18 +9129,27 @@
         <v>5582.1573</v>
       </c>
       <c r="G215" t="n">
+        <v>40.87133333333335</v>
+      </c>
+      <c r="H215" t="n">
         <v>40.55900000000004</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="L215" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7974,18 +9173,27 @@
         <v>2195.3897</v>
       </c>
       <c r="G216" t="n">
+        <v>40.88466666666668</v>
+      </c>
+      <c r="H216" t="n">
         <v>40.5806666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8009,18 +9217,27 @@
         <v>9976.3156</v>
       </c>
       <c r="G217" t="n">
+        <v>40.90933333333335</v>
+      </c>
+      <c r="H217" t="n">
         <v>40.6081666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="L217" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8044,18 +9261,27 @@
         <v>23841.2519</v>
       </c>
       <c r="G218" t="n">
+        <v>40.93733333333334</v>
+      </c>
+      <c r="H218" t="n">
         <v>40.63033333333338</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8079,18 +9305,27 @@
         <v>96722.09329999999</v>
       </c>
       <c r="G219" t="n">
+        <v>40.96533333333334</v>
+      </c>
+      <c r="H219" t="n">
         <v>40.65183333333337</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8114,18 +9349,467 @@
         <v>10105.8785</v>
       </c>
       <c r="G220" t="n">
+        <v>40.97933333333334</v>
+      </c>
+      <c r="H220" t="n">
         <v>40.66816666666671</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="L220" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C221" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E221" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>26.751</v>
+      </c>
+      <c r="G221" t="n">
+        <v>41.00533333333335</v>
+      </c>
+      <c r="H221" t="n">
+        <v>40.68566666666671</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C222" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F222" t="n">
+        <v>5509.7</v>
+      </c>
+      <c r="G222" t="n">
+        <v>41.03133333333335</v>
+      </c>
+      <c r="H222" t="n">
+        <v>40.70383333333336</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C223" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D223" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E223" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F223" t="n">
+        <v>86.12</v>
+      </c>
+      <c r="G223" t="n">
+        <v>41.05733333333335</v>
+      </c>
+      <c r="H223" t="n">
+        <v>40.72183333333336</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="C224" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="D224" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="E224" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="F224" t="n">
+        <v>20633.2942</v>
+      </c>
+      <c r="G224" t="n">
+        <v>41.08333333333336</v>
+      </c>
+      <c r="H224" t="n">
+        <v>40.73983333333336</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>41.29</v>
+      </c>
+      <c r="C225" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="D225" t="n">
+        <v>41.29</v>
+      </c>
+      <c r="E225" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2195.3897</v>
+      </c>
+      <c r="G225" t="n">
+        <v>41.11533333333337</v>
+      </c>
+      <c r="H225" t="n">
+        <v>40.7596666666667</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>41.35</v>
+      </c>
+      <c r="C226" t="n">
+        <v>41.35</v>
+      </c>
+      <c r="D226" t="n">
+        <v>41.35</v>
+      </c>
+      <c r="E226" t="n">
+        <v>41.35</v>
+      </c>
+      <c r="F226" t="n">
+        <v>68.1818</v>
+      </c>
+      <c r="G226" t="n">
+        <v>41.1586666666667</v>
+      </c>
+      <c r="H226" t="n">
+        <v>40.7791666666667</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C227" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="D227" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E227" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3998.9556</v>
+      </c>
+      <c r="G227" t="n">
+        <v>41.19200000000003</v>
+      </c>
+      <c r="H227" t="n">
+        <v>40.7976666666667</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C228" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="D228" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E228" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="F228" t="n">
+        <v>104</v>
+      </c>
+      <c r="G228" t="n">
+        <v>41.22533333333336</v>
+      </c>
+      <c r="H228" t="n">
+        <v>40.81600000000004</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="C229" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="D229" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="E229" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="F229" t="n">
+        <v>22.716</v>
+      </c>
+      <c r="G229" t="n">
+        <v>41.24400000000003</v>
+      </c>
+      <c r="H229" t="n">
+        <v>40.83400000000005</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="C230" t="n">
+        <v>41.16</v>
+      </c>
+      <c r="D230" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="E230" t="n">
+        <v>41.16</v>
+      </c>
+      <c r="F230" t="n">
+        <v>32328.9144</v>
+      </c>
+      <c r="G230" t="n">
+        <v>41.24000000000002</v>
+      </c>
+      <c r="H230" t="n">
+        <v>40.85000000000004</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-11 BackTest ADA.xlsx
+++ b/BackTest/2020-01-11 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N288"/>
+  <dimension ref="A1:M288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>174319.52655708</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>175116.76565708</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>159116.76565708</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>160369.72934158</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>114890.02304158</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>114890.02304158</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>114890.02304158</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>114890.02304158</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>118183.88164158</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>103220.25744158</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>103220.25744158</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>189063.88300281</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>230686.90560281</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6504,22 +5995,15 @@
         <v>-378714.7260971898</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>40.01</v>
-      </c>
-      <c r="K170" t="n">
-        <v>40.01</v>
-      </c>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6544,26 +6028,15 @@
         <v>-378714.7260971898</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>39.93</v>
-      </c>
-      <c r="K171" t="n">
-        <v>40.01</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6588,26 +6061,15 @@
         <v>-379679.3125971898</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>39.93</v>
-      </c>
-      <c r="K172" t="n">
-        <v>40.01</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6632,22 +6094,15 @@
         <v>-364052.5375971898</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>39.82</v>
-      </c>
-      <c r="K173" t="n">
-        <v>39.82</v>
-      </c>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6674,22 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>39.82</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6716,22 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>39.82</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6758,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6794,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6830,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6866,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6902,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6936,22 +6358,15 @@
         <v>-335910.0966971897</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="K181" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6978,22 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7020,22 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7062,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7098,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7134,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7168,22 +6556,19 @@
         <v>-322203.5845971897</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>39.73</v>
       </c>
       <c r="J187" t="n">
         <v>39.73</v>
       </c>
-      <c r="K187" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7208,26 +6593,21 @@
         <v>-325107.5692971897</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>39.81</v>
-      </c>
-      <c r="K188" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L188" t="inlineStr">
+        <v>39.73</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7252,26 +6632,21 @@
         <v>-325107.5692971897</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>39.71</v>
-      </c>
-      <c r="K189" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L189" t="inlineStr">
+        <v>39.73</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7296,26 +6671,21 @@
         <v>-325107.5692971897</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>39.71</v>
-      </c>
-      <c r="K190" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L190" t="inlineStr">
+        <v>39.73</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7340,26 +6710,23 @@
         <v>-325107.5692971897</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>39.71</v>
       </c>
       <c r="J191" t="n">
-        <v>39.71</v>
-      </c>
-      <c r="K191" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L191" t="inlineStr">
+        <v>39.73</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7384,26 +6751,23 @@
         <v>-325107.5692971897</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>39.71</v>
       </c>
       <c r="J192" t="n">
-        <v>39.71</v>
-      </c>
-      <c r="K192" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L192" t="inlineStr">
+        <v>39.73</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7428,26 +6792,23 @@
         <v>-323562.2985971897</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>39.71</v>
       </c>
       <c r="J193" t="n">
-        <v>39.71</v>
-      </c>
-      <c r="K193" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L193" t="inlineStr">
+        <v>39.73</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7472,26 +6833,23 @@
         <v>-323562.2985971897</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>39.81</v>
       </c>
       <c r="J194" t="n">
-        <v>39.81</v>
-      </c>
-      <c r="K194" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L194" t="inlineStr">
+        <v>39.73</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7516,26 +6874,23 @@
         <v>-323562.2985971897</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>39.81</v>
       </c>
       <c r="J195" t="n">
-        <v>39.81</v>
-      </c>
-      <c r="K195" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L195" t="inlineStr">
+        <v>39.73</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7560,26 +6915,23 @@
         <v>-316143.1185971897</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>39.81</v>
       </c>
       <c r="J196" t="n">
-        <v>39.81</v>
-      </c>
-      <c r="K196" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L196" t="inlineStr">
+        <v>39.73</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7604,26 +6956,23 @@
         <v>-316143.1185971897</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>39.98</v>
       </c>
       <c r="J197" t="n">
-        <v>39.98</v>
-      </c>
-      <c r="K197" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L197" t="inlineStr">
+        <v>39.73</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7650,22 +6999,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7692,22 +7038,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7734,22 +7077,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7776,22 +7116,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7818,22 +7155,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7860,22 +7194,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7902,22 +7233,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7944,22 +7272,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7986,22 +7311,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L206" t="inlineStr">
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8028,22 +7350,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L207" t="inlineStr">
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8070,22 +7389,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8112,22 +7428,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L209" t="inlineStr">
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8154,22 +7467,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8196,22 +7506,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8238,22 +7545,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8280,22 +7584,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8322,22 +7623,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8364,22 +7662,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8406,22 +7701,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8446,26 +7738,21 @@
         <v>-324384.0190029798</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>39.97</v>
-      </c>
-      <c r="K217" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L217" t="inlineStr">
+        <v>39.73</v>
+      </c>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8490,26 +7777,21 @@
         <v>-311968.3977029798</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>40.01</v>
-      </c>
-      <c r="K218" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L218" t="inlineStr">
+        <v>39.73</v>
+      </c>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8536,22 +7818,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L219" t="inlineStr">
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8576,26 +7855,21 @@
         <v>-311093.4292029798</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>40.15</v>
-      </c>
-      <c r="K220" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L220" t="inlineStr">
+        <v>39.73</v>
+      </c>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8620,26 +7894,21 @@
         <v>-291049.6802029798</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>40.11</v>
-      </c>
-      <c r="K221" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L221" t="inlineStr">
+        <v>39.73</v>
+      </c>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8666,22 +7935,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L222" t="inlineStr">
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8706,26 +7972,21 @@
         <v>-299186.0983029798</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>40.11</v>
-      </c>
-      <c r="K223" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L223" t="inlineStr">
+        <v>39.73</v>
+      </c>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8752,22 +8013,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L224" t="inlineStr">
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8794,22 +8052,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8836,22 +8091,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L226" t="inlineStr">
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8878,22 +8130,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8920,22 +8169,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8962,22 +8208,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9004,22 +8247,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9046,22 +8286,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9088,22 +8325,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9130,22 +8364,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9172,22 +8403,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9214,22 +8442,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9256,22 +8481,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L236" t="inlineStr">
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9298,22 +8520,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9340,22 +8559,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L238" t="inlineStr">
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9382,22 +8598,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L239" t="inlineStr">
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9424,22 +8637,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9466,22 +8676,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9508,22 +8715,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L242" t="inlineStr">
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9550,22 +8754,19 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L243" t="inlineStr">
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9592,22 +8793,19 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L244" t="inlineStr">
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9634,22 +8832,19 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L245" t="inlineStr">
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9676,22 +8871,19 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L246" t="inlineStr">
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9718,22 +8910,19 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L247" t="inlineStr">
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9760,22 +8949,19 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L248" t="inlineStr">
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9802,22 +8988,19 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L249" t="inlineStr">
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9844,22 +9027,19 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L250" t="inlineStr">
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9886,22 +9066,19 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L251" t="inlineStr">
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9928,22 +9105,19 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L252" t="inlineStr">
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9970,22 +9144,19 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L253" t="inlineStr">
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10012,22 +9183,19 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L254" t="inlineStr">
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10054,22 +9222,19 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L255" t="inlineStr">
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10096,22 +9261,19 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L256" t="inlineStr">
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10138,22 +9300,19 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L257" t="inlineStr">
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10180,22 +9339,19 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L258" t="inlineStr">
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10222,22 +9378,19 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L259" t="inlineStr">
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10264,22 +9417,19 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L260" t="inlineStr">
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10306,22 +9456,19 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10348,22 +9495,19 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10390,22 +9534,19 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10432,22 +9573,19 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10474,22 +9612,19 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10516,22 +9651,19 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L266" t="inlineStr">
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10558,22 +9690,19 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L267" t="inlineStr">
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10600,22 +9729,19 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L268" t="inlineStr">
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10642,22 +9768,19 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L269" t="inlineStr">
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10684,22 +9807,19 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L270" t="inlineStr">
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10726,22 +9846,19 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L271" t="inlineStr">
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10768,22 +9885,19 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L272" t="inlineStr">
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10810,22 +9924,19 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L273" t="inlineStr">
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10852,22 +9963,19 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L274" t="inlineStr">
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10894,22 +10002,19 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L275" t="inlineStr">
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10936,22 +10041,19 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L276" t="inlineStr">
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10978,22 +10080,19 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L277" t="inlineStr">
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11020,22 +10119,19 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L278" t="inlineStr">
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11062,22 +10158,19 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L279" t="inlineStr">
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11104,22 +10197,19 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L280" t="inlineStr">
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11146,22 +10236,19 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L281" t="inlineStr">
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11188,22 +10275,19 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L282" t="inlineStr">
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11230,22 +10314,19 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L283" t="inlineStr">
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11272,22 +10353,19 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L284" t="inlineStr">
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11314,22 +10392,19 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L285" t="inlineStr">
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11356,22 +10431,19 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L286" t="inlineStr">
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11398,22 +10470,19 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L287" t="inlineStr">
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11440,24 +10509,21 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="L288" t="inlineStr">
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest ADA.xlsx
+++ b/BackTest/2020-01-11 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,7 +1276,7 @@
         <v>164288.47435708</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>174319.52655708</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>175116.76565708</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>159116.76565708</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>160369.72934158</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>114909.45234158</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>111735.49774158</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>126513.42554158</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>126513.42554158</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>126513.42554158</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>118183.88164158</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>103220.25744158</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>103220.25744158</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>108862.61864158</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>108266.60524158</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>108266.60524158</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>108290.69934158</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>104710.53154158</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>96953.83144157998</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>96953.83144157998</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>97018.55730280999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>95902.57670280999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>105902.57670281</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>98125.57670280999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>97806.55730280999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>96934.62390281</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>8290.53800280999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>158321.13800281</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>158321.13800281</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>175471.13800281</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>130070.84810281</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>130706.70950281</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>131956.85940281</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>189063.88300281</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>189204.19590281</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>185239.45280281</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>230686.90560281</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -6523,10 +6523,14 @@
         <v>-323459.0160971897</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="J186" t="n">
+        <v>39.73</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
@@ -6556,7 +6560,7 @@
         <v>-322203.5845971897</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>39.73</v>
@@ -6564,7 +6568,11 @@
       <c r="J187" t="n">
         <v>39.73</v>
       </c>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,9 +6601,11 @@
         <v>-325107.5692971897</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>39.81</v>
+      </c>
       <c r="J188" t="n">
         <v>39.73</v>
       </c>
@@ -6632,9 +6642,11 @@
         <v>-325107.5692971897</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>39.71</v>
+      </c>
       <c r="J189" t="n">
         <v>39.73</v>
       </c>
@@ -6671,9 +6683,11 @@
         <v>-325107.5692971897</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>39.71</v>
+      </c>
       <c r="J190" t="n">
         <v>39.73</v>
       </c>
@@ -6710,7 +6724,7 @@
         <v>-325107.5692971897</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>39.71</v>
@@ -6751,7 +6765,7 @@
         <v>-325107.5692971897</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>39.71</v>
@@ -6792,7 +6806,7 @@
         <v>-323562.2985971897</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>39.71</v>
@@ -6833,7 +6847,7 @@
         <v>-323562.2985971897</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>39.81</v>
@@ -6874,7 +6888,7 @@
         <v>-323562.2985971897</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>39.81</v>
@@ -6915,7 +6929,7 @@
         <v>-316143.1185971897</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>39.81</v>
@@ -6956,7 +6970,7 @@
         <v>-316143.1185971897</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>39.98</v>
@@ -6997,9 +7011,11 @@
         <v>-311135.0348046297</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>39.98</v>
+      </c>
       <c r="J198" t="n">
         <v>39.73</v>
       </c>
@@ -7036,9 +7052,11 @@
         <v>-311117.6765046297</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>40.07</v>
+      </c>
       <c r="J199" t="n">
         <v>39.73</v>
       </c>
@@ -7348,9 +7366,11 @@
         <v>-273623.5982046297</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>39.61</v>
+      </c>
       <c r="J207" t="n">
         <v>39.73</v>
       </c>
@@ -7387,9 +7407,11 @@
         <v>-370703.5890046298</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>39.82</v>
+      </c>
       <c r="J208" t="n">
         <v>39.73</v>
       </c>
@@ -7465,9 +7487,11 @@
         <v>-383697.5502029798</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>39.97</v>
+      </c>
       <c r="J210" t="n">
         <v>39.73</v>
       </c>
@@ -10524,6 +10548,6 @@
       <c r="M288" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest ADA.xlsx
+++ b/BackTest/2020-01-11 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,7 +1276,7 @@
         <v>164288.47435708</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>114909.45234158</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>111735.49774158</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>126513.42554158</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>126513.42554158</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>126513.42554158</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>118183.88164158</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>103220.25744158</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>103220.25744158</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>108862.61864158</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>108266.60524158</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>108266.60524158</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>108290.69934158</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>104710.53154158</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>96953.83144157998</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>96953.83144157998</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>97018.55730280999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>95902.57670280999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>105902.57670281</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>98125.57670280999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>97806.55730280999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>96934.62390281</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>8290.53800280999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>158321.13800281</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>158321.13800281</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>175471.13800281</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>130070.84810281</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>130706.70950281</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>131956.85940281</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>189063.88300281</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>189204.19590281</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>185239.45280281</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -6970,11 +6970,9 @@
         <v>-316143.1185971897</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>39.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
         <v>39.73</v>
       </c>
@@ -7011,11 +7009,9 @@
         <v>-311135.0348046297</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>39.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
         <v>39.73</v>
       </c>
@@ -7052,11 +7048,9 @@
         <v>-311117.6765046297</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>40.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
         <v>39.73</v>
       </c>
@@ -7366,11 +7360,9 @@
         <v>-273623.5982046297</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>39.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
         <v>39.73</v>
       </c>
@@ -7407,11 +7399,9 @@
         <v>-370703.5890046298</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>39.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
         <v>39.73</v>
       </c>
@@ -7487,11 +7477,9 @@
         <v>-383697.5502029798</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>39.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
         <v>39.73</v>
       </c>
@@ -8503,7 +8491,7 @@
         <v>-173631.1466029798</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
@@ -8511,11 +8499,11 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L236" t="n">
-        <v>1</v>
+        <v>1.021931789579663</v>
       </c>
       <c r="M236" t="inlineStr"/>
     </row>
@@ -8542,17 +8530,11 @@
         <v>-531246.8250029797</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8581,17 +8563,11 @@
         <v>-531246.8250029797</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8620,17 +8596,11 @@
         <v>-531246.8250029797</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8659,17 +8629,11 @@
         <v>-556871.5163029797</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8698,17 +8662,11 @@
         <v>-556899.9325029796</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8740,14 +8698,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8776,17 +8728,11 @@
         <v>-553227.1920029797</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8815,17 +8761,11 @@
         <v>-552958.9074029797</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8854,17 +8794,11 @@
         <v>-552958.9074029797</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8896,14 +8830,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8932,17 +8860,11 @@
         <v>-550956.0580029796</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8971,17 +8893,11 @@
         <v>-561225.4786029796</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9010,17 +8926,11 @@
         <v>-612694.6038029796</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9052,14 +8962,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9091,14 +8995,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9130,14 +9028,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9169,14 +9061,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9208,14 +9094,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9247,14 +9127,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9286,14 +9160,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9325,14 +9193,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9361,17 +9223,11 @@
         <v>-501177.6151741096</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9400,17 +9256,11 @@
         <v>-500949.5039741096</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9442,14 +9292,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9481,14 +9325,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9520,14 +9358,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9559,14 +9391,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9598,14 +9424,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9637,14 +9457,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9676,14 +9490,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9712,17 +9520,11 @@
         <v>-526746.1794741096</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9751,17 +9553,11 @@
         <v>-526746.1794741096</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9790,17 +9586,11 @@
         <v>-560295.7793741096</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9829,17 +9619,11 @@
         <v>-547980.4593741096</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9868,17 +9652,11 @@
         <v>-547980.4593741096</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9910,14 +9688,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9949,14 +9721,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9988,14 +9754,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10027,14 +9787,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10066,14 +9820,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10105,14 +9853,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10144,14 +9886,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10183,14 +9919,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10222,14 +9952,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10261,14 +9985,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10300,14 +10018,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10339,14 +10051,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10378,14 +10084,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10417,14 +10117,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10456,14 +10150,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10495,14 +10183,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10534,20 +10216,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
       <c r="M288" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest ADA.xlsx
+++ b/BackTest/2020-01-11 BackTest ADA.xlsx
@@ -1408,7 +1408,7 @@
         <v>164528.65965708</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>164226.48255708</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>164132.02935708</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>149478.76255708</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>157006.16365708</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>165116.57945708</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>176563.21415708</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>176563.21415708</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>174319.52655708</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>174319.52655708</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>175116.76565708</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>159116.76565708</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>160369.72934158</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>114890.02304158</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>114909.45234158</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>111735.49774158</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>126513.42554158</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>126513.42554158</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>126513.42554158</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>117305.69614158</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>118183.88164158</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>103220.25744158</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>103220.25744158</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>108862.61864158</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>108266.60524158</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>108266.60524158</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>108290.69934158</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>104710.53154158</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>96953.83144157998</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>97018.55730280999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>95902.57670280999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>105902.57670281</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>98125.57670280999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -6523,14 +6523,10 @@
         <v>-323459.0160971897</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="J186" t="n">
-        <v>39.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
@@ -6568,11 +6564,7 @@
       <c r="J187" t="n">
         <v>39.73</v>
       </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6970,9 +6962,11 @@
         <v>-316143.1185971897</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>39.98</v>
+      </c>
       <c r="J197" t="n">
         <v>39.73</v>
       </c>
@@ -7009,9 +7003,11 @@
         <v>-311135.0348046297</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>39.98</v>
+      </c>
       <c r="J198" t="n">
         <v>39.73</v>
       </c>
@@ -7048,9 +7044,11 @@
         <v>-311117.6765046297</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>40.07</v>
+      </c>
       <c r="J199" t="n">
         <v>39.73</v>
       </c>
@@ -7204,9 +7202,11 @@
         <v>-304171.0888046297</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J203" t="n">
         <v>39.73</v>
       </c>
@@ -7360,9 +7360,11 @@
         <v>-273623.5982046297</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>39.61</v>
+      </c>
       <c r="J207" t="n">
         <v>39.73</v>
       </c>
@@ -7477,9 +7479,11 @@
         <v>-383697.5502029798</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>39.97</v>
+      </c>
       <c r="J210" t="n">
         <v>39.73</v>
       </c>
@@ -7516,9 +7520,11 @@
         <v>-383278.3044029798</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>39.73</v>
+      </c>
       <c r="J211" t="n">
         <v>39.73</v>
       </c>
@@ -7672,9 +7678,11 @@
         <v>-407512.4347029798</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>39.9</v>
+      </c>
       <c r="J215" t="n">
         <v>39.73</v>
       </c>
@@ -7711,9 +7719,11 @@
         <v>-337703.5352029798</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J216" t="n">
         <v>39.73</v>
       </c>
@@ -7750,9 +7760,11 @@
         <v>-324384.0190029798</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>39.97</v>
+      </c>
       <c r="J217" t="n">
         <v>39.73</v>
       </c>
@@ -7789,9 +7801,11 @@
         <v>-311968.3977029798</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>40.01</v>
+      </c>
       <c r="J218" t="n">
         <v>39.73</v>
       </c>
@@ -7828,9 +7842,11 @@
         <v>-311068.4977029798</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>40.11</v>
+      </c>
       <c r="J219" t="n">
         <v>39.73</v>
       </c>
@@ -7867,9 +7883,11 @@
         <v>-311093.4292029798</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>40.15</v>
+      </c>
       <c r="J220" t="n">
         <v>39.73</v>
       </c>
@@ -7906,9 +7924,11 @@
         <v>-291049.6802029798</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>40.11</v>
+      </c>
       <c r="J221" t="n">
         <v>39.73</v>
       </c>
@@ -7945,9 +7965,11 @@
         <v>-298116.1689029798</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>40.12</v>
+      </c>
       <c r="J222" t="n">
         <v>39.73</v>
       </c>
@@ -7984,9 +8006,11 @@
         <v>-299186.0983029798</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>40.11</v>
+      </c>
       <c r="J223" t="n">
         <v>39.73</v>
       </c>
@@ -8023,9 +8047,11 @@
         <v>-243119.3707029798</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>40.09</v>
+      </c>
       <c r="J224" t="n">
         <v>39.73</v>
       </c>
@@ -8062,9 +8088,11 @@
         <v>-242999.5827029798</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>40.18</v>
+      </c>
       <c r="J225" t="n">
         <v>39.73</v>
       </c>
@@ -8296,9 +8324,11 @@
         <v>-228254.1068029798</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>40.2</v>
+      </c>
       <c r="J231" t="n">
         <v>39.73</v>
       </c>
@@ -8374,9 +8404,11 @@
         <v>-228231.6163029798</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>40.2</v>
+      </c>
       <c r="J233" t="n">
         <v>39.73</v>
       </c>
@@ -8491,7 +8523,7 @@
         <v>-173631.1466029798</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
@@ -8499,11 +8531,11 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L236" t="n">
-        <v>1.021931789579663</v>
+        <v>1</v>
       </c>
       <c r="M236" t="inlineStr"/>
     </row>
@@ -8530,11 +8562,17 @@
         <v>-531246.8250029797</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8563,11 +8601,17 @@
         <v>-531246.8250029797</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8596,11 +8640,17 @@
         <v>-531246.8250029797</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8629,11 +8679,17 @@
         <v>-556871.5163029797</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8662,11 +8718,17 @@
         <v>-556899.9325029796</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8698,8 +8760,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8728,11 +8796,17 @@
         <v>-553227.1920029797</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8761,11 +8835,17 @@
         <v>-552958.9074029797</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8794,11 +8874,17 @@
         <v>-552958.9074029797</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8830,8 +8916,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8860,11 +8952,17 @@
         <v>-550956.0580029796</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8893,11 +8991,17 @@
         <v>-561225.4786029796</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8926,11 +9030,17 @@
         <v>-612694.6038029796</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8962,8 +9072,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8995,8 +9111,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9028,8 +9150,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9061,8 +9189,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9094,8 +9228,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9127,8 +9267,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9160,8 +9306,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9193,8 +9345,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9223,11 +9381,17 @@
         <v>-501177.6151741096</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9256,11 +9420,17 @@
         <v>-500949.5039741096</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9292,8 +9462,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9325,8 +9501,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9358,8 +9540,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9391,8 +9579,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9424,8 +9618,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9457,8 +9657,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9490,8 +9696,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9520,11 +9732,17 @@
         <v>-526746.1794741096</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9553,11 +9771,17 @@
         <v>-526746.1794741096</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9586,11 +9810,17 @@
         <v>-560295.7793741096</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9619,11 +9849,17 @@
         <v>-547980.4593741096</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9652,11 +9888,17 @@
         <v>-547980.4593741096</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9688,8 +9930,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9721,8 +9969,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9754,8 +10008,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9787,8 +10047,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9820,8 +10086,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9853,8 +10125,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9886,8 +10164,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9919,8 +10203,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9952,8 +10242,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9985,8 +10281,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10018,8 +10320,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10051,8 +10359,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10084,8 +10398,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10117,8 +10437,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10150,8 +10476,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10183,8 +10515,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10216,8 +10554,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-11 BackTest ADA.xlsx
+++ b/BackTest/2020-01-11 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M288"/>
+  <dimension ref="A1:L288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>7786.1067</v>
       </c>
       <c r="G2" t="n">
-        <v>187952.40251512</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>5544.0267</v>
       </c>
       <c r="G3" t="n">
-        <v>187952.40251512</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>383.2</v>
       </c>
       <c r="G4" t="n">
-        <v>188335.60251512</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1417.1723</v>
       </c>
       <c r="G5" t="n">
-        <v>186918.43021512</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>15866.1987</v>
       </c>
       <c r="G6" t="n">
-        <v>171052.23151512</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>826.8392</v>
       </c>
       <c r="G7" t="n">
-        <v>171879.07071512</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>4562.946</v>
       </c>
       <c r="G8" t="n">
-        <v>167316.12471512</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>143.4831</v>
       </c>
       <c r="G9" t="n">
-        <v>167459.60781512</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>838.133</v>
       </c>
       <c r="G10" t="n">
-        <v>168297.74081512</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>28.1738</v>
       </c>
       <c r="G11" t="n">
-        <v>168325.91461512</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>860</v>
       </c>
       <c r="G12" t="n">
-        <v>167465.91461512</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>14.0835</v>
       </c>
       <c r="G13" t="n">
-        <v>167479.99811512</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>14.1214</v>
       </c>
       <c r="G14" t="n">
-        <v>167494.11951512</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>355.0262</v>
       </c>
       <c r="G15" t="n">
-        <v>167139.09331512</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>809.6404</v>
       </c>
       <c r="G16" t="n">
-        <v>167948.73371512</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>23000</v>
       </c>
       <c r="G17" t="n">
-        <v>167948.73371512</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>14763.6093</v>
       </c>
       <c r="G18" t="n">
-        <v>153185.12441512</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>4805.04</v>
       </c>
       <c r="G19" t="n">
-        <v>153185.12441512</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>99.4408</v>
       </c>
       <c r="G20" t="n">
-        <v>153284.56521512</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>431.3507</v>
       </c>
       <c r="G21" t="n">
-        <v>152853.21451512</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>12111.51044196</v>
       </c>
       <c r="G22" t="n">
-        <v>164964.72495708</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>777.5948</v>
       </c>
       <c r="G23" t="n">
-        <v>164187.13015708</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>13748.0419</v>
       </c>
       <c r="G24" t="n">
-        <v>164187.13015708</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>6509.5648</v>
       </c>
       <c r="G25" t="n">
-        <v>164187.13015708</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>300</v>
       </c>
       <c r="G26" t="n">
-        <v>164487.13015708</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>198.6558</v>
       </c>
       <c r="G27" t="n">
-        <v>164288.47435708</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>212.1054</v>
       </c>
       <c r="G28" t="n">
-        <v>164500.57975708</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>12.2</v>
       </c>
       <c r="G29" t="n">
-        <v>164488.37975708</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>21.2143</v>
       </c>
       <c r="G30" t="n">
-        <v>164509.59405708</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>19.0656</v>
       </c>
       <c r="G31" t="n">
-        <v>164528.65965708</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>302.1771</v>
       </c>
       <c r="G32" t="n">
-        <v>164226.48255708</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>17.1512</v>
       </c>
       <c r="G33" t="n">
-        <v>164243.63375708</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>111.6044</v>
       </c>
       <c r="G34" t="n">
-        <v>164132.02935708</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>14653.2668</v>
       </c>
       <c r="G35" t="n">
-        <v>149478.76255708</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>5431.7457</v>
       </c>
       <c r="G36" t="n">
-        <v>154910.50825708</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1982.6518</v>
       </c>
       <c r="G37" t="n">
-        <v>156893.16005708</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>93.00360000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>156986.16365708</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>20</v>
       </c>
       <c r="G39" t="n">
-        <v>157006.16365708</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>8110.4158</v>
       </c>
       <c r="G40" t="n">
-        <v>165116.57945708</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>11446.6347</v>
       </c>
       <c r="G41" t="n">
-        <v>176563.21415708</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>66.4058</v>
       </c>
       <c r="G42" t="n">
-        <v>176563.21415708</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2243.6876</v>
       </c>
       <c r="G43" t="n">
-        <v>174319.52655708</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>48000</v>
       </c>
       <c r="G44" t="n">
-        <v>174319.52655708</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>797.2391</v>
       </c>
       <c r="G45" t="n">
-        <v>175116.76565708</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>16000</v>
       </c>
       <c r="G46" t="n">
-        <v>159116.76565708</v>
-      </c>
-      <c r="H46" t="n">
         <v>2</v>
       </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1252.9636845</v>
       </c>
       <c r="G47" t="n">
-        <v>160369.72934158</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>45479.7063</v>
       </c>
       <c r="G48" t="n">
-        <v>114890.02304158</v>
-      </c>
-      <c r="H48" t="n">
         <v>2</v>
       </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>29618.643</v>
       </c>
       <c r="G49" t="n">
-        <v>114890.02304158</v>
-      </c>
-      <c r="H49" t="n">
         <v>2</v>
       </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>24901.6506</v>
       </c>
       <c r="G50" t="n">
-        <v>114890.02304158</v>
-      </c>
-      <c r="H50" t="n">
         <v>2</v>
       </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>0.0001</v>
       </c>
       <c r="G51" t="n">
-        <v>114890.02304158</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>19.4293</v>
       </c>
       <c r="G52" t="n">
-        <v>114909.45234158</v>
-      </c>
-      <c r="H52" t="n">
         <v>2</v>
       </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>3173.9546</v>
       </c>
       <c r="G53" t="n">
-        <v>111735.49774158</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>14777.9278</v>
       </c>
       <c r="G54" t="n">
-        <v>126513.42554158</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>12.664</v>
       </c>
       <c r="G55" t="n">
-        <v>126513.42554158</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>96.00660000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>126513.42554158</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>9207.7294</v>
       </c>
       <c r="G57" t="n">
-        <v>117305.69614158</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>878.1855</v>
       </c>
       <c r="G58" t="n">
-        <v>118183.88164158</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>14963.6242</v>
       </c>
       <c r="G59" t="n">
-        <v>103220.25744158</v>
-      </c>
-      <c r="H59" t="n">
         <v>2</v>
       </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>36.3466</v>
       </c>
       <c r="G60" t="n">
-        <v>103220.25744158</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>5642.3612</v>
       </c>
       <c r="G61" t="n">
-        <v>108862.61864158</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>596.0134</v>
       </c>
       <c r="G62" t="n">
-        <v>108266.60524158</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>105.9598</v>
       </c>
       <c r="G63" t="n">
-        <v>108266.60524158</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>24.0941</v>
       </c>
       <c r="G64" t="n">
-        <v>108290.69934158</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>3580.1678</v>
       </c>
       <c r="G65" t="n">
-        <v>104710.53154158</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>7756.7001</v>
       </c>
       <c r="G66" t="n">
-        <v>96953.83144157998</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>27107.6646</v>
       </c>
       <c r="G67" t="n">
-        <v>96953.83144157998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>64.72586123000001</v>
       </c>
       <c r="G68" t="n">
-        <v>97018.55730280999</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1115.9806</v>
       </c>
       <c r="G69" t="n">
-        <v>95902.57670280999</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>10000</v>
       </c>
       <c r="G70" t="n">
-        <v>105902.57670281</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>7777</v>
       </c>
       <c r="G71" t="n">
-        <v>98125.57670280999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>1432.6948</v>
       </c>
       <c r="G72" t="n">
-        <v>98125.57670280999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>319.0194</v>
       </c>
       <c r="G73" t="n">
-        <v>97806.55730280999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>2122.868</v>
       </c>
       <c r="G74" t="n">
-        <v>99929.42530280999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>2900.5615</v>
       </c>
       <c r="G75" t="n">
-        <v>97028.86380281</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>1297.257</v>
       </c>
       <c r="G76" t="n">
-        <v>97028.86380281</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>20396.2349</v>
       </c>
       <c r="G77" t="n">
-        <v>97028.86380281</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>94.23990000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>96934.62390281</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>11355.9141</v>
       </c>
       <c r="G79" t="n">
-        <v>108290.53800281</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>100000</v>
       </c>
       <c r="G80" t="n">
-        <v>8290.53800280999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>150030.6</v>
       </c>
       <c r="G81" t="n">
-        <v>158321.13800281</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>43554.9118</v>
       </c>
       <c r="G82" t="n">
-        <v>158321.13800281</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>17150</v>
       </c>
       <c r="G83" t="n">
-        <v>175471.13800281</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>8000</v>
       </c>
       <c r="G84" t="n">
-        <v>167471.13800281</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>51899.6012</v>
       </c>
       <c r="G85" t="n">
-        <v>115571.53680281</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>20000</v>
       </c>
       <c r="G86" t="n">
-        <v>135571.53680281</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>5500.6887</v>
       </c>
       <c r="G87" t="n">
-        <v>130070.84810281</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>635.8614</v>
       </c>
       <c r="G88" t="n">
-        <v>130706.70950281</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>1250.1499</v>
       </c>
       <c r="G89" t="n">
-        <v>131956.85940281</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>57107.0236</v>
       </c>
       <c r="G90" t="n">
-        <v>189063.88300281</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>140.3129</v>
       </c>
       <c r="G91" t="n">
-        <v>189204.19590281</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>3964.7431</v>
       </c>
       <c r="G92" t="n">
-        <v>185239.45280281</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>45447.4528</v>
       </c>
       <c r="G93" t="n">
-        <v>230686.90560281</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>1856.6006</v>
       </c>
       <c r="G94" t="n">
-        <v>230686.90560281</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>1721.7932</v>
       </c>
       <c r="G95" t="n">
-        <v>228965.11240281</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>4236.6433</v>
       </c>
       <c r="G96" t="n">
-        <v>224728.46910281</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>746.5484</v>
       </c>
       <c r="G97" t="n">
-        <v>223981.92070281</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>872.236</v>
       </c>
       <c r="G98" t="n">
-        <v>223109.68470281</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>29113.823</v>
       </c>
       <c r="G99" t="n">
-        <v>193995.86170281</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>1202.4079</v>
       </c>
       <c r="G100" t="n">
-        <v>195198.26960281</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>4433.1719</v>
       </c>
       <c r="G101" t="n">
-        <v>190765.09770281</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>48250</v>
       </c>
       <c r="G102" t="n">
-        <v>239015.09770281</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>12200</v>
       </c>
       <c r="G103" t="n">
-        <v>226815.09770281</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>33175.7284</v>
       </c>
       <c r="G104" t="n">
-        <v>259990.82610281</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>6094.0341</v>
       </c>
       <c r="G105" t="n">
-        <v>253896.79200281</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>667.3747</v>
       </c>
       <c r="G106" t="n">
-        <v>253896.79200281</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>7777.6696</v>
       </c>
       <c r="G107" t="n">
-        <v>246119.12240281</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>30523.0306</v>
       </c>
       <c r="G108" t="n">
-        <v>276642.15300281</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>11728.8303</v>
       </c>
       <c r="G109" t="n">
-        <v>264913.3227028101</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>13</v>
       </c>
       <c r="G110" t="n">
-        <v>264913.3227028101</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>9918.454100000001</v>
       </c>
       <c r="G111" t="n">
-        <v>264913.3227028101</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>22186.988</v>
       </c>
       <c r="G112" t="n">
-        <v>264913.3227028101</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>17391.4421</v>
       </c>
       <c r="G113" t="n">
-        <v>264913.3227028101</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>5416.0402</v>
       </c>
       <c r="G114" t="n">
-        <v>259497.2825028101</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>3959.1399</v>
       </c>
       <c r="G115" t="n">
-        <v>263456.4224028101</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>8393.7178</v>
       </c>
       <c r="G116" t="n">
-        <v>255062.7046028101</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>29309.7146</v>
       </c>
       <c r="G117" t="n">
-        <v>225752.9900028101</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>13721.6684</v>
       </c>
       <c r="G118" t="n">
-        <v>212031.3216028101</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>4272.2031</v>
       </c>
       <c r="G119" t="n">
-        <v>216303.5247028101</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>349.9</v>
       </c>
       <c r="G120" t="n">
-        <v>216303.5247028101</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>58.5075</v>
       </c>
       <c r="G121" t="n">
-        <v>216303.5247028101</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>11.7508</v>
       </c>
       <c r="G122" t="n">
-        <v>216303.5247028101</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>16493.1</v>
       </c>
       <c r="G123" t="n">
-        <v>199810.4247028101</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>1273.3134</v>
       </c>
       <c r="G124" t="n">
-        <v>199810.4247028101</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>35607.5243</v>
       </c>
       <c r="G125" t="n">
-        <v>164202.9004028101</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>2659.6548</v>
       </c>
       <c r="G126" t="n">
-        <v>164202.9004028101</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>34082.5066</v>
       </c>
       <c r="G127" t="n">
-        <v>130120.3938028101</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>2008.8831</v>
       </c>
       <c r="G128" t="n">
-        <v>130120.3938028101</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>19370.9051</v>
       </c>
       <c r="G129" t="n">
-        <v>110749.4887028101</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>12702.7184</v>
       </c>
       <c r="G130" t="n">
-        <v>110749.4887028101</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>0.0001</v>
       </c>
       <c r="G131" t="n">
-        <v>110749.4887028101</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>500000</v>
       </c>
       <c r="G132" t="n">
-        <v>-389250.5112971899</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>69918.8585</v>
       </c>
       <c r="G133" t="n">
-        <v>-319331.6527971899</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>23131.0853</v>
       </c>
       <c r="G134" t="n">
-        <v>-296200.5674971899</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>265.879</v>
       </c>
       <c r="G135" t="n">
-        <v>-296466.4464971899</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>1143.5586</v>
       </c>
       <c r="G136" t="n">
-        <v>-296466.4464971899</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>1300</v>
       </c>
       <c r="G137" t="n">
-        <v>-296466.4464971899</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>16373.4772</v>
       </c>
       <c r="G138" t="n">
-        <v>-296466.4464971899</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>50000</v>
       </c>
       <c r="G139" t="n">
-        <v>-346466.4464971899</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>22379.6526</v>
       </c>
       <c r="G140" t="n">
-        <v>-324086.7938971899</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>4267.5326</v>
       </c>
       <c r="G141" t="n">
-        <v>-324086.7938971899</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>4099.2403</v>
       </c>
       <c r="G142" t="n">
-        <v>-328186.0341971899</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>6259.2086</v>
       </c>
       <c r="G143" t="n">
-        <v>-321926.8255971899</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>1624.3682</v>
       </c>
       <c r="G144" t="n">
-        <v>-321926.8255971899</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>531.91</v>
       </c>
       <c r="G145" t="n">
-        <v>-321926.8255971899</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>6341.871</v>
       </c>
       <c r="G146" t="n">
-        <v>-321926.8255971899</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>5618.9763</v>
       </c>
       <c r="G147" t="n">
-        <v>-321926.8255971899</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>255.9035</v>
       </c>
       <c r="G148" t="n">
-        <v>-321926.8255971899</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>805.2415</v>
       </c>
       <c r="G149" t="n">
-        <v>-321926.8255971899</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>28016.7057</v>
       </c>
       <c r="G150" t="n">
-        <v>-321926.8255971899</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>18682.2013</v>
       </c>
       <c r="G151" t="n">
-        <v>-303244.6242971899</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>5387.4441</v>
       </c>
       <c r="G152" t="n">
-        <v>-303244.6242971899</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>3232.5011</v>
       </c>
       <c r="G153" t="n">
-        <v>-303244.6242971899</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>17626.775</v>
       </c>
       <c r="G154" t="n">
-        <v>-285617.8492971899</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>20006.0018</v>
       </c>
       <c r="G155" t="n">
-        <v>-285617.8492971899</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>1200</v>
       </c>
       <c r="G156" t="n">
-        <v>-285617.8492971899</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>7149.2421</v>
       </c>
       <c r="G157" t="n">
-        <v>-292767.0913971898</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>50.8135</v>
       </c>
       <c r="G158" t="n">
-        <v>-292716.2778971898</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>3591</v>
       </c>
       <c r="G159" t="n">
-        <v>-296307.2778971898</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>37.5069</v>
       </c>
       <c r="G160" t="n">
-        <v>-296269.7709971899</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>55400</v>
       </c>
       <c r="G161" t="n">
-        <v>-296269.7709971899</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>1035.1868</v>
       </c>
       <c r="G162" t="n">
-        <v>-296269.7709971899</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>42550</v>
       </c>
       <c r="G163" t="n">
-        <v>-338819.7709971899</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>175.4835</v>
       </c>
       <c r="G164" t="n">
-        <v>-338995.2544971898</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>782.696</v>
       </c>
       <c r="G165" t="n">
-        <v>-339777.9504971898</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>893.7627</v>
       </c>
       <c r="G166" t="n">
-        <v>-338884.1877971898</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>27726.4276</v>
       </c>
       <c r="G167" t="n">
-        <v>-366610.6153971898</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>2190.5805</v>
       </c>
       <c r="G168" t="n">
-        <v>-364420.0348971898</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>730</v>
       </c>
       <c r="G169" t="n">
-        <v>-363690.0348971898</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>15024.6912</v>
       </c>
       <c r="G170" t="n">
-        <v>-378714.7260971898</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>5203.3087</v>
       </c>
       <c r="G171" t="n">
-        <v>-378714.7260971898</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>964.5865</v>
       </c>
       <c r="G172" t="n">
-        <v>-379679.3125971898</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>15626.775</v>
       </c>
       <c r="G173" t="n">
-        <v>-364052.5375971898</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>76791.92080000001</v>
       </c>
       <c r="G174" t="n">
-        <v>-287260.6167971898</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>1501.6343</v>
       </c>
       <c r="G175" t="n">
-        <v>-287260.6167971898</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>14592.6081</v>
       </c>
       <c r="G176" t="n">
-        <v>-301853.2248971898</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>1115.1195</v>
       </c>
       <c r="G177" t="n">
-        <v>-302968.3443971897</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>23988.0523</v>
       </c>
       <c r="G178" t="n">
-        <v>-326956.3966971897</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>5538.4</v>
       </c>
       <c r="G179" t="n">
-        <v>-332494.7966971897</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>3415.3</v>
       </c>
       <c r="G180" t="n">
-        <v>-335910.0966971897</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>296.5422</v>
       </c>
       <c r="G181" t="n">
-        <v>-335910.0966971897</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>50000</v>
       </c>
       <c r="G182" t="n">
-        <v>-285910.0966971897</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>10233</v>
       </c>
       <c r="G183" t="n">
-        <v>-285910.0966971897</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>11552.4235</v>
       </c>
       <c r="G184" t="n">
-        <v>-285910.0966971897</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>37548.9194</v>
       </c>
       <c r="G185" t="n">
-        <v>-323459.0160971897</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>7668.376</v>
       </c>
       <c r="G186" t="n">
-        <v>-323459.0160971897</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,22 +5993,15 @@
         <v>1255.4315</v>
       </c>
       <c r="G187" t="n">
-        <v>-322203.5845971897</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="J187" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6590,26 +6023,21 @@
         <v>2903.9847</v>
       </c>
       <c r="G188" t="n">
-        <v>-325107.5692971897</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
         <v>39.81</v>
       </c>
-      <c r="J188" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K188" t="inlineStr">
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6631,26 +6059,21 @@
         <v>26.0153</v>
       </c>
       <c r="G189" t="n">
-        <v>-325107.5692971897</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
         <v>39.71</v>
       </c>
-      <c r="J189" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6672,26 +6095,21 @@
         <v>2492.4141</v>
       </c>
       <c r="G190" t="n">
-        <v>-325107.5692971897</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
         <v>39.71</v>
       </c>
-      <c r="J190" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6713,26 +6131,21 @@
         <v>7420.6164</v>
       </c>
       <c r="G191" t="n">
-        <v>-325107.5692971897</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
         <v>39.71</v>
       </c>
-      <c r="J191" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6754,26 +6167,21 @@
         <v>73.0654</v>
       </c>
       <c r="G192" t="n">
-        <v>-325107.5692971897</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
         <v>39.71</v>
       </c>
-      <c r="J192" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6795,26 +6203,21 @@
         <v>1545.2707</v>
       </c>
       <c r="G193" t="n">
-        <v>-323562.2985971897</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
         <v>39.71</v>
       </c>
-      <c r="J193" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6836,26 +6239,21 @@
         <v>6045.5298</v>
       </c>
       <c r="G194" t="n">
-        <v>-323562.2985971897</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
         <v>39.81</v>
       </c>
-      <c r="J194" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6877,26 +6275,21 @@
         <v>65077.3085</v>
       </c>
       <c r="G195" t="n">
-        <v>-323562.2985971897</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
         <v>39.81</v>
       </c>
-      <c r="J195" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6918,26 +6311,21 @@
         <v>7419.18</v>
       </c>
       <c r="G196" t="n">
-        <v>-316143.1185971897</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
         <v>39.81</v>
       </c>
-      <c r="J196" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6959,26 +6347,21 @@
         <v>39728.7279</v>
       </c>
       <c r="G197" t="n">
-        <v>-316143.1185971897</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
         <v>39.98</v>
       </c>
-      <c r="J197" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7000,26 +6383,21 @@
         <v>5008.08379256</v>
       </c>
       <c r="G198" t="n">
-        <v>-311135.0348046297</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
         <v>39.98</v>
       </c>
-      <c r="J198" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7041,26 +6419,19 @@
         <v>17.3583</v>
       </c>
       <c r="G199" t="n">
-        <v>-311117.6765046297</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>40.07</v>
-      </c>
-      <c r="J199" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7082,24 +6453,19 @@
         <v>475.9878</v>
       </c>
       <c r="G200" t="n">
-        <v>-311593.6643046297</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7121,24 +6487,19 @@
         <v>16465.7814</v>
       </c>
       <c r="G201" t="n">
-        <v>-295127.8829046297</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7160,24 +6521,19 @@
         <v>11850.2681</v>
       </c>
       <c r="G202" t="n">
-        <v>-306978.1510046297</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7199,26 +6555,19 @@
         <v>2807.0622</v>
       </c>
       <c r="G203" t="n">
-        <v>-304171.0888046297</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="J203" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7240,24 +6589,19 @@
         <v>1000</v>
       </c>
       <c r="G204" t="n">
-        <v>-303171.0888046297</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7279,24 +6623,19 @@
         <v>4960</v>
       </c>
       <c r="G205" t="n">
-        <v>-308131.0888046297</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7318,24 +6657,19 @@
         <v>25907.7097</v>
       </c>
       <c r="G206" t="n">
-        <v>-334038.7985046298</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7357,26 +6691,19 @@
         <v>60415.2003</v>
       </c>
       <c r="G207" t="n">
-        <v>-273623.5982046297</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>39.61</v>
-      </c>
-      <c r="J207" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7398,24 +6725,19 @@
         <v>97079.9908</v>
       </c>
       <c r="G208" t="n">
-        <v>-370703.5890046298</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7437,24 +6759,19 @@
         <v>1748.79470165</v>
       </c>
       <c r="G209" t="n">
-        <v>-368954.7943029798</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7476,26 +6793,21 @@
         <v>14742.7559</v>
       </c>
       <c r="G210" t="n">
-        <v>-383697.5502029798</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
         <v>39.97</v>
       </c>
-      <c r="J210" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7517,26 +6829,21 @@
         <v>419.2458</v>
       </c>
       <c r="G211" t="n">
-        <v>-383278.3044029798</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
         <v>39.73</v>
       </c>
-      <c r="J211" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7558,24 +6865,19 @@
         <v>43.3787</v>
       </c>
       <c r="G212" t="n">
-        <v>-383234.9257029798</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7597,24 +6899,19 @@
         <v>4477.509</v>
       </c>
       <c r="G213" t="n">
-        <v>-387712.4347029798</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7636,24 +6933,19 @@
         <v>4272.5454</v>
       </c>
       <c r="G214" t="n">
-        <v>-387712.4347029798</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7675,26 +6967,19 @@
         <v>19800</v>
       </c>
       <c r="G215" t="n">
-        <v>-407512.4347029798</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="J215" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7716,26 +7001,19 @@
         <v>69808.8995</v>
       </c>
       <c r="G216" t="n">
-        <v>-337703.5352029798</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="J216" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7757,26 +7035,19 @@
         <v>13319.5162</v>
       </c>
       <c r="G217" t="n">
-        <v>-324384.0190029798</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>39.97</v>
-      </c>
-      <c r="J217" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7798,26 +7069,19 @@
         <v>12415.6213</v>
       </c>
       <c r="G218" t="n">
-        <v>-311968.3977029798</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>40.01</v>
-      </c>
-      <c r="J218" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7839,26 +7103,19 @@
         <v>899.9</v>
       </c>
       <c r="G219" t="n">
-        <v>-311068.4977029798</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>40.11</v>
-      </c>
-      <c r="J219" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7880,26 +7137,19 @@
         <v>24.9315</v>
       </c>
       <c r="G220" t="n">
-        <v>-311093.4292029798</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>40.15</v>
-      </c>
-      <c r="J220" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7921,26 +7171,19 @@
         <v>20043.749</v>
       </c>
       <c r="G221" t="n">
-        <v>-291049.6802029798</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>40.11</v>
-      </c>
-      <c r="J221" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7962,26 +7205,19 @@
         <v>7066.4887</v>
       </c>
       <c r="G222" t="n">
-        <v>-298116.1689029798</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>40.12</v>
-      </c>
-      <c r="J222" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8003,26 +7239,19 @@
         <v>1069.9294</v>
       </c>
       <c r="G223" t="n">
-        <v>-299186.0983029798</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>40.11</v>
-      </c>
-      <c r="J223" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8044,26 +7273,19 @@
         <v>56066.7276</v>
       </c>
       <c r="G224" t="n">
-        <v>-243119.3707029798</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>40.09</v>
-      </c>
-      <c r="J224" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8085,26 +7307,19 @@
         <v>119.788</v>
       </c>
       <c r="G225" t="n">
-        <v>-242999.5827029798</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>40.18</v>
-      </c>
-      <c r="J225" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8126,24 +7341,19 @@
         <v>14745.4759</v>
       </c>
       <c r="G226" t="n">
-        <v>-228254.1068029798</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8165,24 +7375,19 @@
         <v>867.91044776</v>
       </c>
       <c r="G227" t="n">
-        <v>-228254.1068029798</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8204,24 +7409,19 @@
         <v>48516.3764</v>
       </c>
       <c r="G228" t="n">
-        <v>-228254.1068029798</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8243,24 +7443,19 @@
         <v>3388.0694</v>
       </c>
       <c r="G229" t="n">
-        <v>-228254.1068029798</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8282,24 +7477,19 @@
         <v>30922.1395</v>
       </c>
       <c r="G230" t="n">
-        <v>-228254.1068029798</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8321,26 +7511,19 @@
         <v>1560.02835224</v>
       </c>
       <c r="G231" t="n">
-        <v>-228254.1068029798</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="J231" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8362,24 +7545,19 @@
         <v>25</v>
       </c>
       <c r="G232" t="n">
-        <v>-228254.1068029798</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8401,26 +7579,19 @@
         <v>22.4905</v>
       </c>
       <c r="G233" t="n">
-        <v>-228231.6163029798</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="J233" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8442,24 +7613,19 @@
         <v>2388.1892</v>
       </c>
       <c r="G234" t="n">
-        <v>-225843.4271029798</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8481,24 +7647,19 @@
         <v>31558.1731</v>
       </c>
       <c r="G235" t="n">
-        <v>-194285.2540029798</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8520,24 +7681,19 @@
         <v>20654.1074</v>
       </c>
       <c r="G236" t="n">
-        <v>-173631.1466029798</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8559,24 +7715,19 @@
         <v>357615.6784</v>
       </c>
       <c r="G237" t="n">
-        <v>-531246.8250029797</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8598,24 +7749,19 @@
         <v>30887.7697</v>
       </c>
       <c r="G238" t="n">
-        <v>-531246.8250029797</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8637,24 +7783,19 @@
         <v>28091.326</v>
       </c>
       <c r="G239" t="n">
-        <v>-531246.8250029797</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8676,24 +7817,19 @@
         <v>25624.6913</v>
       </c>
       <c r="G240" t="n">
-        <v>-556871.5163029797</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8715,24 +7851,19 @@
         <v>28.4162</v>
       </c>
       <c r="G241" t="n">
-        <v>-556899.9325029796</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8754,24 +7885,19 @@
         <v>3702.1163</v>
       </c>
       <c r="G242" t="n">
-        <v>-553197.8162029797</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8793,24 +7919,19 @@
         <v>29.3758</v>
       </c>
       <c r="G243" t="n">
-        <v>-553227.1920029797</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8832,24 +7953,19 @@
         <v>268.2846</v>
       </c>
       <c r="G244" t="n">
-        <v>-552958.9074029797</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8871,24 +7987,19 @@
         <v>10269.4206</v>
       </c>
       <c r="G245" t="n">
-        <v>-552958.9074029797</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8910,24 +8021,19 @@
         <v>2400.248</v>
       </c>
       <c r="G246" t="n">
-        <v>-550558.6594029797</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8949,24 +8055,19 @@
         <v>397.3986</v>
       </c>
       <c r="G247" t="n">
-        <v>-550956.0580029796</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8988,24 +8089,19 @@
         <v>10269.4206</v>
       </c>
       <c r="G248" t="n">
-        <v>-561225.4786029796</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9027,24 +8123,19 @@
         <v>51469.1252</v>
       </c>
       <c r="G249" t="n">
-        <v>-612694.6038029796</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9066,24 +8157,19 @@
         <v>2391.7724</v>
       </c>
       <c r="G250" t="n">
-        <v>-610302.8314029796</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9105,24 +8191,19 @@
         <v>955.7816</v>
       </c>
       <c r="G251" t="n">
-        <v>-609347.0498029796</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9144,24 +8225,19 @@
         <v>59495.9347</v>
       </c>
       <c r="G252" t="n">
-        <v>-609347.0498029796</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9183,24 +8259,19 @@
         <v>36325.7081</v>
       </c>
       <c r="G253" t="n">
-        <v>-609347.0498029796</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9222,24 +8293,19 @@
         <v>4254.275</v>
       </c>
       <c r="G254" t="n">
-        <v>-609347.0498029796</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9261,24 +8327,19 @@
         <v>107747.27197467</v>
       </c>
       <c r="G255" t="n">
-        <v>-501599.7778283096</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9300,24 +8361,19 @@
         <v>3603.6844542</v>
       </c>
       <c r="G256" t="n">
-        <v>-497996.0933741096</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9339,24 +8395,19 @@
         <v>3181.5218</v>
       </c>
       <c r="G257" t="n">
-        <v>-501177.6151741096</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9378,24 +8429,19 @@
         <v>367.1518</v>
       </c>
       <c r="G258" t="n">
-        <v>-501177.6151741096</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9417,24 +8463,19 @@
         <v>228.1112</v>
       </c>
       <c r="G259" t="n">
-        <v>-500949.5039741096</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9456,24 +8497,19 @@
         <v>2205.0717</v>
       </c>
       <c r="G260" t="n">
-        <v>-503154.5756741096</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9495,24 +8531,19 @@
         <v>24400.8374</v>
       </c>
       <c r="G261" t="n">
-        <v>-503154.5756741096</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9534,24 +8565,19 @@
         <v>75390.03690000001</v>
       </c>
       <c r="G262" t="n">
-        <v>-503154.5756741096</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9573,24 +8599,19 @@
         <v>8087.0391</v>
       </c>
       <c r="G263" t="n">
-        <v>-503154.5756741096</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9612,24 +8633,19 @@
         <v>16000</v>
       </c>
       <c r="G264" t="n">
-        <v>-519154.5756741096</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9651,24 +8667,19 @@
         <v>19991.1562</v>
       </c>
       <c r="G265" t="n">
-        <v>-519154.5756741096</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9690,24 +8701,19 @@
         <v>21150.44</v>
       </c>
       <c r="G266" t="n">
-        <v>-519154.5756741096</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9729,24 +8735,19 @@
         <v>7591.6038</v>
       </c>
       <c r="G267" t="n">
-        <v>-526746.1794741096</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9768,24 +8769,19 @@
         <v>5403.968</v>
       </c>
       <c r="G268" t="n">
-        <v>-526746.1794741096</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9807,24 +8803,19 @@
         <v>33549.5999</v>
       </c>
       <c r="G269" t="n">
-        <v>-560295.7793741096</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9846,24 +8837,19 @@
         <v>12315.32</v>
       </c>
       <c r="G270" t="n">
-        <v>-547980.4593741096</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9885,24 +8871,19 @@
         <v>61.9711</v>
       </c>
       <c r="G271" t="n">
-        <v>-547980.4593741096</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9924,24 +8905,19 @@
         <v>159.7788</v>
       </c>
       <c r="G272" t="n">
-        <v>-547820.6805741097</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9963,24 +8939,19 @@
         <v>5582.1573</v>
       </c>
       <c r="G273" t="n">
-        <v>-542238.5232741097</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10002,24 +8973,19 @@
         <v>2195.3897</v>
       </c>
       <c r="G274" t="n">
-        <v>-544433.9129741098</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10041,24 +9007,19 @@
         <v>9976.3156</v>
       </c>
       <c r="G275" t="n">
-        <v>-534457.5973741098</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10080,24 +9041,19 @@
         <v>23841.2519</v>
       </c>
       <c r="G276" t="n">
-        <v>-510616.3454741098</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10119,24 +9075,19 @@
         <v>96722.09329999999</v>
       </c>
       <c r="G277" t="n">
-        <v>-510616.3454741098</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10158,24 +9109,19 @@
         <v>10105.8785</v>
       </c>
       <c r="G278" t="n">
-        <v>-520722.2239741098</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10197,24 +9143,19 @@
         <v>26.751</v>
       </c>
       <c r="G279" t="n">
-        <v>-520695.4729741098</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10236,24 +9177,19 @@
         <v>5509.7</v>
       </c>
       <c r="G280" t="n">
-        <v>-520695.4729741098</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10275,24 +9211,19 @@
         <v>86.12</v>
       </c>
       <c r="G281" t="n">
-        <v>-520695.4729741098</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10314,24 +9245,19 @@
         <v>20633.2942</v>
       </c>
       <c r="G282" t="n">
-        <v>-541328.7671741098</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10353,24 +9279,19 @@
         <v>2195.3897</v>
       </c>
       <c r="G283" t="n">
-        <v>-539133.3774741098</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10392,24 +9313,19 @@
         <v>68.1818</v>
       </c>
       <c r="G284" t="n">
-        <v>-539065.1956741097</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10431,24 +9347,19 @@
         <v>3998.9556</v>
       </c>
       <c r="G285" t="n">
-        <v>-543064.1512741097</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10470,24 +9381,17 @@
         <v>104</v>
       </c>
       <c r="G286" t="n">
-        <v>-543064.1512741097</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10509,24 +9413,15 @@
         <v>22.716</v>
       </c>
       <c r="G287" t="n">
-        <v>-543086.8672741097</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10548,24 +9443,15 @@
         <v>32328.9144</v>
       </c>
       <c r="G288" t="n">
-        <v>-575415.7816741097</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
